--- a/BackTest/2019-10-16 BackTest FX.xlsx
+++ b/BackTest/2019-10-16 BackTest FX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>15</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>28.57142857142857</v>
+      </c>
       <c r="L12" t="n">
         <v>138.7</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>16</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>23.07692307692308</v>
+      </c>
       <c r="L13" t="n">
         <v>139.2</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>17</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L14" t="n">
         <v>139.4</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>17</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>60</v>
+      </c>
       <c r="L15" t="n">
         <v>139.6</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>17</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
       <c r="L16" t="n">
         <v>140.2</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>17</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>140.2</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>18</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>20</v>
+      </c>
       <c r="L18" t="n">
         <v>140.3</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>19</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>20</v>
+      </c>
       <c r="L19" t="n">
         <v>140.5</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>19</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>50</v>
+      </c>
       <c r="L20" t="n">
         <v>140.6</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>19</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>50</v>
+      </c>
       <c r="L21" t="n">
         <v>140.8</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>21</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-20</v>
+      </c>
       <c r="L22" t="n">
         <v>140.8</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>21</v>
       </c>
       <c r="K23" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>140.7</v>
@@ -1466,7 +1488,7 @@
         <v>21</v>
       </c>
       <c r="K24" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>140.7</v>
@@ -1515,7 +1537,7 @@
         <v>27</v>
       </c>
       <c r="K25" t="n">
-        <v>-16.66666666666666</v>
+        <v>-60</v>
       </c>
       <c r="L25" t="n">
         <v>140.1</v>
@@ -1564,7 +1586,7 @@
         <v>27</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="L26" t="n">
         <v>139.5</v>
@@ -1613,7 +1635,7 @@
         <v>28</v>
       </c>
       <c r="K27" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L27" t="n">
         <v>139</v>
@@ -1662,7 +1684,7 @@
         <v>28</v>
       </c>
       <c r="K28" t="n">
-        <v>-33.33333333333333</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L28" t="n">
         <v>138.4</v>
@@ -1711,7 +1733,7 @@
         <v>30</v>
       </c>
       <c r="K29" t="n">
-        <v>-41.17647058823529</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L29" t="n">
         <v>137.5</v>
@@ -1760,7 +1782,7 @@
         <v>30</v>
       </c>
       <c r="K30" t="n">
-        <v>-50</v>
+        <v>-81.81818181818183</v>
       </c>
       <c r="L30" t="n">
         <v>136.6</v>
@@ -1809,7 +1831,7 @@
         <v>30</v>
       </c>
       <c r="K31" t="n">
-        <v>-46.66666666666666</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L31" t="n">
         <v>135.7</v>
@@ -1860,7 +1882,7 @@
         <v>31</v>
       </c>
       <c r="K32" t="n">
-        <v>-50</v>
+        <v>-80</v>
       </c>
       <c r="L32" t="n">
         <v>134.9</v>
@@ -1911,7 +1933,7 @@
         <v>31</v>
       </c>
       <c r="K33" t="n">
-        <v>-60</v>
+        <v>-80</v>
       </c>
       <c r="L33" t="n">
         <v>134.1</v>
@@ -1962,7 +1984,7 @@
         <v>33</v>
       </c>
       <c r="K34" t="n">
-        <v>-62.5</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L34" t="n">
         <v>133.1</v>
@@ -2013,7 +2035,7 @@
         <v>35</v>
       </c>
       <c r="K35" t="n">
-        <v>-44.44444444444444</v>
+        <v>-25</v>
       </c>
       <c r="L35" t="n">
         <v>132.9</v>
@@ -2064,7 +2086,7 @@
         <v>37</v>
       </c>
       <c r="K36" t="n">
-        <v>-50</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L36" t="n">
         <v>132.5</v>
@@ -2115,7 +2137,7 @@
         <v>38</v>
       </c>
       <c r="K37" t="n">
-        <v>-52.38095238095239</v>
+        <v>-60</v>
       </c>
       <c r="L37" t="n">
         <v>131.9</v>
@@ -2166,7 +2188,7 @@
         <v>41</v>
       </c>
       <c r="K38" t="n">
-        <v>-39.1304347826087</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L38" t="n">
         <v>131.6</v>
@@ -2217,7 +2239,7 @@
         <v>43</v>
       </c>
       <c r="K39" t="n">
-        <v>-50</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L39" t="n">
         <v>131.3</v>
@@ -2268,7 +2290,7 @@
         <v>45</v>
       </c>
       <c r="K40" t="n">
-        <v>-38.46153846153847</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L40" t="n">
         <v>131.2</v>
@@ -2319,7 +2341,7 @@
         <v>45</v>
       </c>
       <c r="K41" t="n">
-        <v>-38.46153846153847</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>131.1</v>
@@ -2370,7 +2392,7 @@
         <v>48</v>
       </c>
       <c r="K42" t="n">
-        <v>-40.74074074074074</v>
+        <v>-17.64705882352941</v>
       </c>
       <c r="L42" t="n">
         <v>130.8</v>
@@ -2421,7 +2443,7 @@
         <v>48</v>
       </c>
       <c r="K43" t="n">
-        <v>-40.74074074074074</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L43" t="n">
         <v>130.5</v>
@@ -2472,7 +2494,7 @@
         <v>49</v>
       </c>
       <c r="K44" t="n">
-        <v>-35.71428571428572</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L44" t="n">
         <v>130.5</v>
@@ -2523,7 +2545,7 @@
         <v>51</v>
       </c>
       <c r="K45" t="n">
-        <v>-25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L45" t="n">
         <v>130.1</v>
@@ -2574,7 +2596,7 @@
         <v>52</v>
       </c>
       <c r="K46" t="n">
-        <v>-28</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L46" t="n">
         <v>129.8</v>
@@ -2625,7 +2647,7 @@
         <v>52</v>
       </c>
       <c r="K47" t="n">
-        <v>-33.33333333333333</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L47" t="n">
         <v>129.6</v>
@@ -2727,7 +2749,7 @@
         <v>52</v>
       </c>
       <c r="K49" t="n">
-        <v>-27.27272727272727</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L49" t="n">
         <v>128.8</v>
@@ -2778,7 +2800,7 @@
         <v>53</v>
       </c>
       <c r="K50" t="n">
-        <v>-30.43478260869566</v>
+        <v>-75</v>
       </c>
       <c r="L50" t="n">
         <v>128.2</v>
@@ -2829,7 +2851,7 @@
         <v>54</v>
       </c>
       <c r="K51" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L51" t="n">
         <v>127.7</v>
@@ -2880,7 +2902,7 @@
         <v>55</v>
       </c>
       <c r="K52" t="n">
-        <v>-25</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L52" t="n">
         <v>127.4</v>
@@ -2931,7 +2953,7 @@
         <v>55</v>
       </c>
       <c r="K53" t="n">
-        <v>-25</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L53" t="n">
         <v>127.1</v>
@@ -2982,7 +3004,7 @@
         <v>56</v>
       </c>
       <c r="K54" t="n">
-        <v>-13.04347826086956</v>
+        <v>-20</v>
       </c>
       <c r="L54" t="n">
         <v>126.8</v>
@@ -3033,7 +3055,7 @@
         <v>56</v>
       </c>
       <c r="K55" t="n">
-        <v>-23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>126.7</v>
@@ -3135,7 +3157,7 @@
         <v>57</v>
       </c>
       <c r="K57" t="n">
-        <v>-15.78947368421053</v>
+        <v>-20</v>
       </c>
       <c r="L57" t="n">
         <v>126.5</v>
@@ -3186,7 +3208,7 @@
         <v>58</v>
       </c>
       <c r="K58" t="n">
-        <v>-29.41176470588236</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>126.5</v>
@@ -3237,7 +3259,7 @@
         <v>59</v>
       </c>
       <c r="K59" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>126.4</v>
@@ -3288,7 +3310,7 @@
         <v>60</v>
       </c>
       <c r="K60" t="n">
-        <v>-46.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L60" t="n">
         <v>126.3</v>
@@ -3339,7 +3361,7 @@
         <v>61</v>
       </c>
       <c r="K61" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L61" t="n">
         <v>126</v>
@@ -3390,7 +3412,7 @@
         <v>65</v>
       </c>
       <c r="K62" t="n">
-        <v>-52.94117647058824</v>
+        <v>-60</v>
       </c>
       <c r="L62" t="n">
         <v>125.4</v>
@@ -3441,7 +3463,7 @@
         <v>70</v>
       </c>
       <c r="K63" t="n">
-        <v>-18.18181818181818</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L63" t="n">
         <v>125.3</v>
@@ -3492,7 +3514,7 @@
         <v>73</v>
       </c>
       <c r="K64" t="n">
-        <v>-33.33333333333333</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L64" t="n">
         <v>124.8</v>
@@ -3543,7 +3565,7 @@
         <v>73</v>
       </c>
       <c r="K65" t="n">
-        <v>-27.27272727272727</v>
+        <v>-25</v>
       </c>
       <c r="L65" t="n">
         <v>124.3</v>
@@ -3594,7 +3616,7 @@
         <v>73</v>
       </c>
       <c r="K66" t="n">
-        <v>-23.80952380952381</v>
+        <v>-25</v>
       </c>
       <c r="L66" t="n">
         <v>123.9</v>
@@ -3645,7 +3667,7 @@
         <v>74</v>
       </c>
       <c r="K67" t="n">
-        <v>-18.18181818181818</v>
+        <v>-25</v>
       </c>
       <c r="L67" t="n">
         <v>123.6</v>
@@ -3696,7 +3718,7 @@
         <v>77</v>
       </c>
       <c r="K68" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>123.5</v>
@@ -3747,7 +3769,7 @@
         <v>78</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L69" t="n">
         <v>123.6</v>
@@ -3798,7 +3820,7 @@
         <v>78</v>
       </c>
       <c r="K70" t="n">
-        <v>4</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L70" t="n">
         <v>123.8</v>
@@ -3849,7 +3871,7 @@
         <v>80</v>
       </c>
       <c r="K71" t="n">
-        <v>-7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L71" t="n">
         <v>123.9</v>
@@ -3900,7 +3922,7 @@
         <v>82</v>
       </c>
       <c r="K72" t="n">
-        <v>3.703703703703703</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L72" t="n">
         <v>124.6</v>
@@ -3951,7 +3973,7 @@
         <v>83</v>
       </c>
       <c r="K73" t="n">
-        <v>7.142857142857142</v>
+        <v>60</v>
       </c>
       <c r="L73" t="n">
         <v>124.9</v>
@@ -4002,7 +4024,7 @@
         <v>86</v>
       </c>
       <c r="K74" t="n">
-        <v>-6.666666666666667</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L74" t="n">
         <v>125.2</v>
@@ -4053,7 +4075,7 @@
         <v>86</v>
       </c>
       <c r="K75" t="n">
-        <v>-6.666666666666667</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L75" t="n">
         <v>125.5</v>
@@ -4104,7 +4126,7 @@
         <v>87</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L76" t="n">
         <v>125.9</v>
@@ -4155,7 +4177,7 @@
         <v>90</v>
       </c>
       <c r="K77" t="n">
-        <v>9.090909090909092</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L77" t="n">
         <v>126.5</v>
@@ -4206,7 +4228,7 @@
         <v>90</v>
       </c>
       <c r="K78" t="n">
-        <v>6.25</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L78" t="n">
         <v>126.8</v>
@@ -4257,7 +4279,7 @@
         <v>92</v>
       </c>
       <c r="K79" t="n">
-        <v>3.03030303030303</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>126.8</v>
@@ -4308,7 +4330,7 @@
         <v>94</v>
       </c>
       <c r="K80" t="n">
-        <v>11.76470588235294</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L80" t="n">
         <v>127</v>
@@ -4359,7 +4381,7 @@
         <v>94</v>
       </c>
       <c r="K81" t="n">
-        <v>15.15151515151515</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L81" t="n">
         <v>127.4</v>
@@ -4410,7 +4432,7 @@
         <v>96</v>
       </c>
       <c r="K82" t="n">
-        <v>22.58064516129032</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L82" t="n">
         <v>127.4</v>
@@ -4461,7 +4483,7 @@
         <v>98</v>
       </c>
       <c r="K83" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L83" t="n">
         <v>127.5</v>
@@ -4512,7 +4534,7 @@
         <v>98</v>
       </c>
       <c r="K84" t="n">
-        <v>28</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L84" t="n">
         <v>127.9</v>
@@ -4563,7 +4585,7 @@
         <v>98</v>
       </c>
       <c r="K85" t="n">
-        <v>28</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L85" t="n">
         <v>128.3</v>
@@ -4614,7 +4636,7 @@
         <v>98</v>
       </c>
       <c r="K86" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="L86" t="n">
         <v>128.6</v>
@@ -4665,7 +4687,7 @@
         <v>100</v>
       </c>
       <c r="K87" t="n">
-        <v>15.38461538461539</v>
+        <v>-20</v>
       </c>
       <c r="L87" t="n">
         <v>128.4</v>
@@ -4716,7 +4738,7 @@
         <v>102</v>
       </c>
       <c r="K88" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L88" t="n">
         <v>128.4</v>
@@ -4767,7 +4789,7 @@
         <v>105</v>
       </c>
       <c r="K89" t="n">
-        <v>-3.703703703703703</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L89" t="n">
         <v>128.3</v>
@@ -4818,7 +4840,7 @@
         <v>108</v>
       </c>
       <c r="K90" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L90" t="n">
         <v>128.3</v>
@@ -4869,7 +4891,7 @@
         <v>109</v>
       </c>
       <c r="K91" t="n">
-        <v>10.3448275862069</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L91" t="n">
         <v>128.2</v>
@@ -4920,7 +4942,7 @@
         <v>109</v>
       </c>
       <c r="K92" t="n">
-        <v>3.703703703703703</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L92" t="n">
         <v>128.3</v>
@@ -4971,7 +4993,7 @@
         <v>110</v>
       </c>
       <c r="K93" t="n">
-        <v>-3.703703703703703</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L93" t="n">
         <v>128.1</v>
@@ -5022,7 +5044,7 @@
         <v>110</v>
       </c>
       <c r="K94" t="n">
-        <v>8.333333333333332</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L94" t="n">
         <v>127.9</v>
@@ -5073,7 +5095,7 @@
         <v>111</v>
       </c>
       <c r="K95" t="n">
-        <v>12</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L95" t="n">
         <v>127.8</v>
@@ -5124,7 +5146,7 @@
         <v>112</v>
       </c>
       <c r="K96" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>127.6</v>
@@ -5175,7 +5197,7 @@
         <v>113</v>
       </c>
       <c r="K97" t="n">
-        <v>-4.347826086956522</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L97" t="n">
         <v>127.7</v>
@@ -5226,7 +5248,7 @@
         <v>113</v>
       </c>
       <c r="K98" t="n">
-        <v>-4.347826086956522</v>
+        <v>25</v>
       </c>
       <c r="L98" t="n">
         <v>127.6</v>
@@ -5277,7 +5299,7 @@
         <v>114</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L99" t="n">
         <v>127.7</v>
@@ -5328,7 +5350,7 @@
         <v>115</v>
       </c>
       <c r="K100" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
         <v>127.6</v>
@@ -5379,7 +5401,7 @@
         <v>115</v>
       </c>
       <c r="K101" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L101" t="n">
         <v>127.6</v>
@@ -5430,7 +5452,7 @@
         <v>115</v>
       </c>
       <c r="K102" t="n">
-        <v>5.263157894736842</v>
+        <v>20</v>
       </c>
       <c r="L102" t="n">
         <v>127.6</v>
@@ -5481,7 +5503,7 @@
         <v>116</v>
       </c>
       <c r="K103" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>127.6</v>
@@ -5532,7 +5554,7 @@
         <v>117</v>
       </c>
       <c r="K104" t="n">
-        <v>-15.78947368421053</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L104" t="n">
         <v>127.5</v>
@@ -5583,7 +5605,7 @@
         <v>119</v>
       </c>
       <c r="K105" t="n">
-        <v>-4.761904761904762</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L105" t="n">
         <v>127.5</v>
@@ -5634,7 +5656,7 @@
         <v>119</v>
       </c>
       <c r="K106" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>127.6</v>
@@ -5685,7 +5707,7 @@
         <v>120</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L107" t="n">
         <v>127.5</v>
@@ -5736,7 +5758,7 @@
         <v>122</v>
       </c>
       <c r="K108" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L108" t="n">
         <v>127.2</v>
@@ -5787,7 +5809,7 @@
         <v>123</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L109" t="n">
         <v>127.1</v>
@@ -5838,7 +5860,7 @@
         <v>123</v>
       </c>
       <c r="K110" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L110" t="n">
         <v>126.9</v>
@@ -5889,7 +5911,7 @@
         <v>124</v>
       </c>
       <c r="K111" t="n">
-        <v>-6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L111" t="n">
         <v>126.8</v>
@@ -5940,7 +5962,7 @@
         <v>124</v>
       </c>
       <c r="K112" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L112" t="n">
         <v>126.7</v>
@@ -5991,7 +6013,7 @@
         <v>125</v>
       </c>
       <c r="K113" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
         <v>126.6</v>
@@ -6042,7 +6064,7 @@
         <v>126</v>
       </c>
       <c r="K114" t="n">
-        <v>-12.5</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L114" t="n">
         <v>126.5</v>
@@ -6093,7 +6115,7 @@
         <v>126</v>
       </c>
       <c r="K115" t="n">
-        <v>-20</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L115" t="n">
         <v>126.2</v>
@@ -6144,7 +6166,7 @@
         <v>126</v>
       </c>
       <c r="K116" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L116" t="n">
         <v>125.9</v>
@@ -6195,7 +6217,7 @@
         <v>126</v>
       </c>
       <c r="K117" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L117" t="n">
         <v>125.7</v>
@@ -6246,7 +6268,7 @@
         <v>127</v>
       </c>
       <c r="K118" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L118" t="n">
         <v>125.8</v>
@@ -6297,7 +6319,7 @@
         <v>127</v>
       </c>
       <c r="K119" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>125.8</v>
@@ -6348,7 +6370,7 @@
         <v>128</v>
       </c>
       <c r="K120" t="n">
-        <v>-23.07692307692308</v>
+        <v>-50</v>
       </c>
       <c r="L120" t="n">
         <v>125.7</v>
@@ -6399,7 +6421,7 @@
         <v>129</v>
       </c>
       <c r="K121" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L121" t="n">
         <v>125.6</v>
@@ -6450,7 +6472,7 @@
         <v>129</v>
       </c>
       <c r="K122" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
         <v>125.5</v>
@@ -6501,7 +6523,7 @@
         <v>130</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L123" t="n">
         <v>125.6</v>
@@ -6552,7 +6574,7 @@
         <v>132</v>
       </c>
       <c r="K124" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>125.6</v>
@@ -6603,7 +6625,7 @@
         <v>134</v>
       </c>
       <c r="K125" t="n">
-        <v>-6.666666666666667</v>
+        <v>25</v>
       </c>
       <c r="L125" t="n">
         <v>125.8</v>
@@ -6654,7 +6676,7 @@
         <v>135</v>
       </c>
       <c r="K126" t="n">
-        <v>-12.5</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L126" t="n">
         <v>125.9</v>
@@ -6705,7 +6727,7 @@
         <v>135</v>
       </c>
       <c r="K127" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>126</v>
@@ -6756,7 +6778,7 @@
         <v>136</v>
       </c>
       <c r="K128" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L128" t="n">
         <v>126.1</v>
@@ -6807,7 +6829,7 @@
         <v>136</v>
       </c>
       <c r="K129" t="n">
-        <v>7.692307692307693</v>
+        <v>25</v>
       </c>
       <c r="L129" t="n">
         <v>126.2</v>

--- a/BackTest/2019-10-16 BackTest FX.xlsx
+++ b/BackTest/2019-10-16 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S129"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>closegap_abs_cumsum</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>MA5</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>BuyPrice</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>bprelay</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -523,20 +489,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -611,18 +561,10 @@
       <c r="I5" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -652,20 +594,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -695,20 +629,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -738,20 +664,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,20 +699,12 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -824,20 +734,12 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +769,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>138.4</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +804,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
-      </c>
-      <c r="J12" t="n">
-        <v>15</v>
-      </c>
-      <c r="K12" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L12" t="n">
-        <v>138.7</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +839,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
-      </c>
-      <c r="J13" t="n">
-        <v>16</v>
-      </c>
-      <c r="K13" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L13" t="n">
-        <v>139.2</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +874,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>17</v>
-      </c>
-      <c r="K14" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L14" t="n">
-        <v>139.4</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
-      </c>
-      <c r="J15" t="n">
-        <v>17</v>
-      </c>
-      <c r="K15" t="n">
-        <v>60</v>
-      </c>
-      <c r="L15" t="n">
-        <v>139.6</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>17</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>140.2</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>17</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>140.2</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>18</v>
-      </c>
-      <c r="K18" t="n">
-        <v>20</v>
-      </c>
-      <c r="L18" t="n">
-        <v>140.3</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>5</v>
-      </c>
-      <c r="J19" t="n">
-        <v>19</v>
-      </c>
-      <c r="K19" t="n">
-        <v>20</v>
-      </c>
-      <c r="L19" t="n">
-        <v>140.5</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>19</v>
-      </c>
-      <c r="K20" t="n">
-        <v>50</v>
-      </c>
-      <c r="L20" t="n">
-        <v>140.6</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>19</v>
-      </c>
-      <c r="K21" t="n">
-        <v>50</v>
-      </c>
-      <c r="L21" t="n">
-        <v>140.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>139.6</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>21</v>
-      </c>
-      <c r="K22" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L22" t="n">
-        <v>140.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>139.75</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
-      </c>
-      <c r="J23" t="n">
-        <v>21</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>140.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>139.95</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>21</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>140.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>140.05</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>27</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L25" t="n">
-        <v>140.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>139.85</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>27</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L26" t="n">
-        <v>139.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>139.85</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>28</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L27" t="n">
-        <v>139</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>139.6</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>28</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-77.77777777777779</v>
-      </c>
-      <c r="L28" t="n">
-        <v>138.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>139.35</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J29" t="n">
-        <v>30</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-81.81818181818183</v>
-      </c>
-      <c r="L29" t="n">
-        <v>137.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>139</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J30" t="n">
-        <v>30</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-81.81818181818183</v>
-      </c>
-      <c r="L30" t="n">
-        <v>136.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>138.6</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J31" t="n">
-        <v>30</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-77.77777777777779</v>
-      </c>
-      <c r="L31" t="n">
-        <v>135.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>138.25</v>
-      </c>
-      <c r="N31" t="n">
-        <v>138.3</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>31</v>
-      </c>
-      <c r="K32" t="n">
-        <v>-80</v>
-      </c>
-      <c r="L32" t="n">
-        <v>134.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>137.85</v>
-      </c>
-      <c r="N32" t="n">
-        <v>138.1333333333333</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>31</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-80</v>
-      </c>
-      <c r="L33" t="n">
-        <v>134.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>137.4</v>
-      </c>
-      <c r="N33" t="n">
-        <v>138</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J34" t="n">
-        <v>33</v>
-      </c>
-      <c r="K34" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L34" t="n">
-        <v>133.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>136.9</v>
-      </c>
-      <c r="N34" t="n">
-        <v>137.7333333333333</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J35" t="n">
-        <v>35</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L35" t="n">
-        <v>132.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>136.5</v>
-      </c>
-      <c r="N35" t="n">
-        <v>137.5333333333333</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J36" t="n">
-        <v>37</v>
-      </c>
-      <c r="K36" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L36" t="n">
-        <v>132.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>136</v>
-      </c>
-      <c r="N36" t="n">
-        <v>137.4</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1679,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J37" t="n">
-        <v>38</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L37" t="n">
-        <v>131.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>135.45</v>
-      </c>
-      <c r="N37" t="n">
-        <v>137.0333333333333</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J38" t="n">
-        <v>41</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L38" t="n">
-        <v>131.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>135</v>
-      </c>
-      <c r="N38" t="n">
-        <v>136.7666666666667</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J39" t="n">
-        <v>43</v>
-      </c>
-      <c r="K39" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L39" t="n">
-        <v>131.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>134.4</v>
-      </c>
-      <c r="N39" t="n">
-        <v>136.4333333333333</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J40" t="n">
-        <v>45</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L40" t="n">
-        <v>131.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>133.9</v>
-      </c>
-      <c r="N40" t="n">
-        <v>136.1333333333333</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>45</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>131.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>133.4</v>
-      </c>
-      <c r="N41" t="n">
-        <v>135.8666666666667</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J42" t="n">
-        <v>48</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-17.64705882352941</v>
-      </c>
-      <c r="L42" t="n">
-        <v>130.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>132.85</v>
-      </c>
-      <c r="N42" t="n">
-        <v>135.5</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1889,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>48</v>
-      </c>
-      <c r="K43" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L43" t="n">
-        <v>130.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>132.3</v>
-      </c>
-      <c r="N43" t="n">
-        <v>135.1</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J44" t="n">
-        <v>49</v>
-      </c>
-      <c r="K44" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L44" t="n">
-        <v>130.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>131.8</v>
-      </c>
-      <c r="N44" t="n">
-        <v>134.7666666666667</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J45" t="n">
-        <v>51</v>
-      </c>
-      <c r="K45" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L45" t="n">
-        <v>130.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>131.5</v>
-      </c>
-      <c r="N45" t="n">
-        <v>134.3666666666667</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J46" t="n">
-        <v>52</v>
-      </c>
-      <c r="K46" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L46" t="n">
-        <v>129.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>131.15</v>
-      </c>
-      <c r="N46" t="n">
-        <v>133.9333333333333</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J47" t="n">
-        <v>52</v>
-      </c>
-      <c r="K47" t="n">
-        <v>-45.45454545454545</v>
-      </c>
-      <c r="L47" t="n">
-        <v>129.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>130.75</v>
-      </c>
-      <c r="N47" t="n">
-        <v>133.5</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J48" t="n">
-        <v>52</v>
-      </c>
-      <c r="K48" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L48" t="n">
-        <v>129.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>130.35</v>
-      </c>
-      <c r="N48" t="n">
-        <v>133.0333333333333</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J49" t="n">
-        <v>52</v>
-      </c>
-      <c r="K49" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L49" t="n">
-        <v>128.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>130.05</v>
-      </c>
-      <c r="N49" t="n">
-        <v>132.5333333333333</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J50" t="n">
-        <v>53</v>
-      </c>
-      <c r="K50" t="n">
-        <v>-75</v>
-      </c>
-      <c r="L50" t="n">
-        <v>128.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>129.7</v>
-      </c>
-      <c r="N50" t="n">
-        <v>132</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J51" t="n">
-        <v>54</v>
-      </c>
-      <c r="K51" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L51" t="n">
-        <v>127.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>129.4</v>
-      </c>
-      <c r="N51" t="n">
-        <v>131.5</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J52" t="n">
-        <v>55</v>
-      </c>
-      <c r="K52" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L52" t="n">
-        <v>127.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>129.1</v>
-      </c>
-      <c r="N52" t="n">
-        <v>131.0333333333333</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J53" t="n">
-        <v>55</v>
-      </c>
-      <c r="K53" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L53" t="n">
-        <v>127.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>128.8</v>
-      </c>
-      <c r="N53" t="n">
-        <v>130.5666666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J54" t="n">
-        <v>56</v>
-      </c>
-      <c r="K54" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L54" t="n">
-        <v>126.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>128.65</v>
-      </c>
-      <c r="N54" t="n">
-        <v>130.1333333333333</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J55" t="n">
-        <v>56</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>126.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>128.4</v>
-      </c>
-      <c r="N55" t="n">
-        <v>129.9</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J56" t="n">
-        <v>57</v>
-      </c>
-      <c r="K56" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L56" t="n">
-        <v>126.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>128.2</v>
-      </c>
-      <c r="N56" t="n">
-        <v>129.6333333333333</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J57" t="n">
-        <v>57</v>
-      </c>
-      <c r="K57" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L57" t="n">
-        <v>126.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>128.05</v>
-      </c>
-      <c r="N57" t="n">
-        <v>129.3333333333333</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J58" t="n">
-        <v>58</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>126.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>127.8</v>
-      </c>
-      <c r="N58" t="n">
-        <v>129.0666666666667</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J59" t="n">
-        <v>59</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>126.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>127.6</v>
-      </c>
-      <c r="N59" t="n">
-        <v>128.8333333333333</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J60" t="n">
-        <v>60</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L60" t="n">
-        <v>126.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>127.25</v>
-      </c>
-      <c r="N60" t="n">
-        <v>128.5666666666667</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J61" t="n">
-        <v>61</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L61" t="n">
-        <v>126</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>126.85</v>
-      </c>
-      <c r="N61" t="n">
-        <v>128.2666666666667</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2554,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-17</v>
-      </c>
-      <c r="J62" t="n">
-        <v>65</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-60</v>
-      </c>
-      <c r="L62" t="n">
-        <v>125.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>126.4</v>
-      </c>
-      <c r="N62" t="n">
-        <v>127.8666666666667</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2589,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J63" t="n">
-        <v>70</v>
-      </c>
-      <c r="K63" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L63" t="n">
-        <v>125.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>126.2</v>
-      </c>
-      <c r="N63" t="n">
-        <v>127.6333333333333</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J64" t="n">
-        <v>73</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-29.41176470588236</v>
-      </c>
-      <c r="L64" t="n">
-        <v>124.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>125.8</v>
-      </c>
-      <c r="N64" t="n">
-        <v>127.3666666666667</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2659,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J65" t="n">
-        <v>73</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L65" t="n">
-        <v>124.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>125.5</v>
-      </c>
-      <c r="N65" t="n">
-        <v>127.0333333333333</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2694,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>-15</v>
-      </c>
-      <c r="J66" t="n">
-        <v>73</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L66" t="n">
-        <v>123.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>125.25</v>
-      </c>
-      <c r="N66" t="n">
-        <v>126.7666666666667</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3658,31 +2726,19 @@
         <v>131.8</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="K67" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L67" t="n">
-        <v>123.6</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>125.05</v>
-      </c>
-      <c r="N67" t="n">
-        <v>126.5666666666667</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3709,31 +2765,23 @@
         <v>131.5666666666667</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>123.5</v>
+        <v>123</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M68" t="n">
-        <v>125</v>
-      </c>
-      <c r="N68" t="n">
-        <v>126.3666666666667</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3760,31 +2808,23 @@
         <v>131.35</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="K69" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L69" t="n">
-        <v>123.6</v>
+        <v>123</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
       </c>
       <c r="M69" t="n">
-        <v>125</v>
-      </c>
-      <c r="N69" t="n">
-        <v>126.2666666666667</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3811,31 +2851,19 @@
         <v>131.1166666666667</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="K70" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L70" t="n">
-        <v>123.8</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>125.05</v>
-      </c>
-      <c r="N70" t="n">
-        <v>126.1</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3862,31 +2890,23 @@
         <v>130.8666666666667</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="K71" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L71" t="n">
-        <v>123.9</v>
+        <v>127</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M71" t="n">
-        <v>124.95</v>
-      </c>
-      <c r="N71" t="n">
-        <v>125.8666666666667</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,31 +2933,23 @@
         <v>130.65</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="K72" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L72" t="n">
-        <v>124.6</v>
+        <v>127</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M72" t="n">
-        <v>125</v>
-      </c>
-      <c r="N72" t="n">
-        <v>125.8</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,31 +2976,23 @@
         <v>130.4333333333333</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="K73" t="n">
-        <v>60</v>
-      </c>
-      <c r="L73" t="n">
-        <v>124.9</v>
+        <v>127</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M73" t="n">
-        <v>125.1</v>
-      </c>
-      <c r="N73" t="n">
-        <v>125.7666666666667</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4015,31 +3019,23 @@
         <v>130.1833333333333</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="K74" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L74" t="n">
-        <v>125.2</v>
+        <v>127</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M74" t="n">
-        <v>125</v>
-      </c>
-      <c r="N74" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,31 +3062,23 @@
         <v>129.9333333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="K75" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L75" t="n">
-        <v>125.5</v>
+        <v>127</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M75" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="N75" t="n">
-        <v>125.5</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4117,31 +3105,23 @@
         <v>129.7</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="K76" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L76" t="n">
-        <v>125.9</v>
+        <v>127</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M76" t="n">
-        <v>124.9</v>
-      </c>
-      <c r="N76" t="n">
-        <v>125.4666666666667</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4168,31 +3148,23 @@
         <v>129.5166666666667</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="K77" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L77" t="n">
-        <v>126.5</v>
+        <v>127</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M77" t="n">
-        <v>125.05</v>
-      </c>
-      <c r="N77" t="n">
-        <v>125.5333333333333</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4219,31 +3191,23 @@
         <v>129.3166666666667</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="K78" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L78" t="n">
-        <v>126.8</v>
+        <v>127</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M78" t="n">
-        <v>125.15</v>
-      </c>
-      <c r="N78" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,31 +3234,23 @@
         <v>129.0666666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>92</v>
+        <v>127</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>126.8</v>
+        <v>127</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M79" t="n">
-        <v>125.2</v>
-      </c>
-      <c r="N79" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4321,31 +3277,23 @@
         <v>128.85</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="K80" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L80" t="n">
-        <v>127</v>
+        <v>127</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M80" t="n">
-        <v>125.4</v>
-      </c>
-      <c r="N80" t="n">
-        <v>125.7</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4372,31 +3320,23 @@
         <v>128.6333333333333</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="K81" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L81" t="n">
-        <v>127.4</v>
+        <v>127</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M81" t="n">
-        <v>125.65</v>
-      </c>
-      <c r="N81" t="n">
-        <v>125.7666666666667</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4423,31 +3363,23 @@
         <v>128.4166666666667</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="K82" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L82" t="n">
-        <v>127.4</v>
+        <v>127</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M82" t="n">
-        <v>126</v>
-      </c>
-      <c r="N82" t="n">
-        <v>125.8</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4474,31 +3406,23 @@
         <v>128.2333333333333</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>98</v>
+        <v>128</v>
       </c>
       <c r="K83" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L83" t="n">
-        <v>127.5</v>
+        <v>127</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M83" t="n">
-        <v>126.2</v>
-      </c>
-      <c r="N83" t="n">
-        <v>125.9</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4525,31 +3449,23 @@
         <v>128.05</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="K84" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L84" t="n">
-        <v>127.9</v>
+        <v>127</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M84" t="n">
-        <v>126.55</v>
-      </c>
-      <c r="N84" t="n">
-        <v>125.9666666666667</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4576,31 +3492,23 @@
         <v>127.9666666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="K85" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L85" t="n">
-        <v>128.3</v>
+        <v>127</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M85" t="n">
-        <v>126.9</v>
-      </c>
-      <c r="N85" t="n">
-        <v>126.0333333333333</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4627,31 +3535,23 @@
         <v>127.8833333333333</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
-      </c>
-      <c r="L86" t="n">
-        <v>128.6</v>
+        <v>127</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M86" t="n">
-        <v>127.25</v>
-      </c>
-      <c r="N86" t="n">
-        <v>126.1333333333333</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4678,31 +3578,23 @@
         <v>127.75</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="K87" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L87" t="n">
-        <v>128.4</v>
+        <v>127</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M87" t="n">
-        <v>127.45</v>
-      </c>
-      <c r="N87" t="n">
-        <v>126.1666666666667</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4729,31 +3621,23 @@
         <v>127.65</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="K88" t="n">
-        <v>20</v>
-      </c>
-      <c r="L88" t="n">
-        <v>128.4</v>
+        <v>127</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M88" t="n">
-        <v>127.6</v>
-      </c>
-      <c r="N88" t="n">
-        <v>126.2333333333333</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4780,31 +3664,23 @@
         <v>127.5333333333333</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="K89" t="n">
-        <v>-27.27272727272727</v>
-      </c>
-      <c r="L89" t="n">
-        <v>128.3</v>
+        <v>127</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M89" t="n">
-        <v>127.55</v>
-      </c>
-      <c r="N89" t="n">
-        <v>126.2333333333333</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4831,31 +3707,23 @@
         <v>127.4666666666667</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
-      </c>
-      <c r="L90" t="n">
-        <v>128.3</v>
+        <v>127</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M90" t="n">
-        <v>127.65</v>
-      </c>
-      <c r="N90" t="n">
-        <v>126.3666666666667</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4882,31 +3750,23 @@
         <v>127.3833333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="K91" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L91" t="n">
-        <v>128.2</v>
+        <v>127</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M91" t="n">
-        <v>127.8</v>
-      </c>
-      <c r="N91" t="n">
-        <v>126.5</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4933,31 +3793,23 @@
         <v>127.3166666666667</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="K92" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L92" t="n">
-        <v>128.3</v>
+        <v>127</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M92" t="n">
-        <v>127.85</v>
-      </c>
-      <c r="N92" t="n">
-        <v>126.7666666666667</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4984,31 +3836,23 @@
         <v>127.2333333333333</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="K93" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L93" t="n">
-        <v>128.1</v>
+        <v>127</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M93" t="n">
-        <v>127.8</v>
-      </c>
-      <c r="N93" t="n">
-        <v>126.8333333333333</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5035,31 +3879,23 @@
         <v>127.1833333333333</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="K94" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L94" t="n">
-        <v>127.9</v>
+        <v>127</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M94" t="n">
-        <v>127.9</v>
-      </c>
-      <c r="N94" t="n">
-        <v>127</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,31 +3922,23 @@
         <v>127.1166666666667</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="K95" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L95" t="n">
-        <v>127.8</v>
+        <v>127</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M95" t="n">
-        <v>128.05</v>
-      </c>
-      <c r="N95" t="n">
-        <v>127.2</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5137,31 +3965,23 @@
         <v>127.0666666666667</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>127.6</v>
+        <v>127</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M96" t="n">
-        <v>128.1</v>
-      </c>
-      <c r="N96" t="n">
-        <v>127.3666666666667</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,31 +4008,23 @@
         <v>127.05</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="K97" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L97" t="n">
-        <v>127.7</v>
+        <v>127</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M97" t="n">
-        <v>128.05</v>
-      </c>
-      <c r="N97" t="n">
-        <v>127.5333333333333</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5239,31 +4051,23 @@
         <v>126.9833333333333</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="K98" t="n">
-        <v>25</v>
-      </c>
-      <c r="L98" t="n">
-        <v>127.6</v>
+        <v>127</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M98" t="n">
-        <v>128</v>
-      </c>
-      <c r="N98" t="n">
-        <v>127.6</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5290,31 +4094,23 @@
         <v>126.9333333333333</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="K99" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L99" t="n">
-        <v>127.7</v>
+        <v>127</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M99" t="n">
-        <v>128</v>
-      </c>
-      <c r="N99" t="n">
-        <v>127.6</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5341,31 +4137,23 @@
         <v>126.8666666666667</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>127.6</v>
+        <v>127</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M100" t="n">
-        <v>127.95</v>
-      </c>
-      <c r="N100" t="n">
-        <v>127.6333333333333</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5392,31 +4180,23 @@
         <v>126.8</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="n">
-        <v>127.6</v>
+        <v>127</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M101" t="n">
-        <v>127.9</v>
-      </c>
-      <c r="N101" t="n">
-        <v>127.7333333333333</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5443,31 +4223,23 @@
         <v>126.7833333333333</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="K102" t="n">
-        <v>20</v>
-      </c>
-      <c r="L102" t="n">
-        <v>127.6</v>
+        <v>127</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M102" t="n">
-        <v>127.95</v>
-      </c>
-      <c r="N102" t="n">
-        <v>127.7666666666667</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5494,31 +4266,23 @@
         <v>126.75</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>127.6</v>
+        <v>127</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M103" t="n">
-        <v>127.85</v>
-      </c>
-      <c r="N103" t="n">
-        <v>127.7333333333333</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5545,31 +4309,23 @@
         <v>126.6833333333333</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K104" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L104" t="n">
-        <v>127.5</v>
+        <v>127</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M104" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="N104" t="n">
-        <v>127.7666666666667</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5596,31 +4352,23 @@
         <v>126.6833333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K105" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L105" t="n">
-        <v>127.5</v>
+        <v>127</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M105" t="n">
-        <v>127.65</v>
-      </c>
-      <c r="N105" t="n">
-        <v>127.8666666666667</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5647,31 +4395,23 @@
         <v>126.7</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
-      </c>
-      <c r="L106" t="n">
-        <v>127.6</v>
+        <v>127</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M106" t="n">
-        <v>127.6</v>
-      </c>
-      <c r="N106" t="n">
-        <v>127.9333333333333</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,31 +4438,23 @@
         <v>126.7</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="K107" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L107" t="n">
-        <v>127.5</v>
+        <v>127</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M107" t="n">
-        <v>127.6</v>
-      </c>
-      <c r="N107" t="n">
-        <v>127.8666666666667</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5749,1102 +4481,23 @@
         <v>126.6666666666667</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K108" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L108" t="n">
-        <v>127.2</v>
+        <v>127</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M108" t="n">
-        <v>127.4</v>
-      </c>
-      <c r="N108" t="n">
-        <v>127.7333333333333</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>126</v>
-      </c>
-      <c r="C109" t="n">
-        <v>126</v>
-      </c>
-      <c r="D109" t="n">
-        <v>126</v>
-      </c>
-      <c r="E109" t="n">
-        <v>126</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1</v>
-      </c>
-      <c r="G109" t="n">
-        <v>126.65</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J109" t="n">
-        <v>123</v>
-      </c>
-      <c r="K109" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L109" t="n">
-        <v>127.1</v>
-      </c>
-      <c r="M109" t="n">
-        <v>127.4</v>
-      </c>
-      <c r="N109" t="n">
-        <v>127.7</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>126</v>
-      </c>
-      <c r="C110" t="n">
-        <v>126</v>
-      </c>
-      <c r="D110" t="n">
-        <v>126</v>
-      </c>
-      <c r="E110" t="n">
-        <v>126</v>
-      </c>
-      <c r="F110" t="n">
-        <v>9811.306699999999</v>
-      </c>
-      <c r="G110" t="n">
-        <v>126.65</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J110" t="n">
-        <v>123</v>
-      </c>
-      <c r="K110" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L110" t="n">
-        <v>126.9</v>
-      </c>
-      <c r="M110" t="n">
-        <v>127.25</v>
-      </c>
-      <c r="N110" t="n">
-        <v>127.6</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>127</v>
-      </c>
-      <c r="C111" t="n">
-        <v>127</v>
-      </c>
-      <c r="D111" t="n">
-        <v>127</v>
-      </c>
-      <c r="E111" t="n">
-        <v>127</v>
-      </c>
-      <c r="F111" t="n">
-        <v>1</v>
-      </c>
-      <c r="G111" t="n">
-        <v>126.65</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J111" t="n">
-        <v>124</v>
-      </c>
-      <c r="K111" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L111" t="n">
-        <v>126.8</v>
-      </c>
-      <c r="M111" t="n">
-        <v>127.2</v>
-      </c>
-      <c r="N111" t="n">
-        <v>127.5333333333333</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>127</v>
-      </c>
-      <c r="C112" t="n">
-        <v>127</v>
-      </c>
-      <c r="D112" t="n">
-        <v>127</v>
-      </c>
-      <c r="E112" t="n">
-        <v>127</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1274</v>
-      </c>
-      <c r="G112" t="n">
-        <v>126.6666666666667</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J112" t="n">
-        <v>124</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0</v>
-      </c>
-      <c r="L112" t="n">
-        <v>126.7</v>
-      </c>
-      <c r="M112" t="n">
-        <v>127.15</v>
-      </c>
-      <c r="N112" t="n">
-        <v>127.5333333333333</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>126</v>
-      </c>
-      <c r="C113" t="n">
-        <v>126</v>
-      </c>
-      <c r="D113" t="n">
-        <v>126</v>
-      </c>
-      <c r="E113" t="n">
-        <v>126</v>
-      </c>
-      <c r="F113" t="n">
-        <v>132.0312</v>
-      </c>
-      <c r="G113" t="n">
-        <v>126.6666666666667</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J113" t="n">
-        <v>125</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0</v>
-      </c>
-      <c r="L113" t="n">
-        <v>126.6</v>
-      </c>
-      <c r="M113" t="n">
-        <v>127.1</v>
-      </c>
-      <c r="N113" t="n">
-        <v>127.4333333333333</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>126</v>
-      </c>
-      <c r="C114" t="n">
-        <v>125</v>
-      </c>
-      <c r="D114" t="n">
-        <v>126</v>
-      </c>
-      <c r="E114" t="n">
-        <v>125</v>
-      </c>
-      <c r="F114" t="n">
-        <v>31259.0241</v>
-      </c>
-      <c r="G114" t="n">
-        <v>126.6333333333333</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J114" t="n">
-        <v>126</v>
-      </c>
-      <c r="K114" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L114" t="n">
-        <v>126.5</v>
-      </c>
-      <c r="M114" t="n">
-        <v>127</v>
-      </c>
-      <c r="N114" t="n">
-        <v>127.3</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>125</v>
-      </c>
-      <c r="C115" t="n">
-        <v>125</v>
-      </c>
-      <c r="D115" t="n">
-        <v>125</v>
-      </c>
-      <c r="E115" t="n">
-        <v>125</v>
-      </c>
-      <c r="F115" t="n">
-        <v>4979.7536</v>
-      </c>
-      <c r="G115" t="n">
-        <v>126.6</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J115" t="n">
-        <v>126</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-42.85714285714285</v>
-      </c>
-      <c r="L115" t="n">
-        <v>126.2</v>
-      </c>
-      <c r="M115" t="n">
-        <v>126.85</v>
-      </c>
-      <c r="N115" t="n">
-        <v>127.1666666666667</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>125</v>
-      </c>
-      <c r="C116" t="n">
-        <v>125</v>
-      </c>
-      <c r="D116" t="n">
-        <v>125</v>
-      </c>
-      <c r="E116" t="n">
-        <v>125</v>
-      </c>
-      <c r="F116" t="n">
-        <v>20216.3552</v>
-      </c>
-      <c r="G116" t="n">
-        <v>126.5833333333333</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J116" t="n">
-        <v>126</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L116" t="n">
-        <v>125.9</v>
-      </c>
-      <c r="M116" t="n">
-        <v>126.75</v>
-      </c>
-      <c r="N116" t="n">
-        <v>127.0333333333333</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>125</v>
-      </c>
-      <c r="C117" t="n">
-        <v>125</v>
-      </c>
-      <c r="D117" t="n">
-        <v>125</v>
-      </c>
-      <c r="E117" t="n">
-        <v>125</v>
-      </c>
-      <c r="F117" t="n">
-        <v>2325.92</v>
-      </c>
-      <c r="G117" t="n">
-        <v>126.5666666666667</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J117" t="n">
-        <v>126</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0</v>
-      </c>
-      <c r="L117" t="n">
-        <v>125.7</v>
-      </c>
-      <c r="M117" t="n">
-        <v>126.6</v>
-      </c>
-      <c r="N117" t="n">
-        <v>126.9666666666667</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>125</v>
-      </c>
-      <c r="C118" t="n">
-        <v>126</v>
-      </c>
-      <c r="D118" t="n">
-        <v>126</v>
-      </c>
-      <c r="E118" t="n">
-        <v>125</v>
-      </c>
-      <c r="F118" t="n">
-        <v>543.275</v>
-      </c>
-      <c r="G118" t="n">
-        <v>126.55</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J118" t="n">
-        <v>127</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L118" t="n">
-        <v>125.8</v>
-      </c>
-      <c r="M118" t="n">
-        <v>126.5</v>
-      </c>
-      <c r="N118" t="n">
-        <v>126.8666666666667</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>126</v>
-      </c>
-      <c r="C119" t="n">
-        <v>126</v>
-      </c>
-      <c r="D119" t="n">
-        <v>126</v>
-      </c>
-      <c r="E119" t="n">
-        <v>126</v>
-      </c>
-      <c r="F119" t="n">
-        <v>1</v>
-      </c>
-      <c r="G119" t="n">
-        <v>126.55</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J119" t="n">
-        <v>127</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>125.8</v>
-      </c>
-      <c r="M119" t="n">
-        <v>126.45</v>
-      </c>
-      <c r="N119" t="n">
-        <v>126.8666666666667</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>125</v>
-      </c>
-      <c r="C120" t="n">
-        <v>125</v>
-      </c>
-      <c r="D120" t="n">
-        <v>125</v>
-      </c>
-      <c r="E120" t="n">
-        <v>125</v>
-      </c>
-      <c r="F120" t="n">
-        <v>199.5</v>
-      </c>
-      <c r="G120" t="n">
-        <v>126.55</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J120" t="n">
-        <v>128</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L120" t="n">
-        <v>125.7</v>
-      </c>
-      <c r="M120" t="n">
-        <v>126.3</v>
-      </c>
-      <c r="N120" t="n">
-        <v>126.7333333333333</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>126</v>
-      </c>
-      <c r="C121" t="n">
-        <v>126</v>
-      </c>
-      <c r="D121" t="n">
-        <v>126</v>
-      </c>
-      <c r="E121" t="n">
-        <v>126</v>
-      </c>
-      <c r="F121" t="n">
-        <v>350</v>
-      </c>
-      <c r="G121" t="n">
-        <v>126.5833333333333</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J121" t="n">
-        <v>129</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L121" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="M121" t="n">
-        <v>126.2</v>
-      </c>
-      <c r="N121" t="n">
-        <v>126.6666666666667</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>126</v>
-      </c>
-      <c r="C122" t="n">
-        <v>126</v>
-      </c>
-      <c r="D122" t="n">
-        <v>126</v>
-      </c>
-      <c r="E122" t="n">
-        <v>126</v>
-      </c>
-      <c r="F122" t="n">
-        <v>8320.193300000001</v>
-      </c>
-      <c r="G122" t="n">
-        <v>126.6833333333333</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J122" t="n">
-        <v>129</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0</v>
-      </c>
-      <c r="L122" t="n">
-        <v>125.5</v>
-      </c>
-      <c r="M122" t="n">
-        <v>126.1</v>
-      </c>
-      <c r="N122" t="n">
-        <v>126.6</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>126</v>
-      </c>
-      <c r="C123" t="n">
-        <v>127</v>
-      </c>
-      <c r="D123" t="n">
-        <v>127</v>
-      </c>
-      <c r="E123" t="n">
-        <v>126</v>
-      </c>
-      <c r="F123" t="n">
-        <v>3</v>
-      </c>
-      <c r="G123" t="n">
-        <v>126.7166666666667</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J123" t="n">
-        <v>130</v>
-      </c>
-      <c r="K123" t="n">
-        <v>50</v>
-      </c>
-      <c r="L123" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="M123" t="n">
-        <v>126.1</v>
-      </c>
-      <c r="N123" t="n">
-        <v>126.6</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>125</v>
-      </c>
-      <c r="C124" t="n">
-        <v>125</v>
-      </c>
-      <c r="D124" t="n">
-        <v>125</v>
-      </c>
-      <c r="E124" t="n">
-        <v>125</v>
-      </c>
-      <c r="F124" t="n">
-        <v>5959.2431</v>
-      </c>
-      <c r="G124" t="n">
-        <v>126.7666666666667</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>-12</v>
-      </c>
-      <c r="J124" t="n">
-        <v>132</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0</v>
-      </c>
-      <c r="L124" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="M124" t="n">
-        <v>126.05</v>
-      </c>
-      <c r="N124" t="n">
-        <v>126.5333333333333</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>127</v>
-      </c>
-      <c r="C125" t="n">
-        <v>127</v>
-      </c>
-      <c r="D125" t="n">
-        <v>127</v>
-      </c>
-      <c r="E125" t="n">
-        <v>127</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1</v>
-      </c>
-      <c r="G125" t="n">
-        <v>126.85</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J125" t="n">
-        <v>134</v>
-      </c>
-      <c r="K125" t="n">
-        <v>25</v>
-      </c>
-      <c r="L125" t="n">
-        <v>125.8</v>
-      </c>
-      <c r="M125" t="n">
-        <v>126</v>
-      </c>
-      <c r="N125" t="n">
-        <v>126.5</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>126</v>
-      </c>
-      <c r="C126" t="n">
-        <v>126</v>
-      </c>
-      <c r="D126" t="n">
-        <v>126</v>
-      </c>
-      <c r="E126" t="n">
-        <v>126</v>
-      </c>
-      <c r="F126" t="n">
-        <v>1003.2943</v>
-      </c>
-      <c r="G126" t="n">
-        <v>126.9166666666667</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J126" t="n">
-        <v>135</v>
-      </c>
-      <c r="K126" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L126" t="n">
-        <v>125.9</v>
-      </c>
-      <c r="M126" t="n">
-        <v>125.9</v>
-      </c>
-      <c r="N126" t="n">
-        <v>126.4666666666667</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>125</v>
-      </c>
-      <c r="C127" t="n">
-        <v>126</v>
-      </c>
-      <c r="D127" t="n">
-        <v>126</v>
-      </c>
-      <c r="E127" t="n">
-        <v>125</v>
-      </c>
-      <c r="F127" t="n">
-        <v>7715.8448</v>
-      </c>
-      <c r="G127" t="n">
-        <v>126.9666666666667</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J127" t="n">
-        <v>135</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0</v>
-      </c>
-      <c r="L127" t="n">
-        <v>126</v>
-      </c>
-      <c r="M127" t="n">
-        <v>125.85</v>
-      </c>
-      <c r="N127" t="n">
-        <v>126.4</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>127</v>
-      </c>
-      <c r="C128" t="n">
-        <v>127</v>
-      </c>
-      <c r="D128" t="n">
-        <v>127</v>
-      </c>
-      <c r="E128" t="n">
-        <v>127</v>
-      </c>
-      <c r="F128" t="n">
-        <v>1</v>
-      </c>
-      <c r="G128" t="n">
-        <v>126.9833333333333</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J128" t="n">
-        <v>136</v>
-      </c>
-      <c r="K128" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L128" t="n">
-        <v>126.1</v>
-      </c>
-      <c r="M128" t="n">
-        <v>125.95</v>
-      </c>
-      <c r="N128" t="n">
-        <v>126.3666666666667</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>127</v>
-      </c>
-      <c r="C129" t="n">
-        <v>127</v>
-      </c>
-      <c r="D129" t="n">
-        <v>127</v>
-      </c>
-      <c r="E129" t="n">
-        <v>127</v>
-      </c>
-      <c r="F129" t="n">
-        <v>6833.0551</v>
-      </c>
-      <c r="G129" t="n">
-        <v>126.9833333333333</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J129" t="n">
-        <v>136</v>
-      </c>
-      <c r="K129" t="n">
-        <v>25</v>
-      </c>
-      <c r="L129" t="n">
-        <v>126.2</v>
-      </c>
-      <c r="M129" t="n">
-        <v>126</v>
-      </c>
-      <c r="N129" t="n">
-        <v>126.3666666666667</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-16 BackTest FX.xlsx
+++ b/BackTest/2019-10-16 BackTest FX.xlsx
@@ -524,7 +524,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -2096,13 +2096,17 @@
         <v>134.5666666666667</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>127</v>
+      </c>
+      <c r="K49" t="n">
+        <v>127</v>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
@@ -2131,14 +2135,22 @@
         <v>134.5166666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>127</v>
+      </c>
+      <c r="K50" t="n">
+        <v>127</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2166,14 +2178,22 @@
         <v>134.45</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>126</v>
+      </c>
+      <c r="K51" t="n">
+        <v>127</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2201,14 +2221,22 @@
         <v>134.4</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>127</v>
+      </c>
+      <c r="K52" t="n">
+        <v>127</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2242,8 +2270,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>127</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2277,8 +2311,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>127</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2312,8 +2352,14 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>127</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2341,14 +2387,22 @@
         <v>134.0333333333333</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>127</v>
+      </c>
+      <c r="K56" t="n">
+        <v>127</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2382,8 +2436,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>127</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2417,8 +2477,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>127</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2452,8 +2518,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>127</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2487,8 +2559,14 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>127</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2522,8 +2600,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>127</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2557,8 +2641,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>127</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2592,8 +2682,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>127</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2627,8 +2723,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>127</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2662,8 +2764,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>127</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2697,8 +2805,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>127</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2726,18 +2840,20 @@
         <v>131.8</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>123</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>123</v>
-      </c>
-      <c r="L67" t="inlineStr"/>
+        <v>127</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2765,20 +2881,18 @@
         <v>131.5666666666667</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>126</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M68" t="n">
@@ -2808,20 +2922,18 @@
         <v>131.35</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>127</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M69" t="n">
@@ -2851,18 +2963,20 @@
         <v>131.1166666666667</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>127</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
         <v>127</v>
       </c>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2890,20 +3004,18 @@
         <v>130.8666666666667</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>127</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
         <v>127</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M71" t="n">
@@ -2933,14 +3045,12 @@
         <v>130.65</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>127</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
         <v>127</v>
       </c>
@@ -2976,14 +3086,12 @@
         <v>130.4333333333333</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>127</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
         <v>127</v>
       </c>
@@ -3019,14 +3127,12 @@
         <v>130.1833333333333</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>128</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
         <v>127</v>
       </c>
@@ -3062,14 +3168,12 @@
         <v>129.9333333333333</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>128</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
         <v>127</v>
       </c>
@@ -3105,14 +3209,12 @@
         <v>129.7</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>128</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
         <v>127</v>
       </c>
@@ -3148,14 +3250,12 @@
         <v>129.5166666666667</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>129</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
         <v>127</v>
       </c>
@@ -3191,14 +3291,12 @@
         <v>129.3166666666667</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>129</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
         <v>127</v>
       </c>
@@ -3234,14 +3332,12 @@
         <v>129.0666666666667</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>127</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
         <v>127</v>
       </c>
@@ -3277,14 +3373,12 @@
         <v>128.85</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>129</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
         <v>127</v>
       </c>
@@ -3320,14 +3414,12 @@
         <v>128.6333333333333</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>127</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
         <v>127</v>
       </c>
@@ -3363,14 +3455,12 @@
         <v>128.4166666666667</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>127</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
         <v>127</v>
       </c>
@@ -3406,14 +3496,12 @@
         <v>128.2333333333333</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>128</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
         <v>127</v>
       </c>
@@ -3449,14 +3537,12 @@
         <v>128.05</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>129</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
         <v>127</v>
       </c>
@@ -3492,14 +3578,12 @@
         <v>127.9666666666667</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>127</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
         <v>127</v>
       </c>
@@ -3535,14 +3619,12 @@
         <v>127.8833333333333</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>129</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
         <v>127</v>
       </c>
@@ -3578,14 +3660,12 @@
         <v>127.75</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>127</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
         <v>127</v>
       </c>
@@ -3621,14 +3701,12 @@
         <v>127.65</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>128</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
         <v>127</v>
       </c>
@@ -3664,14 +3742,12 @@
         <v>127.5333333333333</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>127</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
         <v>127</v>
       </c>
@@ -3707,14 +3783,12 @@
         <v>127.4666666666667</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>129</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
         <v>127</v>
       </c>
@@ -3750,14 +3824,12 @@
         <v>127.3833333333333</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>128</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
         <v>127</v>
       </c>
@@ -3793,14 +3865,12 @@
         <v>127.3166666666667</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>127</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
         <v>127</v>
       </c>
@@ -3836,14 +3906,12 @@
         <v>127.2333333333333</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>127</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
         <v>127</v>
       </c>
@@ -3879,14 +3947,12 @@
         <v>127.1833333333333</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>127</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
         <v>127</v>
       </c>
@@ -3922,14 +3988,12 @@
         <v>127.1166666666667</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>128</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
         <v>127</v>
       </c>
@@ -3965,14 +4029,12 @@
         <v>127.0666666666667</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>127</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
         <v>127</v>
       </c>
@@ -4008,14 +4070,12 @@
         <v>127.05</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>128</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
         <v>127</v>
       </c>
@@ -4051,14 +4111,12 @@
         <v>126.9833333333333</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>128</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
         <v>127</v>
       </c>
@@ -4094,14 +4152,12 @@
         <v>126.9333333333333</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>127</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
         <v>127</v>
       </c>
@@ -4137,14 +4193,12 @@
         <v>126.8666666666667</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>128</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
         <v>127</v>
       </c>
@@ -4180,14 +4234,12 @@
         <v>126.8</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>128</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
         <v>127</v>
       </c>
@@ -4223,14 +4275,12 @@
         <v>126.7833333333333</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>127</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
         <v>127</v>
       </c>
@@ -4266,14 +4316,12 @@
         <v>126.75</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>127</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
         <v>127</v>
       </c>
@@ -4309,14 +4357,12 @@
         <v>126.6833333333333</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>126</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
         <v>127</v>
       </c>
@@ -4352,14 +4398,12 @@
         <v>126.6833333333333</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>128</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
         <v>127</v>
       </c>
@@ -4395,14 +4439,12 @@
         <v>126.7</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>127</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
         <v>127</v>
       </c>
@@ -4438,14 +4480,12 @@
         <v>126.7</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>126</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
         <v>127</v>
       </c>
@@ -4481,14 +4521,12 @@
         <v>126.6666666666667</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>125</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
         <v>127</v>
       </c>

--- a/BackTest/2019-10-16 BackTest FX.xlsx
+++ b/BackTest/2019-10-16 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,25 @@
         <v>136</v>
       </c>
       <c r="C2" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E2" t="n">
         <v>136</v>
       </c>
       <c r="F2" t="n">
-        <v>11628.8198</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>129.9333333333333</v>
+        <v>129.8333333333333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>136</v>
+      </c>
+      <c r="C3" t="n">
         <v>137</v>
       </c>
-      <c r="C3" t="n">
-        <v>136</v>
-      </c>
       <c r="D3" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E3" t="n">
         <v>136</v>
       </c>
       <c r="F3" t="n">
-        <v>29932.5919</v>
+        <v>11628.8198</v>
       </c>
       <c r="G3" t="n">
-        <v>130.05</v>
+        <v>129.9333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D4" t="n">
         <v>138</v>
       </c>
       <c r="E4" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>29932.5919</v>
       </c>
       <c r="G4" t="n">
-        <v>130.15</v>
+        <v>130.05</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>138</v>
       </c>
       <c r="F5" t="n">
-        <v>17093.0724</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>130.3</v>
+        <v>130.15</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,25 +576,25 @@
         <v>138</v>
       </c>
       <c r="C6" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D6" t="n">
         <v>138</v>
       </c>
       <c r="E6" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F6" t="n">
-        <v>18428.657</v>
+        <v>17093.0724</v>
       </c>
       <c r="G6" t="n">
-        <v>130.3833333333333</v>
+        <v>130.3</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" t="n">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D7" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E7" t="n">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F7" t="n">
-        <v>3757.808479285714</v>
+        <v>18428.657</v>
       </c>
       <c r="G7" t="n">
-        <v>130.5833333333333</v>
+        <v>130.3833333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -652,19 +652,19 @@
         <v>140</v>
       </c>
       <c r="E8" t="n">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="F8" t="n">
-        <v>37606.00612071429</v>
+        <v>3757.808479285714</v>
       </c>
       <c r="G8" t="n">
-        <v>130.7166666666667</v>
+        <v>130.5833333333333</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" t="n">
         <v>140</v>
@@ -687,19 +687,19 @@
         <v>140</v>
       </c>
       <c r="E9" t="n">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F9" t="n">
-        <v>88619.06419999999</v>
+        <v>37606.00612071429</v>
       </c>
       <c r="G9" t="n">
-        <v>130.8666666666667</v>
+        <v>130.7166666666667</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C10" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D10" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E10" t="n">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F10" t="n">
-        <v>30275.19850851064</v>
+        <v>88619.06419999999</v>
       </c>
       <c r="G10" t="n">
-        <v>131.0333333333333</v>
+        <v>130.8666666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -751,25 +751,25 @@
         <v>141</v>
       </c>
       <c r="C11" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D11" t="n">
         <v>141</v>
       </c>
       <c r="E11" t="n">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F11" t="n">
-        <v>51832.30615071428</v>
+        <v>30275.19850851064</v>
       </c>
       <c r="G11" t="n">
-        <v>131.1833333333333</v>
+        <v>131.0333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -783,28 +783,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C12" t="n">
         <v>140</v>
       </c>
       <c r="D12" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E12" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F12" t="n">
-        <v>2776.825</v>
+        <v>51832.30615071428</v>
       </c>
       <c r="G12" t="n">
-        <v>131.3333333333333</v>
+        <v>131.1833333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -818,28 +818,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C13" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D13" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E13" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F13" t="n">
-        <v>3531.4751</v>
+        <v>2776.825</v>
       </c>
       <c r="G13" t="n">
-        <v>131.5</v>
+        <v>131.3333333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C14" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D14" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E14" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F14" t="n">
-        <v>5600</v>
+        <v>3531.4751</v>
       </c>
       <c r="G14" t="n">
-        <v>131.6666666666667</v>
+        <v>131.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,10 +900,10 @@
         <v>140</v>
       </c>
       <c r="F15" t="n">
-        <v>493.2565</v>
+        <v>5600</v>
       </c>
       <c r="G15" t="n">
-        <v>131.8333333333333</v>
+        <v>131.6666666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -932,13 +932,13 @@
         <v>140</v>
       </c>
       <c r="E16" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F16" t="n">
-        <v>11613.9934</v>
+        <v>493.2565</v>
       </c>
       <c r="G16" t="n">
-        <v>132</v>
+        <v>131.8333333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -967,13 +967,13 @@
         <v>140</v>
       </c>
       <c r="E17" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F17" t="n">
-        <v>3302.3944</v>
+        <v>11613.9934</v>
       </c>
       <c r="G17" t="n">
-        <v>132.1833333333333</v>
+        <v>132</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>140</v>
       </c>
       <c r="C18" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D18" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18" t="n">
         <v>140</v>
       </c>
       <c r="F18" t="n">
-        <v>4859.7569</v>
+        <v>3302.3944</v>
       </c>
       <c r="G18" t="n">
-        <v>132.3833333333333</v>
+        <v>132.1833333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
+        <v>140</v>
+      </c>
+      <c r="C19" t="n">
         <v>141</v>
       </c>
-      <c r="C19" t="n">
-        <v>142</v>
-      </c>
       <c r="D19" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E19" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F19" t="n">
-        <v>9387.236047887323</v>
+        <v>4859.7569</v>
       </c>
       <c r="G19" t="n">
-        <v>132.6166666666667</v>
+        <v>132.3833333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" t="n">
         <v>142</v>
@@ -1072,13 +1072,13 @@
         <v>142</v>
       </c>
       <c r="E20" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F20" t="n">
-        <v>1049.2887</v>
+        <v>9387.236047887323</v>
       </c>
       <c r="G20" t="n">
-        <v>132.85</v>
+        <v>132.6166666666667</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>142</v>
       </c>
       <c r="F21" t="n">
-        <v>574.4435999999999</v>
+        <v>1049.2887</v>
       </c>
       <c r="G21" t="n">
-        <v>133.1</v>
+        <v>132.85</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C22" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D22" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E22" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F22" t="n">
-        <v>2635.6435</v>
+        <v>574.4435999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>133.3</v>
+        <v>133.1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C23" t="n">
         <v>140</v>
       </c>
       <c r="D23" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E23" t="n">
         <v>140</v>
       </c>
       <c r="F23" t="n">
-        <v>8435.8951</v>
+        <v>2635.6435</v>
       </c>
       <c r="G23" t="n">
-        <v>133.5166666666667</v>
+        <v>133.3</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>140</v>
       </c>
       <c r="F24" t="n">
-        <v>2116.068</v>
+        <v>8435.8951</v>
       </c>
       <c r="G24" t="n">
-        <v>133.7166666666667</v>
+        <v>133.5166666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C25" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D25" t="n">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E25" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F25" t="n">
-        <v>23787.2826</v>
+        <v>2116.068</v>
       </c>
       <c r="G25" t="n">
-        <v>133.8</v>
+        <v>133.7166666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C26" t="n">
         <v>134</v>
       </c>
       <c r="D26" t="n">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E26" t="n">
         <v>134</v>
       </c>
       <c r="F26" t="n">
-        <v>105.0449</v>
+        <v>23787.2826</v>
       </c>
       <c r="G26" t="n">
-        <v>133.8833333333333</v>
+        <v>133.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D27" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E27" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F27" t="n">
-        <v>299.9888</v>
+        <v>105.0449</v>
       </c>
       <c r="G27" t="n">
-        <v>134.0166666666667</v>
+        <v>133.8833333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C28" t="n">
         <v>135</v>
@@ -1352,13 +1352,13 @@
         <v>135</v>
       </c>
       <c r="E28" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F28" t="n">
-        <v>16004.9263</v>
+        <v>299.9888</v>
       </c>
       <c r="G28" t="n">
-        <v>134.1166666666667</v>
+        <v>134.0166666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C29" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D29" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E29" t="n">
         <v>133</v>
       </c>
       <c r="F29" t="n">
-        <v>20405.3673</v>
+        <v>16004.9263</v>
       </c>
       <c r="G29" t="n">
-        <v>134.1833333333333</v>
+        <v>134.1166666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>133</v>
       </c>
       <c r="F30" t="n">
-        <v>5810.7727</v>
+        <v>20405.3673</v>
       </c>
       <c r="G30" t="n">
-        <v>134.25</v>
+        <v>134.1833333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1460,10 +1460,10 @@
         <v>133</v>
       </c>
       <c r="F31" t="n">
-        <v>13420.5848</v>
+        <v>5810.7727</v>
       </c>
       <c r="G31" t="n">
-        <v>134.3166666666667</v>
+        <v>134.25</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>133</v>
       </c>
       <c r="C32" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D32" t="n">
         <v>133</v>
       </c>
       <c r="E32" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F32" t="n">
-        <v>10270.3904</v>
+        <v>13420.5848</v>
       </c>
       <c r="G32" t="n">
-        <v>134.3666666666667</v>
+        <v>134.3166666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C33" t="n">
         <v>132</v>
       </c>
       <c r="D33" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E33" t="n">
         <v>132</v>
       </c>
       <c r="F33" t="n">
-        <v>4632.8888</v>
+        <v>10270.3904</v>
       </c>
       <c r="G33" t="n">
-        <v>134.4166666666667</v>
+        <v>134.3666666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C34" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D34" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E34" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F34" t="n">
-        <v>4333.998</v>
+        <v>4632.8888</v>
       </c>
       <c r="G34" t="n">
-        <v>134.4333333333333</v>
+        <v>134.4166666666667</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C35" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D35" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E35" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F35" t="n">
-        <v>1771.1514</v>
+        <v>4333.998</v>
       </c>
       <c r="G35" t="n">
-        <v>134.4833333333333</v>
+        <v>134.4333333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,19 +1623,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C36" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D36" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E36" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F36" t="n">
-        <v>14487.4119</v>
+        <v>1771.1514</v>
       </c>
       <c r="G36" t="n">
         <v>134.4833333333333</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C37" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D37" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E37" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F37" t="n">
-        <v>1399.5572</v>
+        <v>14487.4119</v>
       </c>
       <c r="G37" t="n">
-        <v>134.4666666666667</v>
+        <v>134.4833333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1696,19 +1696,19 @@
         <v>129</v>
       </c>
       <c r="C38" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D38" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E38" t="n">
         <v>129</v>
       </c>
       <c r="F38" t="n">
-        <v>1400.6906</v>
+        <v>1399.5572</v>
       </c>
       <c r="G38" t="n">
-        <v>134.5</v>
+        <v>134.4666666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,32 +1728,38 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C39" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D39" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E39" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F39" t="n">
-        <v>4242.8131</v>
+        <v>1400.6906</v>
       </c>
       <c r="G39" t="n">
-        <v>134.5333333333333</v>
+        <v>134.5</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>129</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,22 +1769,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C40" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D40" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E40" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>4242.8131</v>
       </c>
       <c r="G40" t="n">
-        <v>134.6</v>
+        <v>134.5333333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,7 +1794,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1810,20 +1820,26 @@
         <v>132</v>
       </c>
       <c r="F41" t="n">
-        <v>333.6893</v>
+        <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>134.6833333333333</v>
+        <v>134.6</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>130</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1833,22 +1849,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C42" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D42" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E42" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F42" t="n">
-        <v>22.0131</v>
+        <v>333.6893</v>
       </c>
       <c r="G42" t="n">
-        <v>134.7166666666667</v>
+        <v>134.6833333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,7 +1874,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1880,10 +1900,10 @@
         <v>129</v>
       </c>
       <c r="F43" t="n">
-        <v>54.9573</v>
+        <v>22.0131</v>
       </c>
       <c r="G43" t="n">
-        <v>134.7333333333333</v>
+        <v>134.7166666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,7 +1913,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1903,22 +1927,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E44" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F44" t="n">
-        <v>391</v>
+        <v>54.9573</v>
       </c>
       <c r="G44" t="n">
-        <v>134.7666666666667</v>
+        <v>134.7333333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,7 +1952,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,19 +1966,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C45" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D45" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E45" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F45" t="n">
-        <v>3226.2421</v>
+        <v>391</v>
       </c>
       <c r="G45" t="n">
         <v>134.7666666666667</v>
@@ -1963,7 +1991,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,22 +2005,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C46" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D46" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E46" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F46" t="n">
-        <v>510.0006</v>
+        <v>3226.2421</v>
       </c>
       <c r="G46" t="n">
-        <v>134.7333333333333</v>
+        <v>134.7666666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2030,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2008,22 +2044,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C47" t="n">
         <v>127</v>
       </c>
       <c r="D47" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E47" t="n">
         <v>127</v>
       </c>
       <c r="F47" t="n">
-        <v>9.015499999999999</v>
+        <v>510.0006</v>
       </c>
       <c r="G47" t="n">
-        <v>134.7</v>
+        <v>134.7333333333333</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2069,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2055,10 +2095,10 @@
         <v>127</v>
       </c>
       <c r="F48" t="n">
-        <v>3997.2596</v>
+        <v>9.015499999999999</v>
       </c>
       <c r="G48" t="n">
-        <v>134.6333333333333</v>
+        <v>134.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,7 +2108,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2090,24 +2134,24 @@
         <v>127</v>
       </c>
       <c r="F49" t="n">
-        <v>296.0742</v>
+        <v>3997.2596</v>
       </c>
       <c r="G49" t="n">
-        <v>134.5666666666667</v>
+        <v>134.6333333333333</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>127</v>
-      </c>
-      <c r="K49" t="n">
-        <v>127</v>
-      </c>
-      <c r="L49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2120,35 +2164,31 @@
         <v>127</v>
       </c>
       <c r="C50" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D50" t="n">
         <v>127</v>
       </c>
       <c r="E50" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F50" t="n">
-        <v>16455.3969</v>
+        <v>296.0742</v>
       </c>
       <c r="G50" t="n">
-        <v>134.5166666666667</v>
+        <v>134.5666666666667</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>127</v>
-      </c>
-      <c r="K50" t="n">
-        <v>127</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M50" t="n">
@@ -2163,32 +2203,28 @@
         <v>127</v>
       </c>
       <c r="C51" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D51" t="n">
         <v>127</v>
       </c>
       <c r="E51" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>16455.3969</v>
       </c>
       <c r="G51" t="n">
-        <v>134.45</v>
+        <v>134.5166666666667</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>126</v>
-      </c>
-      <c r="K51" t="n">
-        <v>127</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2203,35 +2239,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
+        <v>127</v>
+      </c>
+      <c r="C52" t="n">
+        <v>127</v>
+      </c>
+      <c r="D52" t="n">
+        <v>127</v>
+      </c>
+      <c r="E52" t="n">
+        <v>127</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" t="n">
+        <v>134.45</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
         <v>126</v>
       </c>
-      <c r="C52" t="n">
-        <v>126</v>
-      </c>
-      <c r="D52" t="n">
-        <v>126</v>
-      </c>
-      <c r="E52" t="n">
-        <v>126</v>
-      </c>
-      <c r="F52" t="n">
-        <v>11112.5717</v>
-      </c>
-      <c r="G52" t="n">
-        <v>134.4</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>127</v>
-      </c>
-      <c r="K52" t="n">
-        <v>127</v>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2246,33 +2280,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C53" t="n">
         <v>126</v>
       </c>
       <c r="D53" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E53" t="n">
         <v>126</v>
       </c>
       <c r="F53" t="n">
-        <v>3958.7108</v>
+        <v>11112.5717</v>
       </c>
       <c r="G53" t="n">
-        <v>134.3166666666667</v>
+        <v>134.4</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>127</v>
-      </c>
+      <c r="J53" t="n">
+        <v>127</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2290,30 +2324,30 @@
         <v>127</v>
       </c>
       <c r="C54" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D54" t="n">
         <v>127</v>
       </c>
       <c r="E54" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F54" t="n">
-        <v>882.0624</v>
+        <v>3958.7108</v>
       </c>
       <c r="G54" t="n">
-        <v>134.25</v>
+        <v>134.3166666666667</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>127</v>
-      </c>
+      <c r="J54" t="n">
+        <v>126</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2340,21 +2374,21 @@
         <v>127</v>
       </c>
       <c r="F55" t="n">
-        <v>260.6951</v>
+        <v>882.0624</v>
       </c>
       <c r="G55" t="n">
-        <v>134.15</v>
+        <v>134.25</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>127</v>
-      </c>
+      <c r="J55" t="n">
+        <v>126</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2372,19 +2406,19 @@
         <v>127</v>
       </c>
       <c r="C56" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D56" t="n">
         <v>127</v>
       </c>
       <c r="E56" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F56" t="n">
-        <v>11247.9519</v>
+        <v>260.6951</v>
       </c>
       <c r="G56" t="n">
-        <v>134.0333333333333</v>
+        <v>134.15</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
@@ -2395,9 +2429,7 @@
       <c r="J56" t="n">
         <v>127</v>
       </c>
-      <c r="K56" t="n">
-        <v>127</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2412,22 +2444,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C57" t="n">
         <v>126</v>
       </c>
       <c r="D57" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E57" t="n">
         <v>126</v>
       </c>
       <c r="F57" t="n">
-        <v>12206.1401</v>
+        <v>11247.9519</v>
       </c>
       <c r="G57" t="n">
-        <v>133.9166666666667</v>
+        <v>134.0333333333333</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2436,9 +2468,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>127</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2453,22 +2483,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C58" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D58" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E58" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F58" t="n">
-        <v>147.8282</v>
+        <v>12206.1401</v>
       </c>
       <c r="G58" t="n">
-        <v>133.8</v>
+        <v>133.9166666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2477,9 +2507,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>127</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2494,22 +2522,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C59" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D59" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E59" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F59" t="n">
-        <v>18373.5656</v>
+        <v>147.8282</v>
       </c>
       <c r="G59" t="n">
-        <v>133.65</v>
+        <v>133.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2518,9 +2546,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>127</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2538,19 +2564,19 @@
         <v>126</v>
       </c>
       <c r="C60" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D60" t="n">
         <v>126</v>
       </c>
       <c r="E60" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F60" t="n">
-        <v>54660.6658</v>
+        <v>18373.5656</v>
       </c>
       <c r="G60" t="n">
-        <v>133.4833333333333</v>
+        <v>133.65</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2559,9 +2585,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>127</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2576,22 +2600,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
+        <v>126</v>
+      </c>
+      <c r="C61" t="n">
         <v>125</v>
       </c>
-      <c r="C61" t="n">
-        <v>124</v>
-      </c>
       <c r="D61" t="n">
+        <v>126</v>
+      </c>
+      <c r="E61" t="n">
         <v>125</v>
       </c>
-      <c r="E61" t="n">
-        <v>124</v>
-      </c>
       <c r="F61" t="n">
-        <v>34989.8544</v>
+        <v>54660.6658</v>
       </c>
       <c r="G61" t="n">
-        <v>133.2833333333333</v>
+        <v>133.4833333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2600,9 +2624,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>127</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2617,22 +2639,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C62" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D62" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E62" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F62" t="n">
-        <v>95555.4189</v>
+        <v>34989.8544</v>
       </c>
       <c r="G62" t="n">
-        <v>133</v>
+        <v>133.2833333333333</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2641,9 +2663,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>127</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2658,22 +2678,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C63" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D63" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E63" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>95555.4189</v>
       </c>
       <c r="G63" t="n">
-        <v>132.8166666666667</v>
+        <v>133</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2682,9 +2702,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>127</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2699,22 +2717,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C64" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D64" t="n">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E64" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F64" t="n">
-        <v>51344.354</v>
+        <v>1</v>
       </c>
       <c r="G64" t="n">
-        <v>132.55</v>
+        <v>132.8166666666667</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2723,9 +2741,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>127</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2740,22 +2756,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C65" t="n">
         <v>122</v>
       </c>
       <c r="D65" t="n">
+        <v>123</v>
+      </c>
+      <c r="E65" t="n">
         <v>122</v>
       </c>
-      <c r="E65" t="n">
-        <v>120</v>
-      </c>
       <c r="F65" t="n">
-        <v>27667.9559</v>
+        <v>51344.354</v>
       </c>
       <c r="G65" t="n">
-        <v>132.2833333333333</v>
+        <v>132.55</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2764,9 +2780,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>127</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2781,7 +2795,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C66" t="n">
         <v>122</v>
@@ -2790,13 +2804,13 @@
         <v>122</v>
       </c>
       <c r="E66" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F66" t="n">
-        <v>52607.8292</v>
+        <v>27667.9559</v>
       </c>
       <c r="G66" t="n">
-        <v>132.0833333333333</v>
+        <v>132.2833333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2805,9 +2819,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>127</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2822,22 +2834,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C67" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D67" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E67" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F67" t="n">
-        <v>306.0202</v>
+        <v>52607.8292</v>
       </c>
       <c r="G67" t="n">
-        <v>131.8</v>
+        <v>132.0833333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2846,9 +2858,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>127</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2863,22 +2873,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C68" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D68" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E68" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F68" t="n">
-        <v>3789.069</v>
+        <v>306.0202</v>
       </c>
       <c r="G68" t="n">
-        <v>131.5666666666667</v>
+        <v>131.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2887,9 +2897,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>127</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2904,22 +2912,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C69" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D69" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E69" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F69" t="n">
-        <v>2510.7283</v>
+        <v>3789.069</v>
       </c>
       <c r="G69" t="n">
-        <v>131.35</v>
+        <v>131.5666666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2928,9 +2936,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>127</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2957,10 +2963,10 @@
         <v>127</v>
       </c>
       <c r="F70" t="n">
-        <v>1444.9251</v>
+        <v>2510.7283</v>
       </c>
       <c r="G70" t="n">
-        <v>131.1166666666667</v>
+        <v>131.35</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2969,9 +2975,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>127</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2989,19 +2993,19 @@
         <v>127</v>
       </c>
       <c r="C71" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D71" t="n">
         <v>127</v>
       </c>
       <c r="E71" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F71" t="n">
-        <v>491.5162</v>
+        <v>1444.9251</v>
       </c>
       <c r="G71" t="n">
-        <v>130.8666666666667</v>
+        <v>131.1166666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3010,9 +3014,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>127</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3030,19 +3032,19 @@
         <v>127</v>
       </c>
       <c r="C72" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D72" t="n">
         <v>127</v>
       </c>
       <c r="E72" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F72" t="n">
-        <v>1</v>
+        <v>491.5162</v>
       </c>
       <c r="G72" t="n">
-        <v>130.65</v>
+        <v>130.8666666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3051,9 +3053,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>127</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3071,19 +3071,19 @@
         <v>127</v>
       </c>
       <c r="C73" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D73" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E73" t="n">
         <v>127</v>
       </c>
       <c r="F73" t="n">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="G73" t="n">
-        <v>130.4333333333333</v>
+        <v>130.65</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3092,9 +3092,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>127</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3109,22 +3107,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C74" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D74" t="n">
         <v>128</v>
       </c>
       <c r="E74" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F74" t="n">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="G74" t="n">
-        <v>130.1833333333333</v>
+        <v>130.4333333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3133,9 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>127</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3162,10 +3158,10 @@
         <v>125</v>
       </c>
       <c r="F75" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="G75" t="n">
-        <v>129.9333333333333</v>
+        <v>130.1833333333333</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3174,9 +3170,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>127</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3194,19 +3188,19 @@
         <v>128</v>
       </c>
       <c r="C76" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D76" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E76" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F76" t="n">
-        <v>6890</v>
+        <v>5</v>
       </c>
       <c r="G76" t="n">
-        <v>129.7</v>
+        <v>129.9333333333333</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3215,9 +3209,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>127</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3232,22 +3224,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C77" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D77" t="n">
         <v>129</v>
       </c>
       <c r="E77" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>6890</v>
       </c>
       <c r="G77" t="n">
-        <v>129.5166666666667</v>
+        <v>129.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3256,9 +3248,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>127</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3285,10 +3275,10 @@
         <v>127</v>
       </c>
       <c r="F78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G78" t="n">
-        <v>129.3166666666667</v>
+        <v>129.5166666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3297,9 +3287,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>127</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3314,22 +3302,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C79" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D79" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E79" t="n">
         <v>127</v>
       </c>
       <c r="F79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G79" t="n">
-        <v>129.0666666666667</v>
+        <v>129.3166666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3338,9 +3326,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>127</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3355,22 +3341,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C80" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D80" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E80" t="n">
         <v>127</v>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G80" t="n">
-        <v>128.85</v>
+        <v>129.0666666666667</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3379,9 +3365,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>127</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3396,7 +3380,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C81" t="n">
         <v>129</v>
@@ -3408,10 +3392,10 @@
         <v>127</v>
       </c>
       <c r="F81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G81" t="n">
-        <v>128.6333333333333</v>
+        <v>128.85</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3420,9 +3404,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>127</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3440,7 +3422,7 @@
         <v>127</v>
       </c>
       <c r="C82" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D82" t="n">
         <v>129</v>
@@ -3449,10 +3431,10 @@
         <v>127</v>
       </c>
       <c r="F82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G82" t="n">
-        <v>128.4166666666667</v>
+        <v>128.6333333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3461,9 +3443,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>127</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3478,10 +3458,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C83" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D83" t="n">
         <v>129</v>
@@ -3490,10 +3470,10 @@
         <v>127</v>
       </c>
       <c r="F83" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G83" t="n">
-        <v>128.2333333333333</v>
+        <v>128.4166666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3502,9 +3482,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>127</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3519,7 +3497,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C84" t="n">
         <v>129</v>
@@ -3531,10 +3509,10 @@
         <v>127</v>
       </c>
       <c r="F84" t="n">
-        <v>602</v>
+        <v>11</v>
       </c>
       <c r="G84" t="n">
-        <v>128.05</v>
+        <v>128.2333333333333</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3543,9 +3521,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>127</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3560,7 +3536,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C85" t="n">
         <v>129</v>
@@ -3572,10 +3548,10 @@
         <v>127</v>
       </c>
       <c r="F85" t="n">
-        <v>1301</v>
+        <v>602</v>
       </c>
       <c r="G85" t="n">
-        <v>127.9666666666667</v>
+        <v>128.05</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3584,9 +3560,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>127</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3601,7 +3575,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C86" t="n">
         <v>129</v>
@@ -3610,13 +3584,13 @@
         <v>129</v>
       </c>
       <c r="E86" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F86" t="n">
-        <v>300</v>
+        <v>1301</v>
       </c>
       <c r="G86" t="n">
-        <v>127.8833333333333</v>
+        <v>127.9666666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3625,9 +3599,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>127</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3642,22 +3614,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C87" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D87" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E87" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="G87" t="n">
-        <v>127.75</v>
+        <v>127.8833333333333</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3666,9 +3638,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>127</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3683,22 +3653,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C88" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D88" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E88" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F88" t="n">
-        <v>401</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>127.65</v>
+        <v>127.75</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3707,9 +3677,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>127</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3724,22 +3692,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C89" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D89" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E89" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F89" t="n">
-        <v>17436.0701</v>
+        <v>401</v>
       </c>
       <c r="G89" t="n">
-        <v>127.5333333333333</v>
+        <v>127.65</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3748,9 +3716,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>127</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3765,22 +3731,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C90" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D90" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E90" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F90" t="n">
-        <v>1</v>
+        <v>17436.0701</v>
       </c>
       <c r="G90" t="n">
-        <v>127.4666666666667</v>
+        <v>127.5333333333333</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3789,9 +3755,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>127</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3806,22 +3770,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C91" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D91" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E91" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F91" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G91" t="n">
-        <v>127.3833333333333</v>
+        <v>127.4666666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3830,9 +3794,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>127</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3847,7 +3809,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C92" t="n">
         <v>128</v>
@@ -3856,13 +3818,13 @@
         <v>128</v>
       </c>
       <c r="E92" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F92" t="n">
-        <v>151.7632</v>
+        <v>10</v>
       </c>
       <c r="G92" t="n">
-        <v>127.3166666666667</v>
+        <v>127.3833333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3871,9 +3833,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>127</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3891,19 +3851,19 @@
         <v>127</v>
       </c>
       <c r="C93" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D93" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E93" t="n">
         <v>127</v>
       </c>
       <c r="F93" t="n">
-        <v>51</v>
+        <v>151.7632</v>
       </c>
       <c r="G93" t="n">
-        <v>127.2333333333333</v>
+        <v>127.3166666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3912,9 +3872,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>127</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3941,10 +3899,10 @@
         <v>127</v>
       </c>
       <c r="F94" t="n">
-        <v>8.925000000000001</v>
+        <v>51</v>
       </c>
       <c r="G94" t="n">
-        <v>127.1833333333333</v>
+        <v>127.2333333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3953,9 +3911,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>127</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3970,22 +3926,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C95" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D95" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E95" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F95" t="n">
-        <v>1</v>
+        <v>8.925000000000001</v>
       </c>
       <c r="G95" t="n">
-        <v>127.1166666666667</v>
+        <v>127.1833333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3994,9 +3950,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>127</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4011,22 +3965,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C96" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D96" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E96" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F96" t="n">
-        <v>821.2308</v>
+        <v>1</v>
       </c>
       <c r="G96" t="n">
-        <v>127.0666666666667</v>
+        <v>127.1166666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4035,9 +3989,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>127</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4052,22 +4004,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C97" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D97" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E97" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F97" t="n">
-        <v>1</v>
+        <v>821.2308</v>
       </c>
       <c r="G97" t="n">
-        <v>127.05</v>
+        <v>127.0666666666667</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4076,9 +4028,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>127</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4105,10 +4055,10 @@
         <v>128</v>
       </c>
       <c r="F98" t="n">
-        <v>10156.25</v>
+        <v>1</v>
       </c>
       <c r="G98" t="n">
-        <v>126.9833333333333</v>
+        <v>127.05</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4117,9 +4067,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>127</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4134,22 +4082,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C99" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D99" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E99" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F99" t="n">
-        <v>5000</v>
+        <v>10156.25</v>
       </c>
       <c r="G99" t="n">
-        <v>126.9333333333333</v>
+        <v>126.9833333333333</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4158,9 +4106,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>127</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4175,22 +4121,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C100" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D100" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E100" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F100" t="n">
-        <v>1</v>
+        <v>5000</v>
       </c>
       <c r="G100" t="n">
-        <v>126.8666666666667</v>
+        <v>126.9333333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4199,9 +4145,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>127</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4231,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="G101" t="n">
-        <v>126.8</v>
+        <v>126.8666666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4240,9 +4184,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>127</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4257,7 +4199,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C102" t="n">
         <v>128</v>
@@ -4266,13 +4208,13 @@
         <v>128</v>
       </c>
       <c r="E102" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F102" t="n">
-        <v>3.9091</v>
+        <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>126.7833333333333</v>
+        <v>126.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4281,9 +4223,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>127</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4301,19 +4241,19 @@
         <v>127</v>
       </c>
       <c r="C103" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D103" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E103" t="n">
         <v>127</v>
       </c>
       <c r="F103" t="n">
-        <v>180.7382</v>
+        <v>3.9091</v>
       </c>
       <c r="G103" t="n">
-        <v>126.75</v>
+        <v>126.7833333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4322,9 +4262,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>127</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4339,22 +4277,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C104" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D104" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E104" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F104" t="n">
-        <v>4597.1341</v>
+        <v>180.7382</v>
       </c>
       <c r="G104" t="n">
-        <v>126.6833333333333</v>
+        <v>126.75</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4363,9 +4301,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>127</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4380,19 +4316,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C105" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D105" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E105" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F105" t="n">
-        <v>1</v>
+        <v>4597.1341</v>
       </c>
       <c r="G105" t="n">
         <v>126.6833333333333</v>
@@ -4404,9 +4340,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>127</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4421,7 +4355,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C106" t="n">
         <v>128</v>
@@ -4430,13 +4364,13 @@
         <v>128</v>
       </c>
       <c r="E106" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F106" t="n">
-        <v>5378.3183</v>
+        <v>1</v>
       </c>
       <c r="G106" t="n">
-        <v>126.7</v>
+        <v>126.6833333333333</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4445,9 +4379,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>127</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4462,19 +4394,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C107" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D107" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E107" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F107" t="n">
-        <v>2760.9201</v>
+        <v>5378.3183</v>
       </c>
       <c r="G107" t="n">
         <v>126.7</v>
@@ -4486,9 +4418,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>127</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4503,39 +4433,76 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
+        <v>126</v>
+      </c>
+      <c r="C108" t="n">
+        <v>127</v>
+      </c>
+      <c r="D108" t="n">
+        <v>127</v>
+      </c>
+      <c r="E108" t="n">
+        <v>126</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2760.9201</v>
+      </c>
+      <c r="G108" t="n">
+        <v>126.7</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
         <v>125</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C109" t="n">
         <v>125</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D109" t="n">
         <v>125</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E109" t="n">
         <v>125</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F109" t="n">
         <v>12.8482</v>
       </c>
-      <c r="G108" t="n">
+      <c r="G109" t="n">
         <v>126.6666666666667</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>127</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-16 BackTest FX.xlsx
+++ b/BackTest/2019-10-16 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N119"/>
+  <dimension ref="A1:M148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C2" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D2" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E2" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>3255.7701</v>
       </c>
       <c r="G2" t="n">
-        <v>132.0666666666667</v>
+        <v>-137640.1921055539</v>
       </c>
       <c r="H2" t="n">
-        <v>129.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C3" t="n">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D3" t="n">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E3" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F3" t="n">
-        <v>11628.8198</v>
+        <v>20.3307</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6</v>
+        <v>-137640.1921055539</v>
       </c>
       <c r="H3" t="n">
-        <v>129.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C4" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D4" t="n">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E4" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F4" t="n">
-        <v>29932.5919</v>
+        <v>20.3333</v>
       </c>
       <c r="G4" t="n">
-        <v>132.9333333333333</v>
+        <v>-137640.1921055539</v>
       </c>
       <c r="H4" t="n">
-        <v>130.05</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C5" t="n">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D5" t="n">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E5" t="n">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>812</v>
       </c>
       <c r="G5" t="n">
-        <v>133.4</v>
+        <v>-137640.1921055539</v>
       </c>
       <c r="H5" t="n">
-        <v>130.15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C6" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D6" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E6" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F6" t="n">
-        <v>17093.0724</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>134</v>
+        <v>-137639.1921055539</v>
       </c>
       <c r="H6" t="n">
-        <v>130.3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C7" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D7" t="n">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E7" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F7" t="n">
-        <v>18428.657</v>
+        <v>2493.0538</v>
       </c>
       <c r="G7" t="n">
-        <v>134.2</v>
+        <v>-137639.1921055539</v>
       </c>
       <c r="H7" t="n">
-        <v>130.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D8" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E8" t="n">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F8" t="n">
-        <v>3757.808479285714</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>134.9333333333333</v>
+        <v>-137639.1921055539</v>
       </c>
       <c r="H8" t="n">
-        <v>130.5833333333333</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C9" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D9" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E9" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F9" t="n">
-        <v>37606.00612071429</v>
+        <v>7543.8118</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5333333333333</v>
+        <v>-145183.0039055539</v>
       </c>
       <c r="H9" t="n">
-        <v>130.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C10" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D10" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E10" t="n">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F10" t="n">
-        <v>88619.06419999999</v>
+        <v>6249.9999</v>
       </c>
       <c r="G10" t="n">
-        <v>136.1333333333333</v>
+        <v>-145183.0039055539</v>
       </c>
       <c r="H10" t="n">
-        <v>130.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C11" t="n">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D11" t="n">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E11" t="n">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F11" t="n">
-        <v>30275.19850851064</v>
+        <v>6267.6125</v>
       </c>
       <c r="G11" t="n">
-        <v>136.6666666666667</v>
+        <v>-151450.6164055539</v>
       </c>
       <c r="H11" t="n">
-        <v>131.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C12" t="n">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D12" t="n">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E12" t="n">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F12" t="n">
-        <v>51832.30615071428</v>
+        <v>280.2662</v>
       </c>
       <c r="G12" t="n">
-        <v>137.1333333333333</v>
+        <v>-151450.6164055539</v>
       </c>
       <c r="H12" t="n">
-        <v>131.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C13" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D13" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E13" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F13" t="n">
-        <v>2776.825</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>137.6</v>
+        <v>-151449.6164055539</v>
       </c>
       <c r="H13" t="n">
-        <v>131.3333333333333</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C14" t="n">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D14" t="n">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="E14" t="n">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="F14" t="n">
-        <v>3531.4751</v>
+        <v>1822</v>
       </c>
       <c r="G14" t="n">
-        <v>138.0666666666667</v>
+        <v>-151449.6164055539</v>
       </c>
       <c r="H14" t="n">
-        <v>131.5</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C15" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D15" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="E15" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F15" t="n">
-        <v>5600</v>
+        <v>99925.79489999999</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4</v>
+        <v>-151449.6164055539</v>
       </c>
       <c r="H15" t="n">
-        <v>131.6666666666667</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C16" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D16" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E16" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F16" t="n">
-        <v>493.2565</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>138.7333333333333</v>
+        <v>-151448.6164055539</v>
       </c>
       <c r="H16" t="n">
-        <v>131.8333333333333</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C17" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D17" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E17" t="n">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F17" t="n">
-        <v>11613.9934</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>139</v>
+        <v>-151448.6164055539</v>
       </c>
       <c r="H17" t="n">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,36 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C18" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D18" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E18" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F18" t="n">
-        <v>3302.3944</v>
+        <v>1539.9178</v>
       </c>
       <c r="G18" t="n">
-        <v>139.2</v>
+        <v>-149908.6986055539</v>
       </c>
       <c r="H18" t="n">
-        <v>132.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1084,36 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C19" t="n">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D19" t="n">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E19" t="n">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F19" t="n">
-        <v>4859.7569</v>
+        <v>810.5253</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5333333333333</v>
+        <v>-149908.6986055539</v>
       </c>
       <c r="H19" t="n">
-        <v>132.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1122,36 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C20" t="n">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D20" t="n">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E20" t="n">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F20" t="n">
-        <v>9387.236047887323</v>
+        <v>2222</v>
       </c>
       <c r="G20" t="n">
-        <v>139.8</v>
+        <v>-152130.6986055539</v>
       </c>
       <c r="H20" t="n">
-        <v>132.6166666666667</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1160,36 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C21" t="n">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D21" t="n">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E21" t="n">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F21" t="n">
-        <v>1049.2887</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>140.0666666666667</v>
+        <v>-152129.6986055539</v>
       </c>
       <c r="H21" t="n">
-        <v>132.85</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1198,36 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C22" t="n">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D22" t="n">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="E22" t="n">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="F22" t="n">
-        <v>574.4435999999999</v>
+        <v>2223</v>
       </c>
       <c r="G22" t="n">
-        <v>140.6</v>
+        <v>-154352.6986055539</v>
       </c>
       <c r="H22" t="n">
-        <v>133.1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,36 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C23" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D23" t="n">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E23" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F23" t="n">
-        <v>2635.6435</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>140.6</v>
+        <v>-154351.6986055539</v>
       </c>
       <c r="H23" t="n">
-        <v>133.3</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1274,36 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C24" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D24" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E24" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F24" t="n">
-        <v>8435.8951</v>
+        <v>5445</v>
       </c>
       <c r="G24" t="n">
-        <v>140.6</v>
+        <v>-154351.6986055539</v>
       </c>
       <c r="H24" t="n">
-        <v>133.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>1</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1312,36 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C25" t="n">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D25" t="n">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E25" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F25" t="n">
-        <v>2116.068</v>
+        <v>43193.3155</v>
       </c>
       <c r="G25" t="n">
-        <v>140.6</v>
+        <v>-111158.3831055539</v>
       </c>
       <c r="H25" t="n">
-        <v>133.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1350,36 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C26" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D26" t="n">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E26" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F26" t="n">
-        <v>23787.2826</v>
+        <v>134.8813</v>
       </c>
       <c r="G26" t="n">
-        <v>140.1333333333333</v>
+        <v>-111158.3831055539</v>
       </c>
       <c r="H26" t="n">
-        <v>133.8</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,36 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D27" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E27" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F27" t="n">
-        <v>105.0449</v>
+        <v>40.4644</v>
       </c>
       <c r="G27" t="n">
-        <v>139.7333333333333</v>
+        <v>-111158.3831055539</v>
       </c>
       <c r="H27" t="n">
-        <v>133.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1426,36 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C28" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D28" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E28" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F28" t="n">
-        <v>299.9888</v>
+        <v>14854.5584</v>
       </c>
       <c r="G28" t="n">
-        <v>139.4</v>
+        <v>-96303.82470555387</v>
       </c>
       <c r="H28" t="n">
-        <v>134.0166666666667</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1464,7 +1378,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C29" t="n">
         <v>135</v>
@@ -1473,27 +1387,24 @@
         <v>135</v>
       </c>
       <c r="E29" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F29" t="n">
-        <v>16004.9263</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>139</v>
+        <v>-96302.82470555387</v>
       </c>
       <c r="H29" t="n">
-        <v>134.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1502,36 +1413,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C30" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D30" t="n">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E30" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F30" t="n">
-        <v>20405.3673</v>
+        <v>13925.3508</v>
       </c>
       <c r="G30" t="n">
-        <v>138.5333333333333</v>
+        <v>-96302.82470555387</v>
       </c>
       <c r="H30" t="n">
-        <v>134.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,36 +1448,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C31" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D31" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E31" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F31" t="n">
-        <v>5810.7727</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>138.0666666666667</v>
+        <v>-96301.82470555387</v>
       </c>
       <c r="H31" t="n">
-        <v>134.25</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,36 +1483,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C32" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D32" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E32" t="n">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F32" t="n">
-        <v>13420.5848</v>
+        <v>11628.8198</v>
       </c>
       <c r="G32" t="n">
-        <v>137.6</v>
+        <v>-84673.00490555387</v>
       </c>
       <c r="H32" t="n">
-        <v>134.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1616,36 +1518,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C33" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D33" t="n">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E33" t="n">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F33" t="n">
-        <v>10270.3904</v>
+        <v>29932.5919</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0666666666667</v>
+        <v>-114605.5968055539</v>
       </c>
       <c r="H33" t="n">
-        <v>134.3666666666667</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1654,36 +1553,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C34" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="D34" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E34" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F34" t="n">
-        <v>4632.8888</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>136.4666666666667</v>
+        <v>-114604.5968055539</v>
       </c>
       <c r="H34" t="n">
-        <v>134.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,36 +1588,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C35" t="n">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D35" t="n">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="E35" t="n">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F35" t="n">
-        <v>4333.998</v>
+        <v>17093.0724</v>
       </c>
       <c r="G35" t="n">
-        <v>135.6666666666667</v>
+        <v>-114604.5968055539</v>
       </c>
       <c r="H35" t="n">
-        <v>134.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1730,36 +1623,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C36" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D36" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E36" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F36" t="n">
-        <v>1771.1514</v>
+        <v>18428.657</v>
       </c>
       <c r="G36" t="n">
-        <v>135</v>
+        <v>-133033.2538055539</v>
       </c>
       <c r="H36" t="n">
-        <v>134.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1768,36 +1658,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C37" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D37" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E37" t="n">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F37" t="n">
-        <v>14487.4119</v>
+        <v>3757.808479285714</v>
       </c>
       <c r="G37" t="n">
-        <v>134.2</v>
+        <v>-129275.4453262681</v>
       </c>
       <c r="H37" t="n">
-        <v>134.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1806,36 +1693,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C38" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D38" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E38" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F38" t="n">
-        <v>1399.5572</v>
+        <v>37606.00612071429</v>
       </c>
       <c r="G38" t="n">
-        <v>133.4666666666667</v>
+        <v>-129275.4453262681</v>
       </c>
       <c r="H38" t="n">
-        <v>134.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1844,36 +1728,33 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C39" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D39" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E39" t="n">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F39" t="n">
-        <v>1400.6906</v>
+        <v>88619.06419999999</v>
       </c>
       <c r="G39" t="n">
-        <v>132.9333333333333</v>
+        <v>-129275.4453262681</v>
       </c>
       <c r="H39" t="n">
-        <v>134.5</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1882,36 +1763,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C40" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D40" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E40" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="F40" t="n">
-        <v>4242.8131</v>
+        <v>30275.19850851064</v>
       </c>
       <c r="G40" t="n">
-        <v>132.2666666666667</v>
+        <v>-99000.24681775751</v>
       </c>
       <c r="H40" t="n">
-        <v>134.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1920,36 +1798,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="C41" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D41" t="n">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E41" t="n">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>51832.30615071428</v>
       </c>
       <c r="G41" t="n">
-        <v>132.1333333333333</v>
+        <v>-150832.5529684718</v>
       </c>
       <c r="H41" t="n">
-        <v>134.6</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1958,36 +1833,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C42" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D42" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E42" t="n">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F42" t="n">
-        <v>333.6893</v>
+        <v>2776.825</v>
       </c>
       <c r="G42" t="n">
-        <v>132</v>
+        <v>-150832.5529684718</v>
       </c>
       <c r="H42" t="n">
-        <v>134.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1996,36 +1868,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C43" t="n">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D43" t="n">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E43" t="n">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="F43" t="n">
-        <v>22.0131</v>
+        <v>3531.4751</v>
       </c>
       <c r="G43" t="n">
-        <v>131.6</v>
+        <v>-147301.0778684718</v>
       </c>
       <c r="H43" t="n">
-        <v>134.7166666666667</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2034,36 +1903,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C44" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D44" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E44" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F44" t="n">
-        <v>54.9573</v>
+        <v>5600</v>
       </c>
       <c r="G44" t="n">
-        <v>131.2</v>
+        <v>-152901.0778684718</v>
       </c>
       <c r="H44" t="n">
-        <v>134.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2072,36 +1938,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C45" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D45" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="E45" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F45" t="n">
-        <v>391</v>
+        <v>493.2565</v>
       </c>
       <c r="G45" t="n">
-        <v>131</v>
+        <v>-152901.0778684718</v>
       </c>
       <c r="H45" t="n">
-        <v>134.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2110,36 +1973,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C46" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D46" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E46" t="n">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="F46" t="n">
-        <v>3226.2421</v>
+        <v>11613.9934</v>
       </c>
       <c r="G46" t="n">
-        <v>130.6666666666667</v>
+        <v>-152901.0778684718</v>
       </c>
       <c r="H46" t="n">
-        <v>134.7666666666667</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,36 +2008,33 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C47" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D47" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E47" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F47" t="n">
-        <v>510.0006</v>
+        <v>3302.3944</v>
       </c>
       <c r="G47" t="n">
-        <v>130.2666666666667</v>
+        <v>-152901.0778684718</v>
       </c>
       <c r="H47" t="n">
-        <v>134.7333333333333</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2186,36 +2043,33 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C48" t="n">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="D48" t="n">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E48" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F48" t="n">
-        <v>9.015499999999999</v>
+        <v>4859.7569</v>
       </c>
       <c r="G48" t="n">
-        <v>129.9333333333333</v>
+        <v>-148041.3209684718</v>
       </c>
       <c r="H48" t="n">
-        <v>134.7</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2224,36 +2078,33 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C49" t="n">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="D49" t="n">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E49" t="n">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F49" t="n">
-        <v>3997.2596</v>
+        <v>9387.236047887323</v>
       </c>
       <c r="G49" t="n">
-        <v>129.6</v>
+        <v>-138654.0849205844</v>
       </c>
       <c r="H49" t="n">
-        <v>134.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2262,36 +2113,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C50" t="n">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="D50" t="n">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E50" t="n">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F50" t="n">
-        <v>296.0742</v>
+        <v>1049.2887</v>
       </c>
       <c r="G50" t="n">
-        <v>129.4</v>
+        <v>-138654.0849205844</v>
       </c>
       <c r="H50" t="n">
-        <v>134.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,36 +2148,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C51" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="D51" t="n">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="E51" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="F51" t="n">
-        <v>16455.3969</v>
+        <v>574.4435999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>129</v>
+        <v>-138654.0849205844</v>
       </c>
       <c r="H51" t="n">
-        <v>134.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,36 +2183,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C52" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D52" t="n">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E52" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>2635.6435</v>
       </c>
       <c r="G52" t="n">
-        <v>128.8</v>
+        <v>-141289.7284205844</v>
       </c>
       <c r="H52" t="n">
-        <v>134.45</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2376,36 +2218,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="C53" t="n">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D53" t="n">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="E53" t="n">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="F53" t="n">
-        <v>11112.5717</v>
+        <v>8435.8951</v>
       </c>
       <c r="G53" t="n">
-        <v>128.6</v>
+        <v>-141289.7284205844</v>
       </c>
       <c r="H53" t="n">
-        <v>134.4</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,36 +2253,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C54" t="n">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D54" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E54" t="n">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="F54" t="n">
-        <v>3958.7108</v>
+        <v>2116.068</v>
       </c>
       <c r="G54" t="n">
-        <v>128.2</v>
+        <v>-141289.7284205844</v>
       </c>
       <c r="H54" t="n">
-        <v>134.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2452,36 +2288,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C55" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D55" t="n">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E55" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F55" t="n">
-        <v>882.0624</v>
+        <v>23787.2826</v>
       </c>
       <c r="G55" t="n">
-        <v>128</v>
+        <v>-165077.0110205844</v>
       </c>
       <c r="H55" t="n">
-        <v>134.25</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2490,36 +2323,33 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C56" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D56" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E56" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F56" t="n">
-        <v>260.6951</v>
+        <v>105.0449</v>
       </c>
       <c r="G56" t="n">
-        <v>127.6666666666667</v>
+        <v>-165077.0110205844</v>
       </c>
       <c r="H56" t="n">
-        <v>134.15</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,36 +2358,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C57" t="n">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D57" t="n">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E57" t="n">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="F57" t="n">
-        <v>11247.9519</v>
+        <v>299.9888</v>
       </c>
       <c r="G57" t="n">
-        <v>127.2666666666667</v>
+        <v>-164777.0222205844</v>
       </c>
       <c r="H57" t="n">
-        <v>134.0333333333333</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,36 +2393,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C58" t="n">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D58" t="n">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E58" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F58" t="n">
-        <v>12206.1401</v>
+        <v>16004.9263</v>
       </c>
       <c r="G58" t="n">
-        <v>127.0666666666667</v>
+        <v>-164777.0222205844</v>
       </c>
       <c r="H58" t="n">
-        <v>133.9166666666667</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2604,36 +2428,33 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C59" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="D59" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E59" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F59" t="n">
-        <v>147.8282</v>
+        <v>20405.3673</v>
       </c>
       <c r="G59" t="n">
-        <v>126.9333333333333</v>
+        <v>-185182.3895205845</v>
       </c>
       <c r="H59" t="n">
-        <v>133.8</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,36 +2463,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C60" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D60" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E60" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F60" t="n">
-        <v>18373.5656</v>
+        <v>5810.7727</v>
       </c>
       <c r="G60" t="n">
-        <v>126.6666666666667</v>
+        <v>-185182.3895205845</v>
       </c>
       <c r="H60" t="n">
-        <v>133.65</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2680,36 +2498,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C61" t="n">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D61" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E61" t="n">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F61" t="n">
-        <v>54660.6658</v>
+        <v>13420.5848</v>
       </c>
       <c r="G61" t="n">
-        <v>126.4666666666667</v>
+        <v>-185182.3895205845</v>
       </c>
       <c r="H61" t="n">
-        <v>133.4833333333333</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2718,36 +2533,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C62" t="n">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D62" t="n">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E62" t="n">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F62" t="n">
-        <v>34989.8544</v>
+        <v>10270.3904</v>
       </c>
       <c r="G62" t="n">
-        <v>126.2666666666667</v>
+        <v>-195452.7799205845</v>
       </c>
       <c r="H62" t="n">
-        <v>133.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2756,36 +2568,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C63" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D63" t="n">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E63" t="n">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="F63" t="n">
-        <v>95555.4189</v>
+        <v>4632.8888</v>
       </c>
       <c r="G63" t="n">
-        <v>125.8</v>
+        <v>-195452.7799205845</v>
       </c>
       <c r="H63" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,36 +2603,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C64" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D64" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E64" t="n">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>4333.998</v>
       </c>
       <c r="G64" t="n">
-        <v>125.6666666666667</v>
+        <v>-199786.7779205845</v>
       </c>
       <c r="H64" t="n">
-        <v>132.8166666666667</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2832,36 +2638,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C65" t="n">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D65" t="n">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E65" t="n">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="F65" t="n">
-        <v>51344.354</v>
+        <v>1771.1514</v>
       </c>
       <c r="G65" t="n">
-        <v>125.3333333333333</v>
+        <v>-198015.6265205845</v>
       </c>
       <c r="H65" t="n">
-        <v>132.55</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2870,36 +2673,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C66" t="n">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="D66" t="n">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E66" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="F66" t="n">
-        <v>27667.9559</v>
+        <v>14487.4119</v>
       </c>
       <c r="G66" t="n">
-        <v>125.0666666666667</v>
+        <v>-212503.0384205845</v>
       </c>
       <c r="H66" t="n">
-        <v>132.2833333333333</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2908,36 +2708,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C67" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="D67" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E67" t="n">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F67" t="n">
-        <v>52607.8292</v>
+        <v>1399.5572</v>
       </c>
       <c r="G67" t="n">
-        <v>124.7333333333333</v>
+        <v>-213902.5956205845</v>
       </c>
       <c r="H67" t="n">
-        <v>132.0833333333333</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2946,36 +2743,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C68" t="n">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="D68" t="n">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E68" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F68" t="n">
-        <v>306.0202</v>
+        <v>1400.6906</v>
       </c>
       <c r="G68" t="n">
-        <v>124.5333333333333</v>
+        <v>-212501.9050205845</v>
       </c>
       <c r="H68" t="n">
-        <v>131.8</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2984,36 +2778,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C69" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D69" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E69" t="n">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F69" t="n">
-        <v>3789.069</v>
+        <v>4242.8131</v>
       </c>
       <c r="G69" t="n">
-        <v>124.5333333333333</v>
+        <v>-216744.7181205845</v>
       </c>
       <c r="H69" t="n">
-        <v>131.5666666666667</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3022,36 +2813,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C70" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D70" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E70" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F70" t="n">
-        <v>2510.7283</v>
+        <v>1</v>
       </c>
       <c r="G70" t="n">
-        <v>124.5333333333333</v>
+        <v>-216743.7181205845</v>
       </c>
       <c r="H70" t="n">
-        <v>131.35</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3060,36 +2848,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C71" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D71" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E71" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F71" t="n">
-        <v>1444.9251</v>
+        <v>333.6893</v>
       </c>
       <c r="G71" t="n">
-        <v>124.5333333333333</v>
+        <v>-216743.7181205845</v>
       </c>
       <c r="H71" t="n">
-        <v>131.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,36 +2883,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C72" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D72" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E72" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F72" t="n">
-        <v>491.5162</v>
+        <v>22.0131</v>
       </c>
       <c r="G72" t="n">
-        <v>124.4666666666667</v>
+        <v>-216765.7312205845</v>
       </c>
       <c r="H72" t="n">
-        <v>130.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3136,36 +2918,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C73" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D73" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E73" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>54.9573</v>
       </c>
       <c r="G73" t="n">
-        <v>124.5333333333333</v>
+        <v>-216765.7312205845</v>
       </c>
       <c r="H73" t="n">
-        <v>130.65</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3174,36 +2953,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C74" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D74" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E74" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F74" t="n">
-        <v>112</v>
+        <v>391</v>
       </c>
       <c r="G74" t="n">
-        <v>124.6</v>
+        <v>-216374.7312205845</v>
       </c>
       <c r="H74" t="n">
-        <v>130.4333333333333</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,36 +2988,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C75" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D75" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E75" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F75" t="n">
-        <v>21</v>
+        <v>3226.2421</v>
       </c>
       <c r="G75" t="n">
-        <v>124.5333333333333</v>
+        <v>-219600.9733205845</v>
       </c>
       <c r="H75" t="n">
-        <v>130.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,33 +3026,30 @@
         <v>128</v>
       </c>
       <c r="C76" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D76" t="n">
         <v>128</v>
       </c>
       <c r="E76" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>510.0006</v>
       </c>
       <c r="G76" t="n">
-        <v>124.5333333333333</v>
+        <v>-220110.9739205845</v>
       </c>
       <c r="H76" t="n">
-        <v>129.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3288,36 +3058,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C77" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D77" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E77" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F77" t="n">
-        <v>6890</v>
+        <v>9.015499999999999</v>
       </c>
       <c r="G77" t="n">
-        <v>124.6666666666667</v>
+        <v>-220110.9739205845</v>
       </c>
       <c r="H77" t="n">
-        <v>129.7</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3326,36 +3093,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C78" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D78" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E78" t="n">
         <v>127</v>
       </c>
       <c r="F78" t="n">
-        <v>5</v>
+        <v>3997.2596</v>
       </c>
       <c r="G78" t="n">
-        <v>125.2666666666667</v>
+        <v>-220110.9739205845</v>
       </c>
       <c r="H78" t="n">
-        <v>129.5166666666667</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3364,36 +3128,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C79" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D79" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E79" t="n">
         <v>127</v>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>296.0742</v>
       </c>
       <c r="G79" t="n">
-        <v>125.5333333333333</v>
+        <v>-220110.9739205845</v>
       </c>
       <c r="H79" t="n">
-        <v>129.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3405,33 +3166,30 @@
         <v>127</v>
       </c>
       <c r="C80" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D80" t="n">
         <v>127</v>
       </c>
       <c r="E80" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F80" t="n">
-        <v>1</v>
+        <v>16455.3969</v>
       </c>
       <c r="G80" t="n">
-        <v>125.8666666666667</v>
+        <v>-236566.3708205845</v>
       </c>
       <c r="H80" t="n">
-        <v>129.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3440,36 +3198,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C81" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D81" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E81" t="n">
         <v>127</v>
       </c>
       <c r="F81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>126.3333333333333</v>
+        <v>-236565.3708205845</v>
       </c>
       <c r="H81" t="n">
-        <v>128.85</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,36 +3233,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C82" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D82" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E82" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F82" t="n">
-        <v>2</v>
+        <v>11112.5717</v>
       </c>
       <c r="G82" t="n">
-        <v>126.8</v>
+        <v>-247677.9425205845</v>
       </c>
       <c r="H82" t="n">
-        <v>128.6333333333333</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3519,33 +3271,30 @@
         <v>127</v>
       </c>
       <c r="C83" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D83" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E83" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F83" t="n">
-        <v>5</v>
+        <v>3958.7108</v>
       </c>
       <c r="G83" t="n">
-        <v>127.0666666666667</v>
+        <v>-247677.9425205845</v>
       </c>
       <c r="H83" t="n">
-        <v>128.4166666666667</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3554,36 +3303,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C84" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D84" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E84" t="n">
         <v>127</v>
       </c>
       <c r="F84" t="n">
-        <v>11</v>
+        <v>882.0624</v>
       </c>
       <c r="G84" t="n">
-        <v>127.2666666666667</v>
+        <v>-246795.8801205845</v>
       </c>
       <c r="H84" t="n">
-        <v>128.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3592,36 +3338,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C85" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D85" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E85" t="n">
         <v>127</v>
       </c>
       <c r="F85" t="n">
-        <v>602</v>
+        <v>260.6951</v>
       </c>
       <c r="G85" t="n">
-        <v>127.4</v>
+        <v>-246795.8801205845</v>
       </c>
       <c r="H85" t="n">
-        <v>128.05</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,33 +3376,30 @@
         <v>127</v>
       </c>
       <c r="C86" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D86" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E86" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F86" t="n">
-        <v>1301</v>
+        <v>11247.9519</v>
       </c>
       <c r="G86" t="n">
-        <v>127.5333333333333</v>
+        <v>-258043.8320205845</v>
       </c>
       <c r="H86" t="n">
-        <v>127.9666666666667</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,36 +3408,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C87" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D87" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E87" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F87" t="n">
-        <v>300</v>
+        <v>12206.1401</v>
       </c>
       <c r="G87" t="n">
-        <v>127.8</v>
+        <v>-258043.8320205845</v>
       </c>
       <c r="H87" t="n">
-        <v>127.8833333333333</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3718,24 +3455,21 @@
         <v>127</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>147.8282</v>
       </c>
       <c r="G88" t="n">
-        <v>127.8</v>
+        <v>-257896.0038205845</v>
       </c>
       <c r="H88" t="n">
-        <v>127.75</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3744,36 +3478,33 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C89" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D89" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E89" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F89" t="n">
-        <v>401</v>
+        <v>18373.5656</v>
       </c>
       <c r="G89" t="n">
-        <v>127.8666666666667</v>
+        <v>-276269.5694205845</v>
       </c>
       <c r="H89" t="n">
-        <v>127.65</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3782,36 +3513,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C90" t="n">
+        <v>125</v>
+      </c>
+      <c r="D90" t="n">
         <v>126</v>
       </c>
-      <c r="D90" t="n">
-        <v>127</v>
-      </c>
       <c r="E90" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F90" t="n">
-        <v>17436.0701</v>
+        <v>54660.6658</v>
       </c>
       <c r="G90" t="n">
-        <v>127.9333333333333</v>
+        <v>-330930.2352205845</v>
       </c>
       <c r="H90" t="n">
-        <v>127.5333333333333</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3820,36 +3548,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C91" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D91" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E91" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F91" t="n">
-        <v>1</v>
+        <v>34989.8544</v>
       </c>
       <c r="G91" t="n">
-        <v>128.2</v>
+        <v>-365920.0896205845</v>
       </c>
       <c r="H91" t="n">
-        <v>127.4666666666667</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,36 +3583,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="C92" t="n">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D92" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E92" t="n">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F92" t="n">
-        <v>10</v>
+        <v>95555.4189</v>
       </c>
       <c r="G92" t="n">
-        <v>128.3333333333333</v>
+        <v>-461475.5085205845</v>
       </c>
       <c r="H92" t="n">
-        <v>127.3833333333333</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,36 +3618,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C93" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D93" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E93" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F93" t="n">
-        <v>151.7632</v>
+        <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>128.2666666666667</v>
+        <v>-461474.5085205845</v>
       </c>
       <c r="H93" t="n">
-        <v>127.3166666666667</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,36 +3653,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C94" t="n">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D94" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E94" t="n">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F94" t="n">
-        <v>51</v>
+        <v>51344.354</v>
       </c>
       <c r="G94" t="n">
-        <v>128.1333333333333</v>
+        <v>-512818.8625205845</v>
       </c>
       <c r="H94" t="n">
-        <v>127.2333333333333</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3972,36 +3688,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="C95" t="n">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D95" t="n">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E95" t="n">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F95" t="n">
-        <v>8.925000000000001</v>
+        <v>27667.9559</v>
       </c>
       <c r="G95" t="n">
-        <v>128.1333333333333</v>
+        <v>-512818.8625205845</v>
       </c>
       <c r="H95" t="n">
-        <v>127.1833333333333</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4010,36 +3723,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C96" t="n">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D96" t="n">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E96" t="n">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="F96" t="n">
-        <v>1</v>
+        <v>52607.8292</v>
       </c>
       <c r="G96" t="n">
-        <v>128.0666666666667</v>
+        <v>-512818.8625205845</v>
       </c>
       <c r="H96" t="n">
-        <v>127.1166666666667</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4048,36 +3758,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C97" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D97" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E97" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F97" t="n">
-        <v>821.2308</v>
+        <v>306.0202</v>
       </c>
       <c r="G97" t="n">
-        <v>127.9333333333333</v>
+        <v>-512512.8423205845</v>
       </c>
       <c r="H97" t="n">
-        <v>127.0666666666667</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4086,36 +3793,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C98" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D98" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E98" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>3789.069</v>
       </c>
       <c r="G98" t="n">
-        <v>128</v>
+        <v>-508723.7733205844</v>
       </c>
       <c r="H98" t="n">
-        <v>127.05</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4124,36 +3828,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C99" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D99" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E99" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F99" t="n">
-        <v>10156.25</v>
+        <v>2510.7283</v>
       </c>
       <c r="G99" t="n">
-        <v>127.9333333333333</v>
+        <v>-506213.0450205844</v>
       </c>
       <c r="H99" t="n">
-        <v>126.9833333333333</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,24 +3875,21 @@
         <v>127</v>
       </c>
       <c r="F100" t="n">
-        <v>5000</v>
+        <v>1444.9251</v>
       </c>
       <c r="G100" t="n">
-        <v>127.8</v>
+        <v>-506213.0450205844</v>
       </c>
       <c r="H100" t="n">
-        <v>126.9333333333333</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4200,36 +3898,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C101" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D101" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E101" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F101" t="n">
-        <v>1</v>
+        <v>491.5162</v>
       </c>
       <c r="G101" t="n">
-        <v>127.7333333333333</v>
+        <v>-506704.5612205844</v>
       </c>
       <c r="H101" t="n">
-        <v>126.8666666666667</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4238,36 +3933,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C102" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D102" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E102" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F102" t="n">
         <v>1</v>
       </c>
       <c r="G102" t="n">
-        <v>127.6666666666667</v>
+        <v>-506703.5612205844</v>
       </c>
       <c r="H102" t="n">
-        <v>126.8</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4288,24 +3980,21 @@
         <v>127</v>
       </c>
       <c r="F103" t="n">
-        <v>3.9091</v>
+        <v>112</v>
       </c>
       <c r="G103" t="n">
-        <v>127.7333333333333</v>
+        <v>-506591.5612205844</v>
       </c>
       <c r="H103" t="n">
-        <v>126.7833333333333</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,36 +4003,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C104" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D104" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E104" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F104" t="n">
-        <v>180.7382</v>
+        <v>21</v>
       </c>
       <c r="G104" t="n">
-        <v>127.6</v>
+        <v>-506612.5612205844</v>
       </c>
       <c r="H104" t="n">
-        <v>126.75</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4352,40 +4038,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C105" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D105" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E105" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F105" t="n">
-        <v>4597.1341</v>
+        <v>5</v>
       </c>
       <c r="G105" t="n">
-        <v>127.6</v>
+        <v>-506612.5612205844</v>
       </c>
       <c r="H105" t="n">
-        <v>126.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="n">
-        <v>127</v>
-      </c>
-      <c r="L105" t="n">
-        <v>127</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4397,637 +4076,1528 @@
         <v>128</v>
       </c>
       <c r="C106" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D106" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E106" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F106" t="n">
-        <v>1</v>
+        <v>6890</v>
       </c>
       <c r="G106" t="n">
-        <v>127.5333333333333</v>
+        <v>-499722.5612205844</v>
       </c>
       <c r="H106" t="n">
-        <v>126.6833333333333</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>129</v>
+      </c>
+      <c r="C107" t="n">
+        <v>129</v>
+      </c>
+      <c r="D107" t="n">
+        <v>129</v>
+      </c>
+      <c r="E107" t="n">
+        <v>127</v>
+      </c>
+      <c r="F107" t="n">
+        <v>5</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-499717.5612205844</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>129</v>
+      </c>
+      <c r="C108" t="n">
+        <v>129</v>
+      </c>
+      <c r="D108" t="n">
+        <v>129</v>
+      </c>
+      <c r="E108" t="n">
+        <v>127</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-499717.5612205844</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>127</v>
+      </c>
+      <c r="C109" t="n">
+        <v>127</v>
+      </c>
+      <c r="D109" t="n">
+        <v>127</v>
+      </c>
+      <c r="E109" t="n">
+        <v>127</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-499718.5612205844</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>129</v>
+      </c>
+      <c r="C110" t="n">
+        <v>129</v>
+      </c>
+      <c r="D110" t="n">
+        <v>129</v>
+      </c>
+      <c r="E110" t="n">
+        <v>127</v>
+      </c>
+      <c r="F110" t="n">
+        <v>3</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-499715.5612205844</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>127</v>
+      </c>
+      <c r="C111" t="n">
+        <v>129</v>
+      </c>
+      <c r="D111" t="n">
+        <v>129</v>
+      </c>
+      <c r="E111" t="n">
+        <v>127</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-499715.5612205844</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>127</v>
+      </c>
+      <c r="C112" t="n">
+        <v>127</v>
+      </c>
+      <c r="D112" t="n">
+        <v>129</v>
+      </c>
+      <c r="E112" t="n">
+        <v>127</v>
+      </c>
+      <c r="F112" t="n">
+        <v>5</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-499720.5612205844</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>128</v>
+      </c>
+      <c r="C113" t="n">
+        <v>129</v>
+      </c>
+      <c r="D113" t="n">
+        <v>129</v>
+      </c>
+      <c r="E113" t="n">
+        <v>127</v>
+      </c>
+      <c r="F113" t="n">
+        <v>11</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-499709.5612205844</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>129</v>
+      </c>
+      <c r="C114" t="n">
+        <v>129</v>
+      </c>
+      <c r="D114" t="n">
+        <v>129</v>
+      </c>
+      <c r="E114" t="n">
+        <v>127</v>
+      </c>
+      <c r="F114" t="n">
+        <v>602</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-499709.5612205844</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>127</v>
+      </c>
+      <c r="C115" t="n">
+        <v>129</v>
+      </c>
+      <c r="D115" t="n">
+        <v>129</v>
+      </c>
+      <c r="E115" t="n">
+        <v>127</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1301</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-499709.5612205844</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>129</v>
+      </c>
+      <c r="C116" t="n">
+        <v>129</v>
+      </c>
+      <c r="D116" t="n">
+        <v>129</v>
+      </c>
+      <c r="E116" t="n">
+        <v>129</v>
+      </c>
+      <c r="F116" t="n">
+        <v>300</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-499709.5612205844</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>127</v>
+      </c>
+      <c r="C117" t="n">
+        <v>127</v>
+      </c>
+      <c r="D117" t="n">
+        <v>127</v>
+      </c>
+      <c r="E117" t="n">
+        <v>127</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-499710.5612205844</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>128</v>
+      </c>
+      <c r="C118" t="n">
+        <v>129</v>
+      </c>
+      <c r="D118" t="n">
+        <v>129</v>
+      </c>
+      <c r="E118" t="n">
+        <v>128</v>
+      </c>
+      <c r="F118" t="n">
+        <v>401</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-499309.5612205844</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>127</v>
+      </c>
+      <c r="C119" t="n">
         <v>126</v>
       </c>
-      <c r="L106" t="n">
-        <v>127</v>
-      </c>
-      <c r="M106" t="inlineStr">
+      <c r="D119" t="n">
+        <v>127</v>
+      </c>
+      <c r="E119" t="n">
+        <v>126</v>
+      </c>
+      <c r="F119" t="n">
+        <v>17436.0701</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-516745.6313205844</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>129</v>
+      </c>
+      <c r="C120" t="n">
+        <v>129</v>
+      </c>
+      <c r="D120" t="n">
+        <v>129</v>
+      </c>
+      <c r="E120" t="n">
+        <v>129</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-516744.6313205844</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>128</v>
+      </c>
+      <c r="C121" t="n">
+        <v>128</v>
+      </c>
+      <c r="D121" t="n">
+        <v>128</v>
+      </c>
+      <c r="E121" t="n">
+        <v>128</v>
+      </c>
+      <c r="F121" t="n">
+        <v>10</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-516754.6313205844</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>127</v>
+      </c>
+      <c r="C122" t="n">
+        <v>128</v>
+      </c>
+      <c r="D122" t="n">
+        <v>128</v>
+      </c>
+      <c r="E122" t="n">
+        <v>127</v>
+      </c>
+      <c r="F122" t="n">
+        <v>151.7632</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-516754.6313205844</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>127</v>
+      </c>
+      <c r="C123" t="n">
+        <v>127</v>
+      </c>
+      <c r="D123" t="n">
+        <v>127</v>
+      </c>
+      <c r="E123" t="n">
+        <v>127</v>
+      </c>
+      <c r="F123" t="n">
+        <v>51</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-516805.6313205844</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>127</v>
+      </c>
+      <c r="C124" t="n">
+        <v>127</v>
+      </c>
+      <c r="D124" t="n">
+        <v>127</v>
+      </c>
+      <c r="E124" t="n">
+        <v>127</v>
+      </c>
+      <c r="F124" t="n">
+        <v>8.925000000000001</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-516805.6313205844</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>128</v>
+      </c>
+      <c r="C125" t="n">
+        <v>128</v>
+      </c>
+      <c r="D125" t="n">
+        <v>128</v>
+      </c>
+      <c r="E125" t="n">
+        <v>128</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-516804.6313205844</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>127</v>
+      </c>
+      <c r="C126" t="n">
+        <v>127</v>
+      </c>
+      <c r="D126" t="n">
+        <v>127</v>
+      </c>
+      <c r="E126" t="n">
+        <v>127</v>
+      </c>
+      <c r="F126" t="n">
+        <v>821.2308</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-517625.8621205845</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>128</v>
+      </c>
+      <c r="C127" t="n">
+        <v>128</v>
+      </c>
+      <c r="D127" t="n">
+        <v>128</v>
+      </c>
+      <c r="E127" t="n">
+        <v>128</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-517624.8621205845</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>128</v>
+      </c>
+      <c r="C128" t="n">
+        <v>128</v>
+      </c>
+      <c r="D128" t="n">
+        <v>128</v>
+      </c>
+      <c r="E128" t="n">
+        <v>128</v>
+      </c>
+      <c r="F128" t="n">
+        <v>10156.25</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-517624.8621205845</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>127</v>
+      </c>
+      <c r="C129" t="n">
+        <v>127</v>
+      </c>
+      <c r="D129" t="n">
+        <v>127</v>
+      </c>
+      <c r="E129" t="n">
+        <v>127</v>
+      </c>
+      <c r="F129" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-522624.8621205845</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>128</v>
+      </c>
+      <c r="C130" t="n">
+        <v>128</v>
+      </c>
+      <c r="D130" t="n">
+        <v>128</v>
+      </c>
+      <c r="E130" t="n">
+        <v>128</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-522623.8621205845</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>128</v>
+      </c>
+      <c r="C131" t="n">
+        <v>128</v>
+      </c>
+      <c r="D131" t="n">
+        <v>128</v>
+      </c>
+      <c r="E131" t="n">
+        <v>128</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-522623.8621205845</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>127</v>
+      </c>
+      <c r="C132" t="n">
+        <v>128</v>
+      </c>
+      <c r="D132" t="n">
+        <v>128</v>
+      </c>
+      <c r="E132" t="n">
+        <v>127</v>
+      </c>
+      <c r="F132" t="n">
+        <v>3.9091</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-522623.8621205845</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>127</v>
+      </c>
+      <c r="C133" t="n">
+        <v>127</v>
+      </c>
+      <c r="D133" t="n">
+        <v>127</v>
+      </c>
+      <c r="E133" t="n">
+        <v>127</v>
+      </c>
+      <c r="F133" t="n">
+        <v>180.7382</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-522804.6003205845</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>126</v>
+      </c>
+      <c r="C134" t="n">
+        <v>126</v>
+      </c>
+      <c r="D134" t="n">
+        <v>126</v>
+      </c>
+      <c r="E134" t="n">
+        <v>126</v>
+      </c>
+      <c r="F134" t="n">
+        <v>4597.1341</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-527401.7344205845</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>128</v>
+      </c>
+      <c r="C135" t="n">
+        <v>128</v>
+      </c>
+      <c r="D135" t="n">
+        <v>128</v>
+      </c>
+      <c r="E135" t="n">
+        <v>128</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-527400.7344205845</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>127</v>
+      </c>
+      <c r="C136" t="n">
+        <v>128</v>
+      </c>
+      <c r="D136" t="n">
+        <v>128</v>
+      </c>
+      <c r="E136" t="n">
+        <v>127</v>
+      </c>
+      <c r="F136" t="n">
+        <v>5378.3183</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-527400.7344205845</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>126</v>
+      </c>
+      <c r="C137" t="n">
+        <v>127</v>
+      </c>
+      <c r="D137" t="n">
+        <v>127</v>
+      </c>
+      <c r="E137" t="n">
+        <v>126</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2760.9201</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-530161.6545205845</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>125</v>
+      </c>
+      <c r="C138" t="n">
+        <v>125</v>
+      </c>
+      <c r="D138" t="n">
+        <v>125</v>
+      </c>
+      <c r="E138" t="n">
+        <v>125</v>
+      </c>
+      <c r="F138" t="n">
+        <v>12.8482</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-530174.5027205845</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>126</v>
+      </c>
+      <c r="C139" t="n">
+        <v>126</v>
+      </c>
+      <c r="D139" t="n">
+        <v>126</v>
+      </c>
+      <c r="E139" t="n">
+        <v>126</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-530173.5027205845</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>126</v>
+      </c>
+      <c r="C140" t="n">
+        <v>126</v>
+      </c>
+      <c r="D140" t="n">
+        <v>126</v>
+      </c>
+      <c r="E140" t="n">
+        <v>126</v>
+      </c>
+      <c r="F140" t="n">
+        <v>9811.306699999999</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-530173.5027205845</v>
+      </c>
+      <c r="H140" t="n">
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>126</v>
+      </c>
+      <c r="K140" t="n">
+        <v>126</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>127</v>
+      </c>
+      <c r="C141" t="n">
+        <v>127</v>
+      </c>
+      <c r="D141" t="n">
+        <v>127</v>
+      </c>
+      <c r="E141" t="n">
+        <v>127</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-530172.5027205845</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>126</v>
+      </c>
+      <c r="L141" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>127</v>
-      </c>
-      <c r="C107" t="n">
-        <v>128</v>
-      </c>
-      <c r="D107" t="n">
-        <v>128</v>
-      </c>
-      <c r="E107" t="n">
-        <v>127</v>
-      </c>
-      <c r="F107" t="n">
-        <v>5378.3183</v>
-      </c>
-      <c r="G107" t="n">
-        <v>127.5333333333333</v>
-      </c>
-      <c r="H107" t="n">
-        <v>126.7</v>
-      </c>
-      <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="n">
-        <v>128</v>
-      </c>
-      <c r="L107" t="n">
-        <v>127</v>
-      </c>
-      <c r="M107" t="inlineStr">
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>127</v>
+      </c>
+      <c r="C142" t="n">
+        <v>127</v>
+      </c>
+      <c r="D142" t="n">
+        <v>127</v>
+      </c>
+      <c r="E142" t="n">
+        <v>127</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1274</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-530172.5027205845</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>126</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>126</v>
+      </c>
+      <c r="C143" t="n">
+        <v>126</v>
+      </c>
+      <c r="D143" t="n">
+        <v>126</v>
+      </c>
+      <c r="E143" t="n">
+        <v>126</v>
+      </c>
+      <c r="F143" t="n">
+        <v>132.0312</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-530304.5339205845</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>126</v>
+      </c>
+      <c r="C144" t="n">
+        <v>125</v>
+      </c>
+      <c r="D144" t="n">
+        <v>126</v>
+      </c>
+      <c r="E144" t="n">
+        <v>125</v>
+      </c>
+      <c r="F144" t="n">
+        <v>31259.0241</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-561563.5580205845</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>125</v>
+      </c>
+      <c r="C145" t="n">
+        <v>125</v>
+      </c>
+      <c r="D145" t="n">
+        <v>125</v>
+      </c>
+      <c r="E145" t="n">
+        <v>125</v>
+      </c>
+      <c r="F145" t="n">
+        <v>4979.7536</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-561563.5580205845</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>125</v>
+      </c>
+      <c r="C146" t="n">
+        <v>125</v>
+      </c>
+      <c r="D146" t="n">
+        <v>125</v>
+      </c>
+      <c r="E146" t="n">
+        <v>125</v>
+      </c>
+      <c r="F146" t="n">
+        <v>20216.3552</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-561563.5580205845</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>125</v>
+      </c>
+      <c r="C147" t="n">
+        <v>125</v>
+      </c>
+      <c r="D147" t="n">
+        <v>125</v>
+      </c>
+      <c r="E147" t="n">
+        <v>125</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2325.92</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-561563.5580205845</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>125</v>
+      </c>
+      <c r="K147" t="n">
+        <v>125</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>125</v>
+      </c>
+      <c r="C148" t="n">
+        <v>126</v>
+      </c>
+      <c r="D148" t="n">
+        <v>126</v>
+      </c>
+      <c r="E148" t="n">
+        <v>125</v>
+      </c>
+      <c r="F148" t="n">
+        <v>543.275</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-561020.2830205845</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>125</v>
+      </c>
+      <c r="K148" t="n">
+        <v>125</v>
+      </c>
+      <c r="L148" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="N107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>126</v>
-      </c>
-      <c r="C108" t="n">
-        <v>127</v>
-      </c>
-      <c r="D108" t="n">
-        <v>127</v>
-      </c>
-      <c r="E108" t="n">
-        <v>126</v>
-      </c>
-      <c r="F108" t="n">
-        <v>2760.9201</v>
-      </c>
-      <c r="G108" t="n">
-        <v>127.4666666666667</v>
-      </c>
-      <c r="H108" t="n">
-        <v>126.7</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>127</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>125</v>
-      </c>
-      <c r="C109" t="n">
-        <v>125</v>
-      </c>
-      <c r="D109" t="n">
-        <v>125</v>
-      </c>
-      <c r="E109" t="n">
-        <v>125</v>
-      </c>
-      <c r="F109" t="n">
-        <v>12.8482</v>
-      </c>
-      <c r="G109" t="n">
-        <v>127.3333333333333</v>
-      </c>
-      <c r="H109" t="n">
-        <v>126.6666666666667</v>
-      </c>
-      <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="n">
-        <v>127</v>
-      </c>
-      <c r="L109" t="n">
-        <v>127</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>126</v>
-      </c>
-      <c r="C110" t="n">
-        <v>126</v>
-      </c>
-      <c r="D110" t="n">
-        <v>126</v>
-      </c>
-      <c r="E110" t="n">
-        <v>126</v>
-      </c>
-      <c r="F110" t="n">
-        <v>1</v>
-      </c>
-      <c r="G110" t="n">
-        <v>127.2666666666667</v>
-      </c>
-      <c r="H110" t="n">
-        <v>126.65</v>
-      </c>
-      <c r="I110" t="n">
-        <v>1</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="n">
-        <v>125</v>
-      </c>
-      <c r="L110" t="n">
-        <v>127</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>126</v>
-      </c>
-      <c r="C111" t="n">
-        <v>126</v>
-      </c>
-      <c r="D111" t="n">
-        <v>126</v>
-      </c>
-      <c r="E111" t="n">
-        <v>126</v>
-      </c>
-      <c r="F111" t="n">
-        <v>9811.306699999999</v>
-      </c>
-      <c r="G111" t="n">
-        <v>127.1333333333333</v>
-      </c>
-      <c r="H111" t="n">
-        <v>126.65</v>
-      </c>
-      <c r="I111" t="n">
-        <v>1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="n">
-        <v>126</v>
-      </c>
-      <c r="L111" t="n">
-        <v>127</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>127</v>
-      </c>
-      <c r="C112" t="n">
-        <v>127</v>
-      </c>
-      <c r="D112" t="n">
-        <v>127</v>
-      </c>
-      <c r="E112" t="n">
-        <v>127</v>
-      </c>
-      <c r="F112" t="n">
-        <v>1</v>
-      </c>
-      <c r="G112" t="n">
-        <v>127.1333333333333</v>
-      </c>
-      <c r="H112" t="n">
-        <v>126.65</v>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="n">
-        <v>126</v>
-      </c>
-      <c r="L112" t="n">
-        <v>127</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>127</v>
-      </c>
-      <c r="C113" t="n">
-        <v>127</v>
-      </c>
-      <c r="D113" t="n">
-        <v>127</v>
-      </c>
-      <c r="E113" t="n">
-        <v>127</v>
-      </c>
-      <c r="F113" t="n">
-        <v>1274</v>
-      </c>
-      <c r="G113" t="n">
-        <v>127.0666666666667</v>
-      </c>
-      <c r="H113" t="n">
-        <v>126.6666666666667</v>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="n">
-        <v>127</v>
-      </c>
-      <c r="L113" t="n">
-        <v>127</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>126</v>
-      </c>
-      <c r="C114" t="n">
-        <v>126</v>
-      </c>
-      <c r="D114" t="n">
-        <v>126</v>
-      </c>
-      <c r="E114" t="n">
-        <v>126</v>
-      </c>
-      <c r="F114" t="n">
-        <v>132.0312</v>
-      </c>
-      <c r="G114" t="n">
-        <v>126.9333333333333</v>
-      </c>
-      <c r="H114" t="n">
-        <v>126.6666666666667</v>
-      </c>
-      <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="n">
-        <v>127</v>
-      </c>
-      <c r="L114" t="n">
-        <v>127</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>126</v>
-      </c>
-      <c r="C115" t="n">
-        <v>125</v>
-      </c>
-      <c r="D115" t="n">
-        <v>126</v>
-      </c>
-      <c r="E115" t="n">
-        <v>125</v>
-      </c>
-      <c r="F115" t="n">
-        <v>31259.0241</v>
-      </c>
-      <c r="G115" t="n">
-        <v>126.8</v>
-      </c>
-      <c r="H115" t="n">
-        <v>126.6333333333333</v>
-      </c>
-      <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="n">
-        <v>126</v>
-      </c>
-      <c r="L115" t="n">
-        <v>127</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>125</v>
-      </c>
-      <c r="C116" t="n">
-        <v>125</v>
-      </c>
-      <c r="D116" t="n">
-        <v>125</v>
-      </c>
-      <c r="E116" t="n">
-        <v>125</v>
-      </c>
-      <c r="F116" t="n">
-        <v>4979.7536</v>
-      </c>
-      <c r="G116" t="n">
-        <v>126.6</v>
-      </c>
-      <c r="H116" t="n">
-        <v>126.6</v>
-      </c>
-      <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="n">
-        <v>125</v>
-      </c>
-      <c r="L116" t="n">
-        <v>127</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>125</v>
-      </c>
-      <c r="C117" t="n">
-        <v>125</v>
-      </c>
-      <c r="D117" t="n">
-        <v>125</v>
-      </c>
-      <c r="E117" t="n">
-        <v>125</v>
-      </c>
-      <c r="F117" t="n">
-        <v>20216.3552</v>
-      </c>
-      <c r="G117" t="n">
-        <v>126.4</v>
-      </c>
-      <c r="H117" t="n">
-        <v>126.5833333333333</v>
-      </c>
-      <c r="I117" t="n">
-        <v>1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="n">
-        <v>125</v>
-      </c>
-      <c r="L117" t="n">
-        <v>127</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>125</v>
-      </c>
-      <c r="C118" t="n">
-        <v>125</v>
-      </c>
-      <c r="D118" t="n">
-        <v>125</v>
-      </c>
-      <c r="E118" t="n">
-        <v>125</v>
-      </c>
-      <c r="F118" t="n">
-        <v>2325.92</v>
-      </c>
-      <c r="G118" t="n">
-        <v>126.2</v>
-      </c>
-      <c r="H118" t="n">
-        <v>126.5666666666667</v>
-      </c>
-      <c r="I118" t="n">
-        <v>1</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="n">
-        <v>125</v>
-      </c>
-      <c r="L118" t="n">
-        <v>127</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>125</v>
-      </c>
-      <c r="C119" t="n">
-        <v>126</v>
-      </c>
-      <c r="D119" t="n">
-        <v>126</v>
-      </c>
-      <c r="E119" t="n">
-        <v>125</v>
-      </c>
-      <c r="F119" t="n">
-        <v>543.275</v>
-      </c>
-      <c r="G119" t="n">
-        <v>126.1333333333333</v>
-      </c>
-      <c r="H119" t="n">
-        <v>126.55</v>
-      </c>
-      <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="n">
-        <v>125</v>
-      </c>
-      <c r="L119" t="n">
-        <v>127</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+      <c r="M148" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-16 BackTest FX.xlsx
+++ b/BackTest/2019-10-16 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M148"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C2" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D2" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E2" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F2" t="n">
-        <v>3255.7701</v>
+        <v>5600</v>
       </c>
       <c r="G2" t="n">
-        <v>-137640.1921055539</v>
+        <v>-152901.0778684718</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C3" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D3" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E3" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F3" t="n">
-        <v>20.3307</v>
+        <v>493.2565</v>
       </c>
       <c r="G3" t="n">
-        <v>-137640.1921055539</v>
+        <v>-152901.0778684718</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C4" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D4" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E4" t="n">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F4" t="n">
-        <v>20.3333</v>
+        <v>11613.9934</v>
       </c>
       <c r="G4" t="n">
-        <v>-137640.1921055539</v>
+        <v>-152901.0778684718</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C5" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D5" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E5" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F5" t="n">
-        <v>812</v>
+        <v>3302.3944</v>
       </c>
       <c r="G5" t="n">
-        <v>-137640.1921055539</v>
+        <v>-152901.0778684718</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C6" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="D6" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="E6" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>4859.7569</v>
       </c>
       <c r="G6" t="n">
-        <v>-137639.1921055539</v>
+        <v>-148041.3209684718</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C7" t="n">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D7" t="n">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E7" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="F7" t="n">
-        <v>2493.0538</v>
+        <v>9387.236047887323</v>
       </c>
       <c r="G7" t="n">
-        <v>-137639.1921055539</v>
+        <v>-138654.0849205844</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C8" t="n">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D8" t="n">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E8" t="n">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>1049.2887</v>
       </c>
       <c r="G8" t="n">
-        <v>-137639.1921055539</v>
+        <v>-138654.0849205844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C9" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D9" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E9" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F9" t="n">
-        <v>7543.8118</v>
+        <v>574.4435999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>-145183.0039055539</v>
+        <v>-138654.0849205844</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C10" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D10" t="n">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="E10" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F10" t="n">
-        <v>6249.9999</v>
+        <v>2635.6435</v>
       </c>
       <c r="G10" t="n">
-        <v>-145183.0039055539</v>
+        <v>-141289.7284205844</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C11" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D11" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E11" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F11" t="n">
-        <v>6267.6125</v>
+        <v>8435.8951</v>
       </c>
       <c r="G11" t="n">
-        <v>-151450.6164055539</v>
+        <v>-141289.7284205844</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C12" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D12" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E12" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F12" t="n">
-        <v>280.2662</v>
+        <v>2116.068</v>
       </c>
       <c r="G12" t="n">
-        <v>-151450.6164055539</v>
+        <v>-141289.7284205844</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,34 +827,35 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C13" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D13" t="n">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E13" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>23787.2826</v>
       </c>
       <c r="G13" t="n">
-        <v>-151449.6164055539</v>
+        <v>-165077.0110205844</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -847,34 +863,35 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C14" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D14" t="n">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E14" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F14" t="n">
-        <v>1822</v>
+        <v>105.0449</v>
       </c>
       <c r="G14" t="n">
-        <v>-151449.6164055539</v>
+        <v>-165077.0110205844</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C15" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D15" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E15" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F15" t="n">
-        <v>99925.79489999999</v>
+        <v>299.9888</v>
       </c>
       <c r="G15" t="n">
-        <v>-151449.6164055539</v>
+        <v>-164777.0222205844</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C16" t="n">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D16" t="n">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E16" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>16004.9263</v>
       </c>
       <c r="G16" t="n">
-        <v>-151448.6164055539</v>
+        <v>-164777.0222205844</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C17" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D17" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E17" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F17" t="n">
-        <v>1</v>
+        <v>20405.3673</v>
       </c>
       <c r="G17" t="n">
-        <v>-151448.6164055539</v>
+        <v>-185182.3895205845</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C18" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D18" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E18" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F18" t="n">
-        <v>1539.9178</v>
+        <v>5810.7727</v>
       </c>
       <c r="G18" t="n">
-        <v>-149908.6986055539</v>
+        <v>-185182.3895205845</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C19" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D19" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E19" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F19" t="n">
-        <v>810.5253</v>
+        <v>13420.5848</v>
       </c>
       <c r="G19" t="n">
-        <v>-149908.6986055539</v>
+        <v>-185182.3895205845</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C20" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D20" t="n">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E20" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F20" t="n">
-        <v>2222</v>
+        <v>10270.3904</v>
       </c>
       <c r="G20" t="n">
-        <v>-152130.6986055539</v>
+        <v>-195452.7799205845</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C21" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D21" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E21" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>4632.8888</v>
       </c>
       <c r="G21" t="n">
-        <v>-152129.6986055539</v>
+        <v>-195452.7799205845</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C22" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D22" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E22" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F22" t="n">
-        <v>2223</v>
+        <v>4333.998</v>
       </c>
       <c r="G22" t="n">
-        <v>-154352.6986055539</v>
+        <v>-199786.7779205845</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C23" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D23" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E23" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>1771.1514</v>
       </c>
       <c r="G23" t="n">
-        <v>-154351.6986055539</v>
+        <v>-198015.6265205845</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C24" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D24" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E24" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F24" t="n">
-        <v>5445</v>
+        <v>14487.4119</v>
       </c>
       <c r="G24" t="n">
-        <v>-154351.6986055539</v>
+        <v>-212503.0384205845</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,28 +1259,29 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C25" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D25" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E25" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F25" t="n">
-        <v>43193.3155</v>
+        <v>1399.5572</v>
       </c>
       <c r="G25" t="n">
-        <v>-111158.3831055539</v>
+        <v>-213902.5956205845</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,28 +1295,29 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C26" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D26" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E26" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F26" t="n">
-        <v>134.8813</v>
+        <v>1400.6906</v>
       </c>
       <c r="G26" t="n">
-        <v>-111158.3831055539</v>
+        <v>-212501.9050205845</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1302,28 +1331,29 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C27" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D27" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E27" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F27" t="n">
-        <v>40.4644</v>
+        <v>4242.8131</v>
       </c>
       <c r="G27" t="n">
-        <v>-111158.3831055539</v>
+        <v>-216744.7181205845</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C28" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D28" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E28" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F28" t="n">
-        <v>14854.5584</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>-96303.82470555387</v>
+        <v>-216743.7181205845</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C29" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D29" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E29" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>333.6893</v>
       </c>
       <c r="G29" t="n">
-        <v>-96302.82470555387</v>
+        <v>-216743.7181205845</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C30" t="n">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D30" t="n">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E30" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F30" t="n">
-        <v>13925.3508</v>
+        <v>22.0131</v>
       </c>
       <c r="G30" t="n">
-        <v>-96302.82470555387</v>
+        <v>-216765.7312205845</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C31" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="D31" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E31" t="n">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>54.9573</v>
       </c>
       <c r="G31" t="n">
-        <v>-96301.82470555387</v>
+        <v>-216765.7312205845</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C32" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D32" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E32" t="n">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F32" t="n">
-        <v>11628.8198</v>
+        <v>391</v>
       </c>
       <c r="G32" t="n">
-        <v>-84673.00490555387</v>
+        <v>-216374.7312205845</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C33" t="n">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D33" t="n">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E33" t="n">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F33" t="n">
-        <v>29932.5919</v>
+        <v>3226.2421</v>
       </c>
       <c r="G33" t="n">
-        <v>-114605.5968055539</v>
+        <v>-219600.9733205845</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C34" t="n">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D34" t="n">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E34" t="n">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>510.0006</v>
       </c>
       <c r="G34" t="n">
-        <v>-114604.5968055539</v>
+        <v>-220110.9739205845</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C35" t="n">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D35" t="n">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E35" t="n">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F35" t="n">
-        <v>17093.0724</v>
+        <v>9.015499999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>-114604.5968055539</v>
+        <v>-220110.9739205845</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C36" t="n">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="D36" t="n">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E36" t="n">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="F36" t="n">
-        <v>18428.657</v>
+        <v>3997.2596</v>
       </c>
       <c r="G36" t="n">
-        <v>-133033.2538055539</v>
+        <v>-220110.9739205845</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C37" t="n">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D37" t="n">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E37" t="n">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F37" t="n">
-        <v>3757.808479285714</v>
+        <v>296.0742</v>
       </c>
       <c r="G37" t="n">
-        <v>-129275.4453262681</v>
+        <v>-220110.9739205845</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C38" t="n">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D38" t="n">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E38" t="n">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F38" t="n">
-        <v>37606.00612071429</v>
+        <v>16455.3969</v>
       </c>
       <c r="G38" t="n">
-        <v>-129275.4453262681</v>
+        <v>-236566.3708205845</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C39" t="n">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D39" t="n">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E39" t="n">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="F39" t="n">
-        <v>88619.06419999999</v>
+        <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>-129275.4453262681</v>
+        <v>-236565.3708205845</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C40" t="n">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D40" t="n">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E40" t="n">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F40" t="n">
-        <v>30275.19850851064</v>
+        <v>11112.5717</v>
       </c>
       <c r="G40" t="n">
-        <v>-99000.24681775751</v>
+        <v>-247677.9425205845</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,34 +1835,35 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C41" t="n">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D41" t="n">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E41" t="n">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F41" t="n">
-        <v>51832.30615071428</v>
+        <v>3958.7108</v>
       </c>
       <c r="G41" t="n">
-        <v>-150832.5529684718</v>
+        <v>-247677.9425205845</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
@@ -1827,34 +1871,35 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C42" t="n">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D42" t="n">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E42" t="n">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="F42" t="n">
-        <v>2776.825</v>
+        <v>882.0624</v>
       </c>
       <c r="G42" t="n">
-        <v>-150832.5529684718</v>
+        <v>-246795.8801205845</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C43" t="n">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D43" t="n">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E43" t="n">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F43" t="n">
-        <v>3531.4751</v>
+        <v>260.6951</v>
       </c>
       <c r="G43" t="n">
-        <v>-147301.0778684718</v>
+        <v>-246795.8801205845</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,34 +1943,35 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C44" t="n">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D44" t="n">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E44" t="n">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F44" t="n">
-        <v>5600</v>
+        <v>11247.9519</v>
       </c>
       <c r="G44" t="n">
-        <v>-152901.0778684718</v>
+        <v>-258043.8320205845</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
@@ -1932,34 +1979,35 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C45" t="n">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D45" t="n">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E45" t="n">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F45" t="n">
-        <v>493.2565</v>
+        <v>12206.1401</v>
       </c>
       <c r="G45" t="n">
-        <v>-152901.0778684718</v>
+        <v>-258043.8320205845</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
@@ -1967,34 +2015,35 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C46" t="n">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D46" t="n">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E46" t="n">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F46" t="n">
-        <v>11613.9934</v>
+        <v>147.8282</v>
       </c>
       <c r="G46" t="n">
-        <v>-152901.0778684718</v>
+        <v>-257896.0038205845</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
@@ -2002,34 +2051,35 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C47" t="n">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D47" t="n">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E47" t="n">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="F47" t="n">
-        <v>3302.3944</v>
+        <v>18373.5656</v>
       </c>
       <c r="G47" t="n">
-        <v>-152901.0778684718</v>
+        <v>-276269.5694205845</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2037,34 +2087,35 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C48" t="n">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D48" t="n">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E48" t="n">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="F48" t="n">
-        <v>4859.7569</v>
+        <v>54660.6658</v>
       </c>
       <c r="G48" t="n">
-        <v>-148041.3209684718</v>
+        <v>-330930.2352205845</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
@@ -2072,34 +2123,35 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C49" t="n">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="D49" t="n">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E49" t="n">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="F49" t="n">
-        <v>9387.236047887323</v>
+        <v>34989.8544</v>
       </c>
       <c r="G49" t="n">
-        <v>-138654.0849205844</v>
+        <v>-365920.0896205845</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2107,34 +2159,35 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="C50" t="n">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="D50" t="n">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="E50" t="n">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="F50" t="n">
-        <v>1049.2887</v>
+        <v>95555.4189</v>
       </c>
       <c r="G50" t="n">
-        <v>-138654.0849205844</v>
+        <v>-461475.5085205845</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2142,34 +2195,35 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C51" t="n">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="D51" t="n">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="E51" t="n">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="F51" t="n">
-        <v>574.4435999999999</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>-138654.0849205844</v>
+        <v>-461474.5085205845</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2177,34 +2231,35 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="C52" t="n">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D52" t="n">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="E52" t="n">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="F52" t="n">
-        <v>2635.6435</v>
+        <v>51344.354</v>
       </c>
       <c r="G52" t="n">
-        <v>-141289.7284205844</v>
+        <v>-512818.8625205845</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C53" t="n">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D53" t="n">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="E53" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="F53" t="n">
-        <v>8435.8951</v>
+        <v>27667.9559</v>
       </c>
       <c r="G53" t="n">
-        <v>-141289.7284205844</v>
+        <v>-512818.8625205845</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="C54" t="n">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="D54" t="n">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="E54" t="n">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="F54" t="n">
-        <v>2116.068</v>
+        <v>52607.8292</v>
       </c>
       <c r="G54" t="n">
-        <v>-141289.7284205844</v>
+        <v>-512818.8625205845</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,34 +2339,35 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="C55" t="n">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D55" t="n">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E55" t="n">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="F55" t="n">
-        <v>23787.2826</v>
+        <v>306.0202</v>
       </c>
       <c r="G55" t="n">
-        <v>-165077.0110205844</v>
+        <v>-512512.8423205845</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C56" t="n">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D56" t="n">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E56" t="n">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F56" t="n">
-        <v>105.0449</v>
+        <v>3789.069</v>
       </c>
       <c r="G56" t="n">
-        <v>-165077.0110205844</v>
+        <v>-508723.7733205844</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C57" t="n">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D57" t="n">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E57" t="n">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F57" t="n">
-        <v>299.9888</v>
+        <v>2510.7283</v>
       </c>
       <c r="G57" t="n">
-        <v>-164777.0222205844</v>
+        <v>-506213.0450205844</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C58" t="n">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D58" t="n">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E58" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F58" t="n">
-        <v>16004.9263</v>
+        <v>1444.9251</v>
       </c>
       <c r="G58" t="n">
-        <v>-164777.0222205844</v>
+        <v>-506213.0450205844</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C59" t="n">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D59" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E59" t="n">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F59" t="n">
-        <v>20405.3673</v>
+        <v>491.5162</v>
       </c>
       <c r="G59" t="n">
-        <v>-185182.3895205845</v>
+        <v>-506704.5612205844</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C60" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D60" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E60" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F60" t="n">
-        <v>5810.7727</v>
+        <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>-185182.3895205845</v>
+        <v>-506703.5612205844</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C61" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D61" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E61" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F61" t="n">
-        <v>13420.5848</v>
+        <v>112</v>
       </c>
       <c r="G61" t="n">
-        <v>-185182.3895205845</v>
+        <v>-506591.5612205844</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C62" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D62" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E62" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F62" t="n">
-        <v>10270.3904</v>
+        <v>21</v>
       </c>
       <c r="G62" t="n">
-        <v>-195452.7799205845</v>
+        <v>-506612.5612205844</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C63" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D63" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E63" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F63" t="n">
-        <v>4632.8888</v>
+        <v>5</v>
       </c>
       <c r="G63" t="n">
-        <v>-195452.7799205845</v>
+        <v>-506612.5612205844</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C64" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D64" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E64" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F64" t="n">
-        <v>4333.998</v>
+        <v>6890</v>
       </c>
       <c r="G64" t="n">
-        <v>-199786.7779205845</v>
+        <v>-499722.5612205844</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C65" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D65" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E65" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F65" t="n">
-        <v>1771.1514</v>
+        <v>5</v>
       </c>
       <c r="G65" t="n">
-        <v>-198015.6265205845</v>
+        <v>-499717.5612205844</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C66" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D66" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E66" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F66" t="n">
-        <v>14487.4119</v>
+        <v>3</v>
       </c>
       <c r="G66" t="n">
-        <v>-212503.0384205845</v>
+        <v>-499717.5612205844</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C67" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D67" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E67" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" t="n">
-        <v>1399.5572</v>
+        <v>1</v>
       </c>
       <c r="G67" t="n">
-        <v>-213902.5956205845</v>
+        <v>-499718.5612205844</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,6 +2807,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2746,19 +2817,19 @@
         <v>129</v>
       </c>
       <c r="C68" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D68" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E68" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F68" t="n">
-        <v>1400.6906</v>
+        <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>-212501.9050205845</v>
+        <v>-499715.5612205844</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C69" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D69" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E69" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F69" t="n">
-        <v>4242.8131</v>
+        <v>2</v>
       </c>
       <c r="G69" t="n">
-        <v>-216744.7181205845</v>
+        <v>-499715.5612205844</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C70" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D70" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E70" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F70" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G70" t="n">
-        <v>-216743.7181205845</v>
+        <v>-499720.5612205844</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C71" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D71" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E71" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F71" t="n">
-        <v>333.6893</v>
+        <v>11</v>
       </c>
       <c r="G71" t="n">
-        <v>-216743.7181205845</v>
+        <v>-499709.5612205844</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,6 +2951,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2892,13 +2967,13 @@
         <v>129</v>
       </c>
       <c r="E72" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F72" t="n">
-        <v>22.0131</v>
+        <v>602</v>
       </c>
       <c r="G72" t="n">
-        <v>-216765.7312205845</v>
+        <v>-499709.5612205844</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,13 +2987,14 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C73" t="n">
         <v>129</v>
@@ -2927,13 +3003,13 @@
         <v>129</v>
       </c>
       <c r="E73" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F73" t="n">
-        <v>54.9573</v>
+        <v>1301</v>
       </c>
       <c r="G73" t="n">
-        <v>-216765.7312205845</v>
+        <v>-499709.5612205844</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C74" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D74" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E74" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F74" t="n">
-        <v>391</v>
+        <v>300</v>
       </c>
       <c r="G74" t="n">
-        <v>-216374.7312205845</v>
+        <v>-499709.5612205844</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C75" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D75" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E75" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F75" t="n">
-        <v>3226.2421</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>-219600.9733205845</v>
+        <v>-499710.5612205844</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,6 +3095,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3026,19 +3105,19 @@
         <v>128</v>
       </c>
       <c r="C76" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D76" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E76" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F76" t="n">
-        <v>510.0006</v>
+        <v>401</v>
       </c>
       <c r="G76" t="n">
-        <v>-220110.9739205845</v>
+        <v>-499309.5612205844</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,6 +3131,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3061,19 +3141,19 @@
         <v>127</v>
       </c>
       <c r="C77" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D77" t="n">
         <v>127</v>
       </c>
       <c r="E77" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F77" t="n">
-        <v>9.015499999999999</v>
+        <v>17436.0701</v>
       </c>
       <c r="G77" t="n">
-        <v>-220110.9739205845</v>
+        <v>-516745.6313205844</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C78" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D78" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E78" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F78" t="n">
-        <v>3997.2596</v>
+        <v>1</v>
       </c>
       <c r="G78" t="n">
-        <v>-220110.9739205845</v>
+        <v>-516744.6313205844</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C79" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D79" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E79" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F79" t="n">
-        <v>296.0742</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>-220110.9739205845</v>
+        <v>-516754.6313205844</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,6 +3239,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3166,19 +3249,19 @@
         <v>127</v>
       </c>
       <c r="C80" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D80" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E80" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F80" t="n">
-        <v>16455.3969</v>
+        <v>151.7632</v>
       </c>
       <c r="G80" t="n">
-        <v>-236566.3708205845</v>
+        <v>-516754.6313205844</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,6 +3275,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3210,10 +3294,10 @@
         <v>127</v>
       </c>
       <c r="F81" t="n">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="G81" t="n">
-        <v>-236565.3708205845</v>
+        <v>-516805.6313205844</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C82" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D82" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E82" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F82" t="n">
-        <v>11112.5717</v>
+        <v>8.925000000000001</v>
       </c>
       <c r="G82" t="n">
-        <v>-247677.9425205845</v>
+        <v>-516805.6313205844</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C83" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D83" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E83" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F83" t="n">
-        <v>3958.7108</v>
+        <v>1</v>
       </c>
       <c r="G83" t="n">
-        <v>-247677.9425205845</v>
+        <v>-516804.6313205844</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,6 +3383,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3315,10 +3402,10 @@
         <v>127</v>
       </c>
       <c r="F84" t="n">
-        <v>882.0624</v>
+        <v>821.2308</v>
       </c>
       <c r="G84" t="n">
-        <v>-246795.8801205845</v>
+        <v>-517625.8621205845</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C85" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D85" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E85" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F85" t="n">
-        <v>260.6951</v>
+        <v>1</v>
       </c>
       <c r="G85" t="n">
-        <v>-246795.8801205845</v>
+        <v>-517624.8621205845</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C86" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D86" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E86" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F86" t="n">
-        <v>11247.9519</v>
+        <v>10156.25</v>
       </c>
       <c r="G86" t="n">
-        <v>-258043.8320205845</v>
+        <v>-517624.8621205845</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C87" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D87" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E87" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F87" t="n">
-        <v>12206.1401</v>
+        <v>5000</v>
       </c>
       <c r="G87" t="n">
-        <v>-258043.8320205845</v>
+        <v>-522624.8621205845</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C88" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D88" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E88" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F88" t="n">
-        <v>147.8282</v>
+        <v>1</v>
       </c>
       <c r="G88" t="n">
-        <v>-257896.0038205845</v>
+        <v>-522623.8621205845</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C89" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D89" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E89" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F89" t="n">
-        <v>18373.5656</v>
+        <v>1</v>
       </c>
       <c r="G89" t="n">
-        <v>-276269.5694205845</v>
+        <v>-522623.8621205845</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C90" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D90" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E90" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F90" t="n">
-        <v>54660.6658</v>
+        <v>3.9091</v>
       </c>
       <c r="G90" t="n">
-        <v>-330930.2352205845</v>
+        <v>-522623.8621205845</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C91" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D91" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E91" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F91" t="n">
-        <v>34989.8544</v>
+        <v>180.7382</v>
       </c>
       <c r="G91" t="n">
-        <v>-365920.0896205845</v>
+        <v>-522804.6003205845</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,216 +3671,267 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C92" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D92" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E92" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F92" t="n">
-        <v>95555.4189</v>
+        <v>4597.1341</v>
       </c>
       <c r="G92" t="n">
-        <v>-461475.5085205845</v>
+        <v>-527401.7344205845</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>127</v>
+      </c>
+      <c r="K92" t="n">
+        <v>127</v>
+      </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C93" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D93" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E93" t="n">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F93" t="n">
         <v>1</v>
       </c>
       <c r="G93" t="n">
-        <v>-461474.5085205845</v>
+        <v>-527400.7344205845</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>126</v>
+      </c>
+      <c r="K93" t="n">
+        <v>127</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C94" t="n">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D94" t="n">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E94" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F94" t="n">
-        <v>51344.354</v>
+        <v>5378.3183</v>
       </c>
       <c r="G94" t="n">
-        <v>-512818.8625205845</v>
+        <v>-527400.7344205845</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>128</v>
+      </c>
+      <c r="K94" t="n">
+        <v>127</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="C95" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D95" t="n">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E95" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="F95" t="n">
-        <v>27667.9559</v>
+        <v>2760.9201</v>
       </c>
       <c r="G95" t="n">
-        <v>-512818.8625205845</v>
+        <v>-530161.6545205845</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>128</v>
+      </c>
+      <c r="K95" t="n">
+        <v>127</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C96" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D96" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E96" t="n">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F96" t="n">
-        <v>52607.8292</v>
+        <v>12.8482</v>
       </c>
       <c r="G96" t="n">
-        <v>-512818.8625205845</v>
+        <v>-530174.5027205845</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>127</v>
+      </c>
+      <c r="K96" t="n">
+        <v>127</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C97" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D97" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E97" t="n">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F97" t="n">
-        <v>306.0202</v>
+        <v>1</v>
       </c>
       <c r="G97" t="n">
-        <v>-512512.8423205845</v>
+        <v>-530173.5027205845</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>125</v>
+      </c>
+      <c r="K97" t="n">
+        <v>127</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3805,23 +3950,32 @@
         <v>126</v>
       </c>
       <c r="F98" t="n">
-        <v>3789.069</v>
+        <v>9811.306699999999</v>
       </c>
       <c r="G98" t="n">
-        <v>-508723.7733205844</v>
+        <v>-530173.5027205845</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>126</v>
+      </c>
+      <c r="K98" t="n">
+        <v>127</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3840,23 +3994,32 @@
         <v>127</v>
       </c>
       <c r="F99" t="n">
-        <v>2510.7283</v>
+        <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>-506213.0450205844</v>
+        <v>-530172.5027205845</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>126</v>
+      </c>
+      <c r="K99" t="n">
+        <v>127</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3875,115 +4038,142 @@
         <v>127</v>
       </c>
       <c r="F100" t="n">
-        <v>1444.9251</v>
+        <v>1274</v>
       </c>
       <c r="G100" t="n">
-        <v>-506213.0450205844</v>
+        <v>-530172.5027205845</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>127</v>
+      </c>
+      <c r="K100" t="n">
+        <v>127</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C101" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D101" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E101" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F101" t="n">
-        <v>491.5162</v>
+        <v>132.0312</v>
       </c>
       <c r="G101" t="n">
-        <v>-506704.5612205844</v>
+        <v>-530304.5339205845</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>127</v>
+      </c>
+      <c r="K101" t="n">
+        <v>127</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C102" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D102" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E102" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F102" t="n">
-        <v>1</v>
+        <v>31259.0241</v>
       </c>
       <c r="G102" t="n">
-        <v>-506703.5612205844</v>
+        <v>-561563.5580205845</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>126</v>
+      </c>
+      <c r="K102" t="n">
+        <v>127</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C103" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D103" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E103" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F103" t="n">
-        <v>112</v>
+        <v>4979.7536</v>
       </c>
       <c r="G103" t="n">
-        <v>-506591.5612205844</v>
+        <v>-561563.5580205845</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3992,33 +4182,40 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>127</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C104" t="n">
         <v>125</v>
       </c>
       <c r="D104" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E104" t="n">
         <v>125</v>
       </c>
       <c r="F104" t="n">
-        <v>21</v>
+        <v>20216.3552</v>
       </c>
       <c r="G104" t="n">
-        <v>-506612.5612205844</v>
+        <v>-561563.5580205845</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4027,33 +4224,40 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>127</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C105" t="n">
         <v>125</v>
       </c>
       <c r="D105" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E105" t="n">
         <v>125</v>
       </c>
       <c r="F105" t="n">
-        <v>5</v>
+        <v>2325.92</v>
       </c>
       <c r="G105" t="n">
-        <v>-506612.5612205844</v>
+        <v>-561563.5580205845</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4062,1544 +4266,62 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>127</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C106" t="n">
         <v>126</v>
       </c>
       <c r="D106" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E106" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F106" t="n">
-        <v>6890</v>
+        <v>543.275</v>
       </c>
       <c r="G106" t="n">
-        <v>-499722.5612205844</v>
+        <v>-561020.2830205845</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>125</v>
+      </c>
+      <c r="K106" t="n">
+        <v>127</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>129</v>
-      </c>
-      <c r="C107" t="n">
-        <v>129</v>
-      </c>
-      <c r="D107" t="n">
-        <v>129</v>
-      </c>
-      <c r="E107" t="n">
-        <v>127</v>
-      </c>
-      <c r="F107" t="n">
-        <v>5</v>
-      </c>
-      <c r="G107" t="n">
-        <v>-499717.5612205844</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>129</v>
-      </c>
-      <c r="C108" t="n">
-        <v>129</v>
-      </c>
-      <c r="D108" t="n">
-        <v>129</v>
-      </c>
-      <c r="E108" t="n">
-        <v>127</v>
-      </c>
-      <c r="F108" t="n">
-        <v>3</v>
-      </c>
-      <c r="G108" t="n">
-        <v>-499717.5612205844</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>127</v>
-      </c>
-      <c r="C109" t="n">
-        <v>127</v>
-      </c>
-      <c r="D109" t="n">
-        <v>127</v>
-      </c>
-      <c r="E109" t="n">
-        <v>127</v>
-      </c>
-      <c r="F109" t="n">
-        <v>1</v>
-      </c>
-      <c r="G109" t="n">
-        <v>-499718.5612205844</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>129</v>
-      </c>
-      <c r="C110" t="n">
-        <v>129</v>
-      </c>
-      <c r="D110" t="n">
-        <v>129</v>
-      </c>
-      <c r="E110" t="n">
-        <v>127</v>
-      </c>
-      <c r="F110" t="n">
-        <v>3</v>
-      </c>
-      <c r="G110" t="n">
-        <v>-499715.5612205844</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>127</v>
-      </c>
-      <c r="C111" t="n">
-        <v>129</v>
-      </c>
-      <c r="D111" t="n">
-        <v>129</v>
-      </c>
-      <c r="E111" t="n">
-        <v>127</v>
-      </c>
-      <c r="F111" t="n">
-        <v>2</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-499715.5612205844</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>127</v>
-      </c>
-      <c r="C112" t="n">
-        <v>127</v>
-      </c>
-      <c r="D112" t="n">
-        <v>129</v>
-      </c>
-      <c r="E112" t="n">
-        <v>127</v>
-      </c>
-      <c r="F112" t="n">
-        <v>5</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-499720.5612205844</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>128</v>
-      </c>
-      <c r="C113" t="n">
-        <v>129</v>
-      </c>
-      <c r="D113" t="n">
-        <v>129</v>
-      </c>
-      <c r="E113" t="n">
-        <v>127</v>
-      </c>
-      <c r="F113" t="n">
-        <v>11</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-499709.5612205844</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>129</v>
-      </c>
-      <c r="C114" t="n">
-        <v>129</v>
-      </c>
-      <c r="D114" t="n">
-        <v>129</v>
-      </c>
-      <c r="E114" t="n">
-        <v>127</v>
-      </c>
-      <c r="F114" t="n">
-        <v>602</v>
-      </c>
-      <c r="G114" t="n">
-        <v>-499709.5612205844</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>127</v>
-      </c>
-      <c r="C115" t="n">
-        <v>129</v>
-      </c>
-      <c r="D115" t="n">
-        <v>129</v>
-      </c>
-      <c r="E115" t="n">
-        <v>127</v>
-      </c>
-      <c r="F115" t="n">
-        <v>1301</v>
-      </c>
-      <c r="G115" t="n">
-        <v>-499709.5612205844</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>129</v>
-      </c>
-      <c r="C116" t="n">
-        <v>129</v>
-      </c>
-      <c r="D116" t="n">
-        <v>129</v>
-      </c>
-      <c r="E116" t="n">
-        <v>129</v>
-      </c>
-      <c r="F116" t="n">
-        <v>300</v>
-      </c>
-      <c r="G116" t="n">
-        <v>-499709.5612205844</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>127</v>
-      </c>
-      <c r="C117" t="n">
-        <v>127</v>
-      </c>
-      <c r="D117" t="n">
-        <v>127</v>
-      </c>
-      <c r="E117" t="n">
-        <v>127</v>
-      </c>
-      <c r="F117" t="n">
-        <v>1</v>
-      </c>
-      <c r="G117" t="n">
-        <v>-499710.5612205844</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>128</v>
-      </c>
-      <c r="C118" t="n">
-        <v>129</v>
-      </c>
-      <c r="D118" t="n">
-        <v>129</v>
-      </c>
-      <c r="E118" t="n">
-        <v>128</v>
-      </c>
-      <c r="F118" t="n">
-        <v>401</v>
-      </c>
-      <c r="G118" t="n">
-        <v>-499309.5612205844</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>127</v>
-      </c>
-      <c r="C119" t="n">
-        <v>126</v>
-      </c>
-      <c r="D119" t="n">
-        <v>127</v>
-      </c>
-      <c r="E119" t="n">
-        <v>126</v>
-      </c>
-      <c r="F119" t="n">
-        <v>17436.0701</v>
-      </c>
-      <c r="G119" t="n">
-        <v>-516745.6313205844</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>129</v>
-      </c>
-      <c r="C120" t="n">
-        <v>129</v>
-      </c>
-      <c r="D120" t="n">
-        <v>129</v>
-      </c>
-      <c r="E120" t="n">
-        <v>129</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1</v>
-      </c>
-      <c r="G120" t="n">
-        <v>-516744.6313205844</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>128</v>
-      </c>
-      <c r="C121" t="n">
-        <v>128</v>
-      </c>
-      <c r="D121" t="n">
-        <v>128</v>
-      </c>
-      <c r="E121" t="n">
-        <v>128</v>
-      </c>
-      <c r="F121" t="n">
-        <v>10</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-516754.6313205844</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>127</v>
-      </c>
-      <c r="C122" t="n">
-        <v>128</v>
-      </c>
-      <c r="D122" t="n">
-        <v>128</v>
-      </c>
-      <c r="E122" t="n">
-        <v>127</v>
-      </c>
-      <c r="F122" t="n">
-        <v>151.7632</v>
-      </c>
-      <c r="G122" t="n">
-        <v>-516754.6313205844</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>127</v>
-      </c>
-      <c r="C123" t="n">
-        <v>127</v>
-      </c>
-      <c r="D123" t="n">
-        <v>127</v>
-      </c>
-      <c r="E123" t="n">
-        <v>127</v>
-      </c>
-      <c r="F123" t="n">
-        <v>51</v>
-      </c>
-      <c r="G123" t="n">
-        <v>-516805.6313205844</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>127</v>
-      </c>
-      <c r="C124" t="n">
-        <v>127</v>
-      </c>
-      <c r="D124" t="n">
-        <v>127</v>
-      </c>
-      <c r="E124" t="n">
-        <v>127</v>
-      </c>
-      <c r="F124" t="n">
-        <v>8.925000000000001</v>
-      </c>
-      <c r="G124" t="n">
-        <v>-516805.6313205844</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>128</v>
-      </c>
-      <c r="C125" t="n">
-        <v>128</v>
-      </c>
-      <c r="D125" t="n">
-        <v>128</v>
-      </c>
-      <c r="E125" t="n">
-        <v>128</v>
-      </c>
-      <c r="F125" t="n">
-        <v>1</v>
-      </c>
-      <c r="G125" t="n">
-        <v>-516804.6313205844</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>127</v>
-      </c>
-      <c r="C126" t="n">
-        <v>127</v>
-      </c>
-      <c r="D126" t="n">
-        <v>127</v>
-      </c>
-      <c r="E126" t="n">
-        <v>127</v>
-      </c>
-      <c r="F126" t="n">
-        <v>821.2308</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-517625.8621205845</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>128</v>
-      </c>
-      <c r="C127" t="n">
-        <v>128</v>
-      </c>
-      <c r="D127" t="n">
-        <v>128</v>
-      </c>
-      <c r="E127" t="n">
-        <v>128</v>
-      </c>
-      <c r="F127" t="n">
-        <v>1</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-517624.8621205845</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>128</v>
-      </c>
-      <c r="C128" t="n">
-        <v>128</v>
-      </c>
-      <c r="D128" t="n">
-        <v>128</v>
-      </c>
-      <c r="E128" t="n">
-        <v>128</v>
-      </c>
-      <c r="F128" t="n">
-        <v>10156.25</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-517624.8621205845</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>127</v>
-      </c>
-      <c r="C129" t="n">
-        <v>127</v>
-      </c>
-      <c r="D129" t="n">
-        <v>127</v>
-      </c>
-      <c r="E129" t="n">
-        <v>127</v>
-      </c>
-      <c r="F129" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-522624.8621205845</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>128</v>
-      </c>
-      <c r="C130" t="n">
-        <v>128</v>
-      </c>
-      <c r="D130" t="n">
-        <v>128</v>
-      </c>
-      <c r="E130" t="n">
-        <v>128</v>
-      </c>
-      <c r="F130" t="n">
-        <v>1</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-522623.8621205845</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>128</v>
-      </c>
-      <c r="C131" t="n">
-        <v>128</v>
-      </c>
-      <c r="D131" t="n">
-        <v>128</v>
-      </c>
-      <c r="E131" t="n">
-        <v>128</v>
-      </c>
-      <c r="F131" t="n">
-        <v>1</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-522623.8621205845</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>127</v>
-      </c>
-      <c r="C132" t="n">
-        <v>128</v>
-      </c>
-      <c r="D132" t="n">
-        <v>128</v>
-      </c>
-      <c r="E132" t="n">
-        <v>127</v>
-      </c>
-      <c r="F132" t="n">
-        <v>3.9091</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-522623.8621205845</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>127</v>
-      </c>
-      <c r="C133" t="n">
-        <v>127</v>
-      </c>
-      <c r="D133" t="n">
-        <v>127</v>
-      </c>
-      <c r="E133" t="n">
-        <v>127</v>
-      </c>
-      <c r="F133" t="n">
-        <v>180.7382</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-522804.6003205845</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>126</v>
-      </c>
-      <c r="C134" t="n">
-        <v>126</v>
-      </c>
-      <c r="D134" t="n">
-        <v>126</v>
-      </c>
-      <c r="E134" t="n">
-        <v>126</v>
-      </c>
-      <c r="F134" t="n">
-        <v>4597.1341</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-527401.7344205845</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>128</v>
-      </c>
-      <c r="C135" t="n">
-        <v>128</v>
-      </c>
-      <c r="D135" t="n">
-        <v>128</v>
-      </c>
-      <c r="E135" t="n">
-        <v>128</v>
-      </c>
-      <c r="F135" t="n">
-        <v>1</v>
-      </c>
-      <c r="G135" t="n">
-        <v>-527400.7344205845</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>127</v>
-      </c>
-      <c r="C136" t="n">
-        <v>128</v>
-      </c>
-      <c r="D136" t="n">
-        <v>128</v>
-      </c>
-      <c r="E136" t="n">
-        <v>127</v>
-      </c>
-      <c r="F136" t="n">
-        <v>5378.3183</v>
-      </c>
-      <c r="G136" t="n">
-        <v>-527400.7344205845</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>126</v>
-      </c>
-      <c r="C137" t="n">
-        <v>127</v>
-      </c>
-      <c r="D137" t="n">
-        <v>127</v>
-      </c>
-      <c r="E137" t="n">
-        <v>126</v>
-      </c>
-      <c r="F137" t="n">
-        <v>2760.9201</v>
-      </c>
-      <c r="G137" t="n">
-        <v>-530161.6545205845</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>125</v>
-      </c>
-      <c r="C138" t="n">
-        <v>125</v>
-      </c>
-      <c r="D138" t="n">
-        <v>125</v>
-      </c>
-      <c r="E138" t="n">
-        <v>125</v>
-      </c>
-      <c r="F138" t="n">
-        <v>12.8482</v>
-      </c>
-      <c r="G138" t="n">
-        <v>-530174.5027205845</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>126</v>
-      </c>
-      <c r="C139" t="n">
-        <v>126</v>
-      </c>
-      <c r="D139" t="n">
-        <v>126</v>
-      </c>
-      <c r="E139" t="n">
-        <v>126</v>
-      </c>
-      <c r="F139" t="n">
-        <v>1</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-530173.5027205845</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>126</v>
-      </c>
-      <c r="C140" t="n">
-        <v>126</v>
-      </c>
-      <c r="D140" t="n">
-        <v>126</v>
-      </c>
-      <c r="E140" t="n">
-        <v>126</v>
-      </c>
-      <c r="F140" t="n">
-        <v>9811.306699999999</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-530173.5027205845</v>
-      </c>
-      <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="n">
-        <v>126</v>
-      </c>
-      <c r="K140" t="n">
-        <v>126</v>
-      </c>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>127</v>
-      </c>
-      <c r="C141" t="n">
-        <v>127</v>
-      </c>
-      <c r="D141" t="n">
-        <v>127</v>
-      </c>
-      <c r="E141" t="n">
-        <v>127</v>
-      </c>
-      <c r="F141" t="n">
-        <v>1</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-530172.5027205845</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>126</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>127</v>
-      </c>
-      <c r="C142" t="n">
-        <v>127</v>
-      </c>
-      <c r="D142" t="n">
-        <v>127</v>
-      </c>
-      <c r="E142" t="n">
-        <v>127</v>
-      </c>
-      <c r="F142" t="n">
-        <v>1274</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-530172.5027205845</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>126</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>126</v>
-      </c>
-      <c r="C143" t="n">
-        <v>126</v>
-      </c>
-      <c r="D143" t="n">
-        <v>126</v>
-      </c>
-      <c r="E143" t="n">
-        <v>126</v>
-      </c>
-      <c r="F143" t="n">
-        <v>132.0312</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-530304.5339205845</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>126</v>
-      </c>
-      <c r="C144" t="n">
-        <v>125</v>
-      </c>
-      <c r="D144" t="n">
-        <v>126</v>
-      </c>
-      <c r="E144" t="n">
-        <v>125</v>
-      </c>
-      <c r="F144" t="n">
-        <v>31259.0241</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-561563.5580205845</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>125</v>
-      </c>
-      <c r="C145" t="n">
-        <v>125</v>
-      </c>
-      <c r="D145" t="n">
-        <v>125</v>
-      </c>
-      <c r="E145" t="n">
-        <v>125</v>
-      </c>
-      <c r="F145" t="n">
-        <v>4979.7536</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-561563.5580205845</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>125</v>
-      </c>
-      <c r="C146" t="n">
-        <v>125</v>
-      </c>
-      <c r="D146" t="n">
-        <v>125</v>
-      </c>
-      <c r="E146" t="n">
-        <v>125</v>
-      </c>
-      <c r="F146" t="n">
-        <v>20216.3552</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-561563.5580205845</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>125</v>
-      </c>
-      <c r="C147" t="n">
-        <v>125</v>
-      </c>
-      <c r="D147" t="n">
-        <v>125</v>
-      </c>
-      <c r="E147" t="n">
-        <v>125</v>
-      </c>
-      <c r="F147" t="n">
-        <v>2325.92</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-561563.5580205845</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>125</v>
-      </c>
-      <c r="K147" t="n">
-        <v>125</v>
-      </c>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>125</v>
-      </c>
-      <c r="C148" t="n">
-        <v>126</v>
-      </c>
-      <c r="D148" t="n">
-        <v>126</v>
-      </c>
-      <c r="E148" t="n">
-        <v>125</v>
-      </c>
-      <c r="F148" t="n">
-        <v>543.275</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-561020.2830205845</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>125</v>
-      </c>
-      <c r="K148" t="n">
-        <v>125</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
+      <c r="N106" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-16 BackTest FX.xlsx
+++ b/BackTest/2019-10-16 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N106"/>
+  <dimension ref="A1:N177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C2" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D2" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E2" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F2" t="n">
-        <v>5600</v>
+        <v>7552.006</v>
       </c>
       <c r="G2" t="n">
-        <v>-152901.0778684718</v>
+        <v>-96649.06908188974</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C3" t="n">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D3" t="n">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E3" t="n">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F3" t="n">
-        <v>493.2565</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>-152901.0778684718</v>
+        <v>-96648.06908188974</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C4" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D4" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E4" t="n">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F4" t="n">
-        <v>11613.9934</v>
+        <v>1220.308523664122</v>
       </c>
       <c r="G4" t="n">
-        <v>-152901.0778684718</v>
+        <v>-97868.37760555386</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C5" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D5" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E5" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="F5" t="n">
-        <v>3302.3944</v>
+        <v>1168</v>
       </c>
       <c r="G5" t="n">
-        <v>-152901.0778684718</v>
+        <v>-97868.37760555386</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="C6" t="n">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D6" t="n">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E6" t="n">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F6" t="n">
-        <v>4859.7569</v>
+        <v>2903.6718</v>
       </c>
       <c r="G6" t="n">
-        <v>-148041.3209684718</v>
+        <v>-100772.0494055539</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C7" t="n">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D7" t="n">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E7" t="n">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="F7" t="n">
-        <v>9387.236047887323</v>
+        <v>46.5745</v>
       </c>
       <c r="G7" t="n">
-        <v>-138654.0849205844</v>
+        <v>-100725.4749055539</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C8" t="n">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D8" t="n">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E8" t="n">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F8" t="n">
-        <v>1049.2887</v>
+        <v>30.8472</v>
       </c>
       <c r="G8" t="n">
-        <v>-138654.0849205844</v>
+        <v>-100756.3221055539</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,28 +690,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C9" t="n">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D9" t="n">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E9" t="n">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F9" t="n">
-        <v>574.4435999999999</v>
+        <v>7.4656</v>
       </c>
       <c r="G9" t="n">
-        <v>-138654.0849205844</v>
+        <v>-100756.3221055539</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -726,28 +726,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C10" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D10" t="n">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="E10" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F10" t="n">
-        <v>2635.6435</v>
+        <v>11980.5189</v>
       </c>
       <c r="G10" t="n">
-        <v>-141289.7284205844</v>
+        <v>-100756.3221055539</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -762,28 +762,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C11" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D11" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E11" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F11" t="n">
-        <v>8435.8951</v>
+        <v>4474.878</v>
       </c>
       <c r="G11" t="n">
-        <v>-141289.7284205844</v>
+        <v>-100756.3221055539</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -798,28 +798,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C12" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D12" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E12" t="n">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F12" t="n">
-        <v>2116.068</v>
+        <v>584</v>
       </c>
       <c r="G12" t="n">
-        <v>-141289.7284205844</v>
+        <v>-100756.3221055539</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="C13" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D13" t="n">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="E13" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F13" t="n">
-        <v>23787.2826</v>
+        <v>2500</v>
       </c>
       <c r="G13" t="n">
-        <v>-165077.0110205844</v>
+        <v>-103256.3221055539</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C14" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D14" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E14" t="n">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F14" t="n">
-        <v>105.0449</v>
+        <v>5725.8631</v>
       </c>
       <c r="G14" t="n">
-        <v>-165077.0110205844</v>
+        <v>-103256.3221055539</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C15" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D15" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E15" t="n">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F15" t="n">
-        <v>299.9888</v>
+        <v>3277.1369</v>
       </c>
       <c r="G15" t="n">
-        <v>-164777.0222205844</v>
+        <v>-103256.3221055539</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C16" t="n">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D16" t="n">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E16" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F16" t="n">
-        <v>16004.9263</v>
+        <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>-164777.0222205844</v>
+        <v>-103356.3221055539</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C17" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D17" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E17" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F17" t="n">
-        <v>20405.3673</v>
+        <v>403.6207</v>
       </c>
       <c r="G17" t="n">
-        <v>-185182.3895205845</v>
+        <v>-103356.3221055539</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,22 +1014,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C18" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D18" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E18" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F18" t="n">
-        <v>5810.7727</v>
+        <v>37469.8958</v>
       </c>
       <c r="G18" t="n">
-        <v>-185182.3895205845</v>
+        <v>-140826.2179055539</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C19" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D19" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E19" t="n">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F19" t="n">
-        <v>13420.5848</v>
+        <v>121.4982</v>
       </c>
       <c r="G19" t="n">
-        <v>-185182.3895205845</v>
+        <v>-140826.2179055539</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1086,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C20" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D20" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E20" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F20" t="n">
-        <v>10270.3904</v>
+        <v>2655.6164</v>
       </c>
       <c r="G20" t="n">
-        <v>-195452.7799205845</v>
+        <v>-143481.8343055539</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1122,22 +1122,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C21" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D21" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E21" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F21" t="n">
-        <v>4632.8888</v>
+        <v>265.2089</v>
       </c>
       <c r="G21" t="n">
-        <v>-195452.7799205845</v>
+        <v>-143216.6254055539</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1158,22 +1158,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C22" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D22" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E22" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F22" t="n">
-        <v>4333.998</v>
+        <v>265.2089</v>
       </c>
       <c r="G22" t="n">
-        <v>-199786.7779205845</v>
+        <v>-143481.8343055539</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1194,22 +1194,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C23" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D23" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E23" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F23" t="n">
-        <v>1771.1514</v>
+        <v>5773.2032</v>
       </c>
       <c r="G23" t="n">
-        <v>-198015.6265205845</v>
+        <v>-137708.6311055539</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1230,22 +1230,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D24" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E24" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F24" t="n">
-        <v>14487.4119</v>
+        <v>70.2325</v>
       </c>
       <c r="G24" t="n">
-        <v>-212503.0384205845</v>
+        <v>-137638.3986055539</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1278,10 +1278,10 @@
         <v>129</v>
       </c>
       <c r="F25" t="n">
-        <v>1399.5572</v>
+        <v>9.015499999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>-213902.5956205845</v>
+        <v>-137638.3986055539</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1302,22 +1302,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C26" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D26" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E26" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F26" t="n">
-        <v>1400.6906</v>
+        <v>2.7935</v>
       </c>
       <c r="G26" t="n">
-        <v>-212501.9050205845</v>
+        <v>-137641.1921055539</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C27" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D27" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E27" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F27" t="n">
-        <v>4242.8131</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>-216744.7181205845</v>
+        <v>-137640.1921055539</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C28" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D28" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E28" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>4093</v>
       </c>
       <c r="G28" t="n">
-        <v>-216743.7181205845</v>
+        <v>-137640.1921055539</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C29" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D29" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E29" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F29" t="n">
-        <v>333.6893</v>
+        <v>54.9573</v>
       </c>
       <c r="G29" t="n">
-        <v>-216743.7181205845</v>
+        <v>-137640.1921055539</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1458,10 +1458,10 @@
         <v>129</v>
       </c>
       <c r="F30" t="n">
-        <v>22.0131</v>
+        <v>757</v>
       </c>
       <c r="G30" t="n">
-        <v>-216765.7312205845</v>
+        <v>-137640.1921055539</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>129</v>
       </c>
       <c r="F31" t="n">
-        <v>54.9573</v>
+        <v>3255.7701</v>
       </c>
       <c r="G31" t="n">
-        <v>-216765.7312205845</v>
+        <v>-137640.1921055539</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,22 +1518,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C32" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D32" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E32" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F32" t="n">
-        <v>391</v>
+        <v>20.3307</v>
       </c>
       <c r="G32" t="n">
-        <v>-216374.7312205845</v>
+        <v>-137640.1921055539</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1557,19 +1557,19 @@
         <v>129</v>
       </c>
       <c r="C33" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D33" t="n">
         <v>129</v>
       </c>
       <c r="E33" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F33" t="n">
-        <v>3226.2421</v>
+        <v>20.3333</v>
       </c>
       <c r="G33" t="n">
-        <v>-219600.9733205845</v>
+        <v>-137640.1921055539</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C34" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D34" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E34" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F34" t="n">
-        <v>510.0006</v>
+        <v>812</v>
       </c>
       <c r="G34" t="n">
-        <v>-220110.9739205845</v>
+        <v>-137640.1921055539</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C35" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D35" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E35" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F35" t="n">
-        <v>9.015499999999999</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>-220110.9739205845</v>
+        <v>-137639.1921055539</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C36" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D36" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E36" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F36" t="n">
-        <v>3997.2596</v>
+        <v>2493.0538</v>
       </c>
       <c r="G36" t="n">
-        <v>-220110.9739205845</v>
+        <v>-137639.1921055539</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C37" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D37" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E37" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F37" t="n">
-        <v>296.0742</v>
+        <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>-220110.9739205845</v>
+        <v>-137639.1921055539</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C38" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D38" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E38" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F38" t="n">
-        <v>16455.3969</v>
+        <v>7543.8118</v>
       </c>
       <c r="G38" t="n">
-        <v>-236566.3708205845</v>
+        <v>-145183.0039055539</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C39" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D39" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E39" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>6249.9999</v>
       </c>
       <c r="G39" t="n">
-        <v>-236565.3708205845</v>
+        <v>-145183.0039055539</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C40" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E40" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F40" t="n">
-        <v>11112.5717</v>
+        <v>6267.6125</v>
       </c>
       <c r="G40" t="n">
-        <v>-247677.9425205845</v>
+        <v>-151450.6164055539</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1845,19 +1845,19 @@
         <v>127</v>
       </c>
       <c r="C41" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D41" t="n">
         <v>127</v>
       </c>
       <c r="E41" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F41" t="n">
-        <v>3958.7108</v>
+        <v>280.2662</v>
       </c>
       <c r="G41" t="n">
-        <v>-247677.9425205845</v>
+        <v>-151450.6164055539</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C42" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E42" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F42" t="n">
-        <v>882.0624</v>
+        <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>-246795.8801205845</v>
+        <v>-151449.6164055539</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C43" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D43" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E43" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F43" t="n">
-        <v>260.6951</v>
+        <v>1822</v>
       </c>
       <c r="G43" t="n">
-        <v>-246795.8801205845</v>
+        <v>-151449.6164055539</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C44" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D44" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E44" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F44" t="n">
-        <v>11247.9519</v>
+        <v>99925.79489999999</v>
       </c>
       <c r="G44" t="n">
-        <v>-258043.8320205845</v>
+        <v>-151449.6164055539</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C45" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D45" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E45" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F45" t="n">
-        <v>12206.1401</v>
+        <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>-258043.8320205845</v>
+        <v>-151448.6164055539</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C46" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D46" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E46" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F46" t="n">
-        <v>147.8282</v>
+        <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>-257896.0038205845</v>
+        <v>-151448.6164055539</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C47" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D47" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E47" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F47" t="n">
-        <v>18373.5656</v>
+        <v>1539.9178</v>
       </c>
       <c r="G47" t="n">
-        <v>-276269.5694205845</v>
+        <v>-149908.6986055539</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C48" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="D48" t="n">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E48" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F48" t="n">
-        <v>54660.6658</v>
+        <v>810.5253</v>
       </c>
       <c r="G48" t="n">
-        <v>-330930.2352205845</v>
+        <v>-149908.6986055539</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C49" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D49" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E49" t="n">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="F49" t="n">
-        <v>34989.8544</v>
+        <v>2222</v>
       </c>
       <c r="G49" t="n">
-        <v>-365920.0896205845</v>
+        <v>-152130.6986055539</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C50" t="n">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="D50" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E50" t="n">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F50" t="n">
-        <v>95555.4189</v>
+        <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>-461475.5085205845</v>
+        <v>-152129.6986055539</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C51" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D51" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E51" t="n">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>2223</v>
       </c>
       <c r="G51" t="n">
-        <v>-461474.5085205845</v>
+        <v>-154352.6986055539</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C52" t="n">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D52" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E52" t="n">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F52" t="n">
-        <v>51344.354</v>
+        <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>-512818.8625205845</v>
+        <v>-154351.6986055539</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="C53" t="n">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D53" t="n">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E53" t="n">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F53" t="n">
-        <v>27667.9559</v>
+        <v>5445</v>
       </c>
       <c r="G53" t="n">
-        <v>-512818.8625205845</v>
+        <v>-154351.6986055539</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,22 +2310,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C54" t="n">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="D54" t="n">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E54" t="n">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F54" t="n">
-        <v>52607.8292</v>
+        <v>43193.3155</v>
       </c>
       <c r="G54" t="n">
-        <v>-512818.8625205845</v>
+        <v>-111158.3831055539</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2346,22 +2346,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C55" t="n">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D55" t="n">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E55" t="n">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="F55" t="n">
-        <v>306.0202</v>
+        <v>134.8813</v>
       </c>
       <c r="G55" t="n">
-        <v>-512512.8423205845</v>
+        <v>-111158.3831055539</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2382,22 +2382,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="C56" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D56" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E56" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F56" t="n">
-        <v>3789.069</v>
+        <v>40.4644</v>
       </c>
       <c r="G56" t="n">
-        <v>-508723.7733205844</v>
+        <v>-111158.3831055539</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C57" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D57" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E57" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F57" t="n">
-        <v>2510.7283</v>
+        <v>14854.5584</v>
       </c>
       <c r="G57" t="n">
-        <v>-506213.0450205844</v>
+        <v>-96303.82470555387</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,22 +2454,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="C58" t="n">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D58" t="n">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E58" t="n">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F58" t="n">
-        <v>1444.9251</v>
+        <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>-506213.0450205844</v>
+        <v>-96302.82470555387</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C59" t="n">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D59" t="n">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E59" t="n">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="F59" t="n">
-        <v>491.5162</v>
+        <v>13925.3508</v>
       </c>
       <c r="G59" t="n">
-        <v>-506704.5612205844</v>
+        <v>-96302.82470555387</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C60" t="n">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D60" t="n">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="E60" t="n">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>-506703.5612205844</v>
+        <v>-96301.82470555387</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C61" t="n">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D61" t="n">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E61" t="n">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F61" t="n">
-        <v>112</v>
+        <v>11628.8198</v>
       </c>
       <c r="G61" t="n">
-        <v>-506591.5612205844</v>
+        <v>-84673.00490555387</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C62" t="n">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="D62" t="n">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E62" t="n">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="F62" t="n">
-        <v>21</v>
+        <v>29932.5919</v>
       </c>
       <c r="G62" t="n">
-        <v>-506612.5612205844</v>
+        <v>-114605.5968055539</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C63" t="n">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D63" t="n">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E63" t="n">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>-506612.5612205844</v>
+        <v>-114604.5968055539</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C64" t="n">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D64" t="n">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E64" t="n">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="F64" t="n">
-        <v>6890</v>
+        <v>17093.0724</v>
       </c>
       <c r="G64" t="n">
-        <v>-499722.5612205844</v>
+        <v>-114604.5968055539</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C65" t="n">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D65" t="n">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="E65" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>18428.657</v>
       </c>
       <c r="G65" t="n">
-        <v>-499717.5612205844</v>
+        <v>-133033.2538055539</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C66" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D66" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E66" t="n">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="F66" t="n">
-        <v>3</v>
+        <v>3757.808479285714</v>
       </c>
       <c r="G66" t="n">
-        <v>-499717.5612205844</v>
+        <v>-129275.4453262681</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="C67" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D67" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E67" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F67" t="n">
-        <v>1</v>
+        <v>37606.00612071429</v>
       </c>
       <c r="G67" t="n">
-        <v>-499718.5612205844</v>
+        <v>-129275.4453262681</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,28 +2814,28 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C68" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D68" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E68" t="n">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
+        <v>88619.06419999999</v>
       </c>
       <c r="G68" t="n">
-        <v>-499715.5612205844</v>
+        <v>-129275.4453262681</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
@@ -2850,28 +2850,28 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C69" t="n">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D69" t="n">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E69" t="n">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F69" t="n">
-        <v>2</v>
+        <v>30275.19850851064</v>
       </c>
       <c r="G69" t="n">
-        <v>-499715.5612205844</v>
+        <v>-99000.24681775751</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
@@ -2886,28 +2886,28 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C70" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D70" t="n">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E70" t="n">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F70" t="n">
-        <v>5</v>
+        <v>51832.30615071428</v>
       </c>
       <c r="G70" t="n">
-        <v>-499720.5612205844</v>
+        <v>-150832.5529684718</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -2922,28 +2922,28 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C71" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D71" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E71" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F71" t="n">
-        <v>11</v>
+        <v>2776.825</v>
       </c>
       <c r="G71" t="n">
-        <v>-499709.5612205844</v>
+        <v>-150832.5529684718</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -2958,28 +2958,28 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C72" t="n">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D72" t="n">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E72" t="n">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="F72" t="n">
-        <v>602</v>
+        <v>3531.4751</v>
       </c>
       <c r="G72" t="n">
-        <v>-499709.5612205844</v>
+        <v>-147301.0778684718</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -2994,28 +2994,28 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C73" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D73" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E73" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F73" t="n">
-        <v>1301</v>
+        <v>5600</v>
       </c>
       <c r="G73" t="n">
-        <v>-499709.5612205844</v>
+        <v>-152901.0778684718</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="C74" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D74" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E74" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="F74" t="n">
-        <v>300</v>
+        <v>493.2565</v>
       </c>
       <c r="G74" t="n">
-        <v>-499709.5612205844</v>
+        <v>-152901.0778684718</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C75" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D75" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E75" t="n">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F75" t="n">
-        <v>1</v>
+        <v>11613.9934</v>
       </c>
       <c r="G75" t="n">
-        <v>-499710.5612205844</v>
+        <v>-152901.0778684718</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,28 +3102,28 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C76" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D76" t="n">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="E76" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F76" t="n">
-        <v>401</v>
+        <v>3302.3944</v>
       </c>
       <c r="G76" t="n">
-        <v>-499309.5612205844</v>
+        <v>-152901.0778684718</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
@@ -3138,28 +3138,28 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C77" t="n">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="D77" t="n">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E77" t="n">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="F77" t="n">
-        <v>17436.0701</v>
+        <v>4859.7569</v>
       </c>
       <c r="G77" t="n">
-        <v>-516745.6313205844</v>
+        <v>-148041.3209684718</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -3174,28 +3174,28 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="C78" t="n">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="D78" t="n">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="E78" t="n">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="F78" t="n">
-        <v>1</v>
+        <v>9387.236047887323</v>
       </c>
       <c r="G78" t="n">
-        <v>-516744.6313205844</v>
+        <v>-138654.0849205844</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -3210,28 +3210,28 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C79" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D79" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E79" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>1049.2887</v>
       </c>
       <c r="G79" t="n">
-        <v>-516754.6313205844</v>
+        <v>-138654.0849205844</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
@@ -3246,28 +3246,28 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C80" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D80" t="n">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E80" t="n">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="F80" t="n">
-        <v>151.7632</v>
+        <v>574.4435999999999</v>
       </c>
       <c r="G80" t="n">
-        <v>-516754.6313205844</v>
+        <v>-138654.0849205844</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
@@ -3282,28 +3282,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C81" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D81" t="n">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="E81" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F81" t="n">
-        <v>51</v>
+        <v>2635.6435</v>
       </c>
       <c r="G81" t="n">
-        <v>-516805.6313205844</v>
+        <v>-141289.7284205844</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3318,28 +3318,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C82" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D82" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="E82" t="n">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F82" t="n">
-        <v>8.925000000000001</v>
+        <v>8435.8951</v>
       </c>
       <c r="G82" t="n">
-        <v>-516805.6313205844</v>
+        <v>-141289.7284205844</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3354,28 +3354,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C83" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D83" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E83" t="n">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>2116.068</v>
       </c>
       <c r="G83" t="n">
-        <v>-516804.6313205844</v>
+        <v>-141289.7284205844</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3390,28 +3390,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C84" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D84" t="n">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E84" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="F84" t="n">
-        <v>821.2308</v>
+        <v>23787.2826</v>
       </c>
       <c r="G84" t="n">
-        <v>-517625.8621205845</v>
+        <v>-165077.0110205844</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3426,28 +3426,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C85" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D85" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E85" t="n">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>105.0449</v>
       </c>
       <c r="G85" t="n">
-        <v>-517624.8621205845</v>
+        <v>-165077.0110205844</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C86" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D86" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E86" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F86" t="n">
-        <v>10156.25</v>
+        <v>299.9888</v>
       </c>
       <c r="G86" t="n">
-        <v>-517624.8621205845</v>
+        <v>-164777.0222205844</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,28 +3498,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C87" t="n">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D87" t="n">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E87" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F87" t="n">
-        <v>5000</v>
+        <v>16004.9263</v>
       </c>
       <c r="G87" t="n">
-        <v>-522624.8621205845</v>
+        <v>-164777.0222205844</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3534,28 +3534,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C88" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D88" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E88" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>20405.3673</v>
       </c>
       <c r="G88" t="n">
-        <v>-522623.8621205845</v>
+        <v>-185182.3895205845</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3570,28 +3570,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C89" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D89" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E89" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>5810.7727</v>
       </c>
       <c r="G89" t="n">
-        <v>-522623.8621205845</v>
+        <v>-185182.3895205845</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C90" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D90" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E90" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="F90" t="n">
-        <v>3.9091</v>
+        <v>13420.5848</v>
       </c>
       <c r="G90" t="n">
-        <v>-522623.8621205845</v>
+        <v>-185182.3895205845</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C91" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D91" t="n">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E91" t="n">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="F91" t="n">
-        <v>180.7382</v>
+        <v>10270.3904</v>
       </c>
       <c r="G91" t="n">
-        <v>-522804.6003205845</v>
+        <v>-195452.7799205845</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,35 +3678,31 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C92" t="n">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D92" t="n">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E92" t="n">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F92" t="n">
-        <v>4597.1341</v>
+        <v>4632.8888</v>
       </c>
       <c r="G92" t="n">
-        <v>-527401.7344205845</v>
+        <v>-195452.7799205845</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>127</v>
-      </c>
-      <c r="K92" t="n">
-        <v>127</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
@@ -3718,610 +3714,3210 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C93" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D93" t="n">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E93" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F93" t="n">
-        <v>1</v>
+        <v>4333.998</v>
       </c>
       <c r="G93" t="n">
-        <v>-527400.7344205845</v>
+        <v>-199786.7779205845</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>132</v>
+      </c>
+      <c r="C94" t="n">
+        <v>132</v>
+      </c>
+      <c r="D94" t="n">
+        <v>132</v>
+      </c>
+      <c r="E94" t="n">
+        <v>132</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1771.1514</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-198015.6265205845</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>130</v>
+      </c>
+      <c r="C95" t="n">
+        <v>130</v>
+      </c>
+      <c r="D95" t="n">
+        <v>130</v>
+      </c>
+      <c r="E95" t="n">
+        <v>130</v>
+      </c>
+      <c r="F95" t="n">
+        <v>14487.4119</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-212503.0384205845</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>129</v>
+      </c>
+      <c r="C96" t="n">
+        <v>129</v>
+      </c>
+      <c r="D96" t="n">
+        <v>129</v>
+      </c>
+      <c r="E96" t="n">
+        <v>129</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1399.5572</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-213902.5956205845</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>129</v>
+      </c>
+      <c r="C97" t="n">
+        <v>132</v>
+      </c>
+      <c r="D97" t="n">
+        <v>132</v>
+      </c>
+      <c r="E97" t="n">
+        <v>129</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1400.6906</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-212501.9050205845</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>130</v>
+      </c>
+      <c r="C98" t="n">
+        <v>130</v>
+      </c>
+      <c r="D98" t="n">
+        <v>130</v>
+      </c>
+      <c r="E98" t="n">
+        <v>130</v>
+      </c>
+      <c r="F98" t="n">
+        <v>4242.8131</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-216744.7181205845</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>132</v>
+      </c>
+      <c r="C99" t="n">
+        <v>132</v>
+      </c>
+      <c r="D99" t="n">
+        <v>132</v>
+      </c>
+      <c r="E99" t="n">
+        <v>132</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-216743.7181205845</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>132</v>
+      </c>
+      <c r="C100" t="n">
+        <v>132</v>
+      </c>
+      <c r="D100" t="n">
+        <v>132</v>
+      </c>
+      <c r="E100" t="n">
+        <v>132</v>
+      </c>
+      <c r="F100" t="n">
+        <v>333.6893</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-216743.7181205845</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>129</v>
+      </c>
+      <c r="C101" t="n">
+        <v>129</v>
+      </c>
+      <c r="D101" t="n">
+        <v>129</v>
+      </c>
+      <c r="E101" t="n">
+        <v>129</v>
+      </c>
+      <c r="F101" t="n">
+        <v>22.0131</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-216765.7312205845</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>129</v>
+      </c>
+      <c r="C102" t="n">
+        <v>129</v>
+      </c>
+      <c r="D102" t="n">
+        <v>129</v>
+      </c>
+      <c r="E102" t="n">
+        <v>129</v>
+      </c>
+      <c r="F102" t="n">
+        <v>54.9573</v>
+      </c>
+      <c r="G102" t="n">
+        <v>-216765.7312205845</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>130</v>
+      </c>
+      <c r="C103" t="n">
+        <v>130</v>
+      </c>
+      <c r="D103" t="n">
+        <v>130</v>
+      </c>
+      <c r="E103" t="n">
+        <v>130</v>
+      </c>
+      <c r="F103" t="n">
+        <v>391</v>
+      </c>
+      <c r="G103" t="n">
+        <v>-216374.7312205845</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>129</v>
+      </c>
+      <c r="C104" t="n">
+        <v>128</v>
+      </c>
+      <c r="D104" t="n">
+        <v>129</v>
+      </c>
+      <c r="E104" t="n">
+        <v>128</v>
+      </c>
+      <c r="F104" t="n">
+        <v>3226.2421</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-219600.9733205845</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>128</v>
+      </c>
+      <c r="C105" t="n">
+        <v>127</v>
+      </c>
+      <c r="D105" t="n">
+        <v>128</v>
+      </c>
+      <c r="E105" t="n">
+        <v>127</v>
+      </c>
+      <c r="F105" t="n">
+        <v>510.0006</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-220110.9739205845</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>127</v>
+      </c>
+      <c r="C106" t="n">
+        <v>127</v>
+      </c>
+      <c r="D106" t="n">
+        <v>127</v>
+      </c>
+      <c r="E106" t="n">
+        <v>127</v>
+      </c>
+      <c r="F106" t="n">
+        <v>9.015499999999999</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-220110.9739205845</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>127</v>
+      </c>
+      <c r="C107" t="n">
+        <v>127</v>
+      </c>
+      <c r="D107" t="n">
+        <v>127</v>
+      </c>
+      <c r="E107" t="n">
+        <v>127</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3997.2596</v>
+      </c>
+      <c r="G107" t="n">
+        <v>-220110.9739205845</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>127</v>
+      </c>
+      <c r="C108" t="n">
+        <v>127</v>
+      </c>
+      <c r="D108" t="n">
+        <v>127</v>
+      </c>
+      <c r="E108" t="n">
+        <v>127</v>
+      </c>
+      <c r="F108" t="n">
+        <v>296.0742</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-220110.9739205845</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>127</v>
+      </c>
+      <c r="C109" t="n">
         <v>126</v>
       </c>
-      <c r="K93" t="n">
-        <v>127</v>
-      </c>
-      <c r="L93" t="inlineStr">
+      <c r="D109" t="n">
+        <v>127</v>
+      </c>
+      <c r="E109" t="n">
+        <v>126</v>
+      </c>
+      <c r="F109" t="n">
+        <v>16455.3969</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-236566.3708205845</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>127</v>
+      </c>
+      <c r="C110" t="n">
+        <v>127</v>
+      </c>
+      <c r="D110" t="n">
+        <v>127</v>
+      </c>
+      <c r="E110" t="n">
+        <v>127</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" t="n">
+        <v>-236565.3708205845</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>126</v>
+      </c>
+      <c r="C111" t="n">
+        <v>126</v>
+      </c>
+      <c r="D111" t="n">
+        <v>126</v>
+      </c>
+      <c r="E111" t="n">
+        <v>126</v>
+      </c>
+      <c r="F111" t="n">
+        <v>11112.5717</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-247677.9425205845</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>127</v>
+      </c>
+      <c r="C112" t="n">
+        <v>126</v>
+      </c>
+      <c r="D112" t="n">
+        <v>127</v>
+      </c>
+      <c r="E112" t="n">
+        <v>126</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3958.7108</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-247677.9425205845</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>127</v>
+      </c>
+      <c r="C113" t="n">
+        <v>127</v>
+      </c>
+      <c r="D113" t="n">
+        <v>127</v>
+      </c>
+      <c r="E113" t="n">
+        <v>127</v>
+      </c>
+      <c r="F113" t="n">
+        <v>882.0624</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-246795.8801205845</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>127</v>
+      </c>
+      <c r="C114" t="n">
+        <v>127</v>
+      </c>
+      <c r="D114" t="n">
+        <v>127</v>
+      </c>
+      <c r="E114" t="n">
+        <v>127</v>
+      </c>
+      <c r="F114" t="n">
+        <v>260.6951</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-246795.8801205845</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>127</v>
+      </c>
+      <c r="C115" t="n">
+        <v>126</v>
+      </c>
+      <c r="D115" t="n">
+        <v>127</v>
+      </c>
+      <c r="E115" t="n">
+        <v>126</v>
+      </c>
+      <c r="F115" t="n">
+        <v>11247.9519</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-258043.8320205845</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>126</v>
+      </c>
+      <c r="C116" t="n">
+        <v>126</v>
+      </c>
+      <c r="D116" t="n">
+        <v>126</v>
+      </c>
+      <c r="E116" t="n">
+        <v>126</v>
+      </c>
+      <c r="F116" t="n">
+        <v>12206.1401</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-258043.8320205845</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>127</v>
+      </c>
+      <c r="C117" t="n">
+        <v>127</v>
+      </c>
+      <c r="D117" t="n">
+        <v>127</v>
+      </c>
+      <c r="E117" t="n">
+        <v>127</v>
+      </c>
+      <c r="F117" t="n">
+        <v>147.8282</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-257896.0038205845</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>126</v>
+      </c>
+      <c r="C118" t="n">
+        <v>126</v>
+      </c>
+      <c r="D118" t="n">
+        <v>126</v>
+      </c>
+      <c r="E118" t="n">
+        <v>126</v>
+      </c>
+      <c r="F118" t="n">
+        <v>18373.5656</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-276269.5694205845</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>126</v>
+      </c>
+      <c r="C119" t="n">
+        <v>125</v>
+      </c>
+      <c r="D119" t="n">
+        <v>126</v>
+      </c>
+      <c r="E119" t="n">
+        <v>125</v>
+      </c>
+      <c r="F119" t="n">
+        <v>54660.6658</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-330930.2352205845</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>125</v>
+      </c>
+      <c r="C120" t="n">
+        <v>124</v>
+      </c>
+      <c r="D120" t="n">
+        <v>125</v>
+      </c>
+      <c r="E120" t="n">
+        <v>124</v>
+      </c>
+      <c r="F120" t="n">
+        <v>34989.8544</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-365920.0896205845</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>123</v>
+      </c>
+      <c r="C121" t="n">
+        <v>120</v>
+      </c>
+      <c r="D121" t="n">
+        <v>123</v>
+      </c>
+      <c r="E121" t="n">
+        <v>120</v>
+      </c>
+      <c r="F121" t="n">
+        <v>95555.4189</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-461475.5085205845</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>125</v>
+      </c>
+      <c r="C122" t="n">
+        <v>125</v>
+      </c>
+      <c r="D122" t="n">
+        <v>125</v>
+      </c>
+      <c r="E122" t="n">
+        <v>125</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-461474.5085205845</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>123</v>
+      </c>
+      <c r="C123" t="n">
+        <v>122</v>
+      </c>
+      <c r="D123" t="n">
+        <v>123</v>
+      </c>
+      <c r="E123" t="n">
+        <v>122</v>
+      </c>
+      <c r="F123" t="n">
+        <v>51344.354</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-512818.8625205845</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>120</v>
+      </c>
+      <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="n">
+        <v>122</v>
+      </c>
+      <c r="E124" t="n">
+        <v>120</v>
+      </c>
+      <c r="F124" t="n">
+        <v>27667.9559</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-512818.8625205845</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>122</v>
+      </c>
+      <c r="C125" t="n">
+        <v>122</v>
+      </c>
+      <c r="D125" t="n">
+        <v>122</v>
+      </c>
+      <c r="E125" t="n">
+        <v>122</v>
+      </c>
+      <c r="F125" t="n">
+        <v>52607.8292</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-512818.8625205845</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>123</v>
+      </c>
+      <c r="C126" t="n">
+        <v>123</v>
+      </c>
+      <c r="D126" t="n">
+        <v>123</v>
+      </c>
+      <c r="E126" t="n">
+        <v>123</v>
+      </c>
+      <c r="F126" t="n">
+        <v>306.0202</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-512512.8423205845</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>126</v>
+      </c>
+      <c r="C127" t="n">
+        <v>126</v>
+      </c>
+      <c r="D127" t="n">
+        <v>126</v>
+      </c>
+      <c r="E127" t="n">
+        <v>126</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3789.069</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-508723.7733205844</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>127</v>
+      </c>
+      <c r="C128" t="n">
+        <v>127</v>
+      </c>
+      <c r="D128" t="n">
+        <v>127</v>
+      </c>
+      <c r="E128" t="n">
+        <v>127</v>
+      </c>
+      <c r="F128" t="n">
+        <v>2510.7283</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-506213.0450205844</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>127</v>
+      </c>
+      <c r="C129" t="n">
+        <v>127</v>
+      </c>
+      <c r="D129" t="n">
+        <v>127</v>
+      </c>
+      <c r="E129" t="n">
+        <v>127</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1444.9251</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-506213.0450205844</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>127</v>
+      </c>
+      <c r="C130" t="n">
+        <v>125</v>
+      </c>
+      <c r="D130" t="n">
+        <v>127</v>
+      </c>
+      <c r="E130" t="n">
+        <v>125</v>
+      </c>
+      <c r="F130" t="n">
+        <v>491.5162</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-506704.5612205844</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>127</v>
+      </c>
+      <c r="C131" t="n">
+        <v>127</v>
+      </c>
+      <c r="D131" t="n">
+        <v>127</v>
+      </c>
+      <c r="E131" t="n">
+        <v>127</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-506703.5612205844</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>127</v>
+      </c>
+      <c r="C132" t="n">
+        <v>128</v>
+      </c>
+      <c r="D132" t="n">
+        <v>128</v>
+      </c>
+      <c r="E132" t="n">
+        <v>127</v>
+      </c>
+      <c r="F132" t="n">
+        <v>112</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-506591.5612205844</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>128</v>
+      </c>
+      <c r="C133" t="n">
+        <v>125</v>
+      </c>
+      <c r="D133" t="n">
+        <v>128</v>
+      </c>
+      <c r="E133" t="n">
+        <v>125</v>
+      </c>
+      <c r="F133" t="n">
+        <v>21</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-506612.5612205844</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>128</v>
+      </c>
+      <c r="C134" t="n">
+        <v>125</v>
+      </c>
+      <c r="D134" t="n">
+        <v>128</v>
+      </c>
+      <c r="E134" t="n">
+        <v>125</v>
+      </c>
+      <c r="F134" t="n">
+        <v>5</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-506612.5612205844</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>128</v>
+      </c>
+      <c r="C135" t="n">
+        <v>126</v>
+      </c>
+      <c r="D135" t="n">
+        <v>129</v>
+      </c>
+      <c r="E135" t="n">
+        <v>126</v>
+      </c>
+      <c r="F135" t="n">
+        <v>6890</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-499722.5612205844</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>129</v>
+      </c>
+      <c r="C136" t="n">
+        <v>129</v>
+      </c>
+      <c r="D136" t="n">
+        <v>129</v>
+      </c>
+      <c r="E136" t="n">
+        <v>127</v>
+      </c>
+      <c r="F136" t="n">
+        <v>5</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-499717.5612205844</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>129</v>
+      </c>
+      <c r="C137" t="n">
+        <v>129</v>
+      </c>
+      <c r="D137" t="n">
+        <v>129</v>
+      </c>
+      <c r="E137" t="n">
+        <v>127</v>
+      </c>
+      <c r="F137" t="n">
+        <v>3</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-499717.5612205844</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>127</v>
+      </c>
+      <c r="C138" t="n">
+        <v>127</v>
+      </c>
+      <c r="D138" t="n">
+        <v>127</v>
+      </c>
+      <c r="E138" t="n">
+        <v>127</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-499718.5612205844</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>129</v>
+      </c>
+      <c r="C139" t="n">
+        <v>129</v>
+      </c>
+      <c r="D139" t="n">
+        <v>129</v>
+      </c>
+      <c r="E139" t="n">
+        <v>127</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-499715.5612205844</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>127</v>
+      </c>
+      <c r="C140" t="n">
+        <v>129</v>
+      </c>
+      <c r="D140" t="n">
+        <v>129</v>
+      </c>
+      <c r="E140" t="n">
+        <v>127</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-499715.5612205844</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>127</v>
+      </c>
+      <c r="C141" t="n">
+        <v>127</v>
+      </c>
+      <c r="D141" t="n">
+        <v>129</v>
+      </c>
+      <c r="E141" t="n">
+        <v>127</v>
+      </c>
+      <c r="F141" t="n">
+        <v>5</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-499720.5612205844</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>128</v>
+      </c>
+      <c r="C142" t="n">
+        <v>129</v>
+      </c>
+      <c r="D142" t="n">
+        <v>129</v>
+      </c>
+      <c r="E142" t="n">
+        <v>127</v>
+      </c>
+      <c r="F142" t="n">
+        <v>11</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-499709.5612205844</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>129</v>
+      </c>
+      <c r="C143" t="n">
+        <v>129</v>
+      </c>
+      <c r="D143" t="n">
+        <v>129</v>
+      </c>
+      <c r="E143" t="n">
+        <v>127</v>
+      </c>
+      <c r="F143" t="n">
+        <v>602</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-499709.5612205844</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>127</v>
+      </c>
+      <c r="C144" t="n">
+        <v>129</v>
+      </c>
+      <c r="D144" t="n">
+        <v>129</v>
+      </c>
+      <c r="E144" t="n">
+        <v>127</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1301</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-499709.5612205844</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>129</v>
+      </c>
+      <c r="C145" t="n">
+        <v>129</v>
+      </c>
+      <c r="D145" t="n">
+        <v>129</v>
+      </c>
+      <c r="E145" t="n">
+        <v>129</v>
+      </c>
+      <c r="F145" t="n">
+        <v>300</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-499709.5612205844</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>127</v>
+      </c>
+      <c r="C146" t="n">
+        <v>127</v>
+      </c>
+      <c r="D146" t="n">
+        <v>127</v>
+      </c>
+      <c r="E146" t="n">
+        <v>127</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-499710.5612205844</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>128</v>
+      </c>
+      <c r="C147" t="n">
+        <v>129</v>
+      </c>
+      <c r="D147" t="n">
+        <v>129</v>
+      </c>
+      <c r="E147" t="n">
+        <v>128</v>
+      </c>
+      <c r="F147" t="n">
+        <v>401</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-499309.5612205844</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>127</v>
+      </c>
+      <c r="C148" t="n">
+        <v>126</v>
+      </c>
+      <c r="D148" t="n">
+        <v>127</v>
+      </c>
+      <c r="E148" t="n">
+        <v>126</v>
+      </c>
+      <c r="F148" t="n">
+        <v>17436.0701</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-516745.6313205844</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>129</v>
+      </c>
+      <c r="C149" t="n">
+        <v>129</v>
+      </c>
+      <c r="D149" t="n">
+        <v>129</v>
+      </c>
+      <c r="E149" t="n">
+        <v>129</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-516744.6313205844</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>128</v>
+      </c>
+      <c r="C150" t="n">
+        <v>128</v>
+      </c>
+      <c r="D150" t="n">
+        <v>128</v>
+      </c>
+      <c r="E150" t="n">
+        <v>128</v>
+      </c>
+      <c r="F150" t="n">
+        <v>10</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-516754.6313205844</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>127</v>
+      </c>
+      <c r="C151" t="n">
+        <v>128</v>
+      </c>
+      <c r="D151" t="n">
+        <v>128</v>
+      </c>
+      <c r="E151" t="n">
+        <v>127</v>
+      </c>
+      <c r="F151" t="n">
+        <v>151.7632</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-516754.6313205844</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>127</v>
+      </c>
+      <c r="C152" t="n">
+        <v>127</v>
+      </c>
+      <c r="D152" t="n">
+        <v>127</v>
+      </c>
+      <c r="E152" t="n">
+        <v>127</v>
+      </c>
+      <c r="F152" t="n">
+        <v>51</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-516805.6313205844</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>127</v>
+      </c>
+      <c r="C153" t="n">
+        <v>127</v>
+      </c>
+      <c r="D153" t="n">
+        <v>127</v>
+      </c>
+      <c r="E153" t="n">
+        <v>127</v>
+      </c>
+      <c r="F153" t="n">
+        <v>8.925000000000001</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-516805.6313205844</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>128</v>
+      </c>
+      <c r="C154" t="n">
+        <v>128</v>
+      </c>
+      <c r="D154" t="n">
+        <v>128</v>
+      </c>
+      <c r="E154" t="n">
+        <v>128</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-516804.6313205844</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>127</v>
+      </c>
+      <c r="C155" t="n">
+        <v>127</v>
+      </c>
+      <c r="D155" t="n">
+        <v>127</v>
+      </c>
+      <c r="E155" t="n">
+        <v>127</v>
+      </c>
+      <c r="F155" t="n">
+        <v>821.2308</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-517625.8621205845</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>128</v>
+      </c>
+      <c r="C156" t="n">
+        <v>128</v>
+      </c>
+      <c r="D156" t="n">
+        <v>128</v>
+      </c>
+      <c r="E156" t="n">
+        <v>128</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-517624.8621205845</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>128</v>
+      </c>
+      <c r="C157" t="n">
+        <v>128</v>
+      </c>
+      <c r="D157" t="n">
+        <v>128</v>
+      </c>
+      <c r="E157" t="n">
+        <v>128</v>
+      </c>
+      <c r="F157" t="n">
+        <v>10156.25</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-517624.8621205845</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>127</v>
+      </c>
+      <c r="C158" t="n">
+        <v>127</v>
+      </c>
+      <c r="D158" t="n">
+        <v>127</v>
+      </c>
+      <c r="E158" t="n">
+        <v>127</v>
+      </c>
+      <c r="F158" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-522624.8621205845</v>
+      </c>
+      <c r="H158" t="n">
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>128</v>
+      </c>
+      <c r="K158" t="n">
+        <v>128</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>128</v>
+      </c>
+      <c r="C159" t="n">
+        <v>128</v>
+      </c>
+      <c r="D159" t="n">
+        <v>128</v>
+      </c>
+      <c r="E159" t="n">
+        <v>128</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-522623.8621205845</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>127</v>
+      </c>
+      <c r="K159" t="n">
+        <v>128</v>
+      </c>
+      <c r="L159" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>127</v>
-      </c>
-      <c r="C94" t="n">
-        <v>128</v>
-      </c>
-      <c r="D94" t="n">
-        <v>128</v>
-      </c>
-      <c r="E94" t="n">
-        <v>127</v>
-      </c>
-      <c r="F94" t="n">
-        <v>5378.3183</v>
-      </c>
-      <c r="G94" t="n">
-        <v>-527400.7344205845</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>128</v>
-      </c>
-      <c r="K94" t="n">
-        <v>127</v>
-      </c>
-      <c r="L94" t="inlineStr">
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>128</v>
+      </c>
+      <c r="C160" t="n">
+        <v>128</v>
+      </c>
+      <c r="D160" t="n">
+        <v>128</v>
+      </c>
+      <c r="E160" t="n">
+        <v>128</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-522623.8621205845</v>
+      </c>
+      <c r="H160" t="n">
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>128</v>
+      </c>
+      <c r="K160" t="n">
+        <v>128</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>127</v>
+      </c>
+      <c r="C161" t="n">
+        <v>128</v>
+      </c>
+      <c r="D161" t="n">
+        <v>128</v>
+      </c>
+      <c r="E161" t="n">
+        <v>127</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3.9091</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-522623.8621205845</v>
+      </c>
+      <c r="H161" t="n">
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>128</v>
+      </c>
+      <c r="K161" t="n">
+        <v>128</v>
+      </c>
+      <c r="L161" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>126</v>
-      </c>
-      <c r="C95" t="n">
-        <v>127</v>
-      </c>
-      <c r="D95" t="n">
-        <v>127</v>
-      </c>
-      <c r="E95" t="n">
-        <v>126</v>
-      </c>
-      <c r="F95" t="n">
-        <v>2760.9201</v>
-      </c>
-      <c r="G95" t="n">
-        <v>-530161.6545205845</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
-        <v>128</v>
-      </c>
-      <c r="K95" t="n">
-        <v>127</v>
-      </c>
-      <c r="L95" t="inlineStr">
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>127</v>
+      </c>
+      <c r="C162" t="n">
+        <v>127</v>
+      </c>
+      <c r="D162" t="n">
+        <v>127</v>
+      </c>
+      <c r="E162" t="n">
+        <v>127</v>
+      </c>
+      <c r="F162" t="n">
+        <v>180.7382</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-522804.6003205845</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>128</v>
+      </c>
+      <c r="K162" t="n">
+        <v>128</v>
+      </c>
+      <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>125</v>
-      </c>
-      <c r="C96" t="n">
-        <v>125</v>
-      </c>
-      <c r="D96" t="n">
-        <v>125</v>
-      </c>
-      <c r="E96" t="n">
-        <v>125</v>
-      </c>
-      <c r="F96" t="n">
-        <v>12.8482</v>
-      </c>
-      <c r="G96" t="n">
-        <v>-530174.5027205845</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>127</v>
-      </c>
-      <c r="K96" t="n">
-        <v>127</v>
-      </c>
-      <c r="L96" t="inlineStr">
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>126</v>
+      </c>
+      <c r="C163" t="n">
+        <v>126</v>
+      </c>
+      <c r="D163" t="n">
+        <v>126</v>
+      </c>
+      <c r="E163" t="n">
+        <v>126</v>
+      </c>
+      <c r="F163" t="n">
+        <v>4597.1341</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-527401.7344205845</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="n">
+        <v>127</v>
+      </c>
+      <c r="K163" t="n">
+        <v>128</v>
+      </c>
+      <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>128</v>
+      </c>
+      <c r="C164" t="n">
+        <v>128</v>
+      </c>
+      <c r="D164" t="n">
+        <v>128</v>
+      </c>
+      <c r="E164" t="n">
+        <v>128</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-527400.7344205845</v>
+      </c>
+      <c r="H164" t="n">
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
         <v>126</v>
       </c>
-      <c r="C97" t="n">
-        <v>126</v>
-      </c>
-      <c r="D97" t="n">
-        <v>126</v>
-      </c>
-      <c r="E97" t="n">
-        <v>126</v>
-      </c>
-      <c r="F97" t="n">
-        <v>1</v>
-      </c>
-      <c r="G97" t="n">
-        <v>-530173.5027205845</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
-        <v>125</v>
-      </c>
-      <c r="K97" t="n">
-        <v>127</v>
-      </c>
-      <c r="L97" t="inlineStr">
+      <c r="K164" t="n">
+        <v>128</v>
+      </c>
+      <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>126</v>
-      </c>
-      <c r="C98" t="n">
-        <v>126</v>
-      </c>
-      <c r="D98" t="n">
-        <v>126</v>
-      </c>
-      <c r="E98" t="n">
-        <v>126</v>
-      </c>
-      <c r="F98" t="n">
-        <v>9811.306699999999</v>
-      </c>
-      <c r="G98" t="n">
-        <v>-530173.5027205845</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
-        <v>126</v>
-      </c>
-      <c r="K98" t="n">
-        <v>127</v>
-      </c>
-      <c r="L98" t="inlineStr">
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>127</v>
+      </c>
+      <c r="C165" t="n">
+        <v>128</v>
+      </c>
+      <c r="D165" t="n">
+        <v>128</v>
+      </c>
+      <c r="E165" t="n">
+        <v>127</v>
+      </c>
+      <c r="F165" t="n">
+        <v>5378.3183</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-527400.7344205845</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>128</v>
+      </c>
+      <c r="K165" t="n">
+        <v>128</v>
+      </c>
+      <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>127</v>
-      </c>
-      <c r="C99" t="n">
-        <v>127</v>
-      </c>
-      <c r="D99" t="n">
-        <v>127</v>
-      </c>
-      <c r="E99" t="n">
-        <v>127</v>
-      </c>
-      <c r="F99" t="n">
-        <v>1</v>
-      </c>
-      <c r="G99" t="n">
-        <v>-530172.5027205845</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
         <v>126</v>
       </c>
-      <c r="K99" t="n">
-        <v>127</v>
-      </c>
-      <c r="L99" t="inlineStr">
+      <c r="C166" t="n">
+        <v>127</v>
+      </c>
+      <c r="D166" t="n">
+        <v>127</v>
+      </c>
+      <c r="E166" t="n">
+        <v>126</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2760.9201</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-530161.6545205845</v>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>128</v>
+      </c>
+      <c r="K166" t="n">
+        <v>128</v>
+      </c>
+      <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>127</v>
-      </c>
-      <c r="C100" t="n">
-        <v>127</v>
-      </c>
-      <c r="D100" t="n">
-        <v>127</v>
-      </c>
-      <c r="E100" t="n">
-        <v>127</v>
-      </c>
-      <c r="F100" t="n">
-        <v>1274</v>
-      </c>
-      <c r="G100" t="n">
-        <v>-530172.5027205845</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
-        <v>127</v>
-      </c>
-      <c r="K100" t="n">
-        <v>127</v>
-      </c>
-      <c r="L100" t="inlineStr">
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>125</v>
+      </c>
+      <c r="C167" t="n">
+        <v>125</v>
+      </c>
+      <c r="D167" t="n">
+        <v>125</v>
+      </c>
+      <c r="E167" t="n">
+        <v>125</v>
+      </c>
+      <c r="F167" t="n">
+        <v>12.8482</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-530174.5027205845</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>127</v>
+      </c>
+      <c r="K167" t="n">
+        <v>128</v>
+      </c>
+      <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
         <v>126</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C168" t="n">
         <v>126</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D168" t="n">
         <v>126</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E168" t="n">
         <v>126</v>
       </c>
-      <c r="F101" t="n">
-        <v>132.0312</v>
-      </c>
-      <c r="G101" t="n">
-        <v>-530304.5339205845</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
-        <v>127</v>
-      </c>
-      <c r="K101" t="n">
-        <v>127</v>
-      </c>
-      <c r="L101" t="inlineStr">
+      <c r="F168" t="n">
+        <v>1</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-530173.5027205845</v>
+      </c>
+      <c r="H168" t="n">
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>125</v>
+      </c>
+      <c r="K168" t="n">
+        <v>128</v>
+      </c>
+      <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
         <v>126</v>
       </c>
-      <c r="C102" t="n">
-        <v>125</v>
-      </c>
-      <c r="D102" t="n">
+      <c r="C169" t="n">
         <v>126</v>
       </c>
-      <c r="E102" t="n">
-        <v>125</v>
-      </c>
-      <c r="F102" t="n">
-        <v>31259.0241</v>
-      </c>
-      <c r="G102" t="n">
-        <v>-561563.5580205845</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
+      <c r="D169" t="n">
         <v>126</v>
       </c>
-      <c r="K102" t="n">
-        <v>127</v>
-      </c>
-      <c r="L102" t="inlineStr">
+      <c r="E169" t="n">
+        <v>126</v>
+      </c>
+      <c r="F169" t="n">
+        <v>9811.306699999999</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-530173.5027205845</v>
+      </c>
+      <c r="H169" t="n">
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>126</v>
+      </c>
+      <c r="K169" t="n">
+        <v>128</v>
+      </c>
+      <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>125</v>
-      </c>
-      <c r="C103" t="n">
-        <v>125</v>
-      </c>
-      <c r="D103" t="n">
-        <v>125</v>
-      </c>
-      <c r="E103" t="n">
-        <v>125</v>
-      </c>
-      <c r="F103" t="n">
-        <v>4979.7536</v>
-      </c>
-      <c r="G103" t="n">
-        <v>-561563.5580205845</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>127</v>
-      </c>
-      <c r="L103" t="inlineStr">
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>127</v>
+      </c>
+      <c r="C170" t="n">
+        <v>127</v>
+      </c>
+      <c r="D170" t="n">
+        <v>127</v>
+      </c>
+      <c r="E170" t="n">
+        <v>127</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-530172.5027205845</v>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>126</v>
+      </c>
+      <c r="K170" t="n">
+        <v>128</v>
+      </c>
+      <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>125</v>
-      </c>
-      <c r="C104" t="n">
-        <v>125</v>
-      </c>
-      <c r="D104" t="n">
-        <v>125</v>
-      </c>
-      <c r="E104" t="n">
-        <v>125</v>
-      </c>
-      <c r="F104" t="n">
-        <v>20216.3552</v>
-      </c>
-      <c r="G104" t="n">
-        <v>-561563.5580205845</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>127</v>
-      </c>
-      <c r="L104" t="inlineStr">
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>127</v>
+      </c>
+      <c r="C171" t="n">
+        <v>127</v>
+      </c>
+      <c r="D171" t="n">
+        <v>127</v>
+      </c>
+      <c r="E171" t="n">
+        <v>127</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1274</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-530172.5027205845</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>128</v>
+      </c>
+      <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>125</v>
-      </c>
-      <c r="C105" t="n">
-        <v>125</v>
-      </c>
-      <c r="D105" t="n">
-        <v>125</v>
-      </c>
-      <c r="E105" t="n">
-        <v>125</v>
-      </c>
-      <c r="F105" t="n">
-        <v>2325.92</v>
-      </c>
-      <c r="G105" t="n">
-        <v>-561563.5580205845</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>127</v>
-      </c>
-      <c r="L105" t="inlineStr">
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>126</v>
+      </c>
+      <c r="C172" t="n">
+        <v>126</v>
+      </c>
+      <c r="D172" t="n">
+        <v>126</v>
+      </c>
+      <c r="E172" t="n">
+        <v>126</v>
+      </c>
+      <c r="F172" t="n">
+        <v>132.0312</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-530304.5339205845</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>128</v>
+      </c>
+      <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>126</v>
+      </c>
+      <c r="C173" t="n">
         <v>125</v>
       </c>
-      <c r="C106" t="n">
+      <c r="D173" t="n">
         <v>126</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E173" t="n">
+        <v>125</v>
+      </c>
+      <c r="F173" t="n">
+        <v>31259.0241</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-561563.5580205845</v>
+      </c>
+      <c r="H173" t="n">
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
         <v>126</v>
       </c>
-      <c r="E106" t="n">
-        <v>125</v>
-      </c>
-      <c r="F106" t="n">
-        <v>543.275</v>
-      </c>
-      <c r="G106" t="n">
-        <v>-561020.2830205845</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>125</v>
-      </c>
-      <c r="K106" t="n">
-        <v>127</v>
-      </c>
-      <c r="L106" t="inlineStr">
+      <c r="K173" t="n">
+        <v>128</v>
+      </c>
+      <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>125</v>
+      </c>
+      <c r="C174" t="n">
+        <v>125</v>
+      </c>
+      <c r="D174" t="n">
+        <v>125</v>
+      </c>
+      <c r="E174" t="n">
+        <v>125</v>
+      </c>
+      <c r="F174" t="n">
+        <v>4979.7536</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-561563.5580205845</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>128</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>125</v>
+      </c>
+      <c r="C175" t="n">
+        <v>125</v>
+      </c>
+      <c r="D175" t="n">
+        <v>125</v>
+      </c>
+      <c r="E175" t="n">
+        <v>125</v>
+      </c>
+      <c r="F175" t="n">
+        <v>20216.3552</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-561563.5580205845</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>125</v>
+      </c>
+      <c r="K175" t="n">
+        <v>128</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>125</v>
+      </c>
+      <c r="C176" t="n">
+        <v>125</v>
+      </c>
+      <c r="D176" t="n">
+        <v>125</v>
+      </c>
+      <c r="E176" t="n">
+        <v>125</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2325.92</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-561563.5580205845</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>125</v>
+      </c>
+      <c r="K176" t="n">
+        <v>128</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>125</v>
+      </c>
+      <c r="C177" t="n">
+        <v>126</v>
+      </c>
+      <c r="D177" t="n">
+        <v>126</v>
+      </c>
+      <c r="E177" t="n">
+        <v>125</v>
+      </c>
+      <c r="F177" t="n">
+        <v>543.275</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-561020.2830205845</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>125</v>
+      </c>
+      <c r="K177" t="n">
+        <v>128</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-16 BackTest FX.xlsx
+++ b/BackTest/2019-10-16 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N177"/>
+  <dimension ref="A1:M177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1356,18 +1276,19 @@
         <v>-137640.1921055539</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
+        <v>127</v>
+      </c>
+      <c r="J27" t="n">
+        <v>127</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1392,18 +1313,23 @@
         <v>-137640.1921055539</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>129</v>
+      </c>
+      <c r="J28" t="n">
+        <v>127</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1354,23 @@
         <v>-137640.1921055539</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+        <v>129</v>
+      </c>
+      <c r="J29" t="n">
+        <v>127</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1395,19 @@
         <v>-137640.1921055539</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
+        <v>129</v>
+      </c>
+      <c r="J30" t="n">
+        <v>129</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1432,23 @@
         <v>-137640.1921055539</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>129</v>
+      </c>
+      <c r="J31" t="n">
+        <v>129</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1473,23 @@
         <v>-137640.1921055539</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>129</v>
+      </c>
+      <c r="J32" t="n">
+        <v>129</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1514,19 @@
         <v>-137640.1921055539</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
+        <v>129</v>
+      </c>
+      <c r="J33" t="n">
+        <v>129</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1608,18 +1551,23 @@
         <v>-137640.1921055539</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+        <v>129</v>
+      </c>
+      <c r="J34" t="n">
+        <v>129</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1644,18 +1592,23 @@
         <v>-137639.1921055539</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+        <v>129</v>
+      </c>
+      <c r="J35" t="n">
+        <v>129</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1680,18 +1633,19 @@
         <v>-137639.1921055539</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>130</v>
+      </c>
+      <c r="J36" t="n">
+        <v>130</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1716,18 +1670,23 @@
         <v>-137639.1921055539</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>130</v>
+      </c>
+      <c r="J37" t="n">
+        <v>130</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1711,23 @@
         <v>-145183.0039055539</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>130</v>
+      </c>
+      <c r="J38" t="n">
+        <v>130</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1752,19 @@
         <v>-145183.0039055539</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>128</v>
+      </c>
+      <c r="J39" t="n">
+        <v>128</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1789,23 @@
         <v>-151450.6164055539</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>128</v>
+      </c>
+      <c r="J40" t="n">
+        <v>128</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1830,23 @@
         <v>-151450.6164055539</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>127</v>
+      </c>
+      <c r="J41" t="n">
+        <v>128</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1871,19 @@
         <v>-151449.6164055539</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
+        <v>127</v>
+      </c>
+      <c r="J42" t="n">
+        <v>127</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1910,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>127</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1949,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>127</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1988,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +2021,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +2054,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +2087,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2120,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2153,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2186,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2219,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2252,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2285,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2318,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2351,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2384,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2417,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2450,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2481,15 @@
         <v>-96301.82470555387</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2514,15 @@
         <v>-84673.00490555387</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2547,15 @@
         <v>-114605.5968055539</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2580,15 @@
         <v>-114604.5968055539</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2613,15 @@
         <v>-114604.5968055539</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2646,15 @@
         <v>-133033.2538055539</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2679,15 @@
         <v>-129275.4453262681</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2712,15 @@
         <v>-129275.4453262681</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2745,15 @@
         <v>-129275.4453262681</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2778,15 @@
         <v>-99000.24681775751</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2811,15 @@
         <v>-150832.5529684718</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2844,15 @@
         <v>-150832.5529684718</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2877,15 @@
         <v>-147301.0778684718</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2910,15 @@
         <v>-152901.0778684718</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2943,15 @@
         <v>-152901.0778684718</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2976,15 @@
         <v>-152901.0778684718</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +3009,15 @@
         <v>-152901.0778684718</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +3042,15 @@
         <v>-148041.3209684718</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +3075,15 @@
         <v>-138654.0849205844</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +3108,15 @@
         <v>-138654.0849205844</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3143,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3176,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3207,15 @@
         <v>-141289.7284205844</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3242,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3408,18 +3273,15 @@
         <v>-165077.0110205844</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3308,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3341,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3374,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3407,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>1</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3440,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>1</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3473,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3506,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3539,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3572,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3605,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3638,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3671,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3704,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3737,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3770,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +3801,15 @@
         <v>-216743.7181205845</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3836,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3869,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3902,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4128,18 +3933,15 @@
         <v>-219600.9733205845</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3968,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +4001,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +4034,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4272,18 +4065,15 @@
         <v>-220110.9739205845</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +4100,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4344,18 +4131,15 @@
         <v>-236565.3708205845</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4380,18 +4164,15 @@
         <v>-247677.9425205845</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4416,18 +4197,15 @@
         <v>-247677.9425205845</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4452,18 +4230,15 @@
         <v>-246795.8801205845</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4488,18 +4263,15 @@
         <v>-246795.8801205845</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4298,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4560,18 +4329,15 @@
         <v>-258043.8320205845</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4364,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4632,18 +4395,15 @@
         <v>-276269.5694205845</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4668,18 +4428,15 @@
         <v>-330930.2352205845</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4704,18 +4461,15 @@
         <v>-365920.0896205845</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4496,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4529,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4562,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4595,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4628,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4661,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4694,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4727,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4760,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4793,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4826,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4859,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4892,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4925,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4958,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4991,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +5024,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +5057,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +5090,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5123,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5156,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5189,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5222,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5255,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5288,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5321,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5354,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5387,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5420,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5453,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5486,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5519,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5552,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5585,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5618,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6000,18 +5649,19 @@
         <v>-517624.8621205845</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
+        <v>127</v>
+      </c>
+      <c r="J156" t="n">
+        <v>127</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6036,18 +5686,23 @@
         <v>-517624.8621205845</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+        <v>128</v>
+      </c>
+      <c r="J157" t="n">
+        <v>127</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6072,22 +5727,23 @@
         <v>-522624.8621205845</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="J158" t="n">
-        <v>128</v>
-      </c>
-      <c r="K158" t="n">
-        <v>128</v>
-      </c>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+        <v>127</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6112,70 +5768,60 @@
         <v>-522623.8621205845</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="J159" t="n">
         <v>127</v>
       </c>
-      <c r="K159" t="n">
-        <v>128</v>
-      </c>
-      <c r="L159" t="inlineStr">
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>128</v>
+      </c>
+      <c r="C160" t="n">
+        <v>128</v>
+      </c>
+      <c r="D160" t="n">
+        <v>128</v>
+      </c>
+      <c r="E160" t="n">
+        <v>128</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-522623.8621205845</v>
+      </c>
+      <c r="H160" t="n">
+        <v>2</v>
+      </c>
+      <c r="I160" t="n">
+        <v>128</v>
+      </c>
+      <c r="J160" t="n">
+        <v>127</v>
+      </c>
+      <c r="K160" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>128</v>
-      </c>
-      <c r="C160" t="n">
-        <v>128</v>
-      </c>
-      <c r="D160" t="n">
-        <v>128</v>
-      </c>
-      <c r="E160" t="n">
-        <v>128</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-522623.8621205845</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="n">
-        <v>128</v>
-      </c>
-      <c r="K160" t="n">
-        <v>128</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6200,26 +5846,23 @@
         <v>-522623.8621205845</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="J161" t="n">
-        <v>128</v>
-      </c>
-      <c r="K161" t="n">
-        <v>128</v>
-      </c>
-      <c r="L161" t="inlineStr">
+        <v>127</v>
+      </c>
+      <c r="K161" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6244,26 +5887,23 @@
         <v>-522804.6003205845</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="J162" t="n">
-        <v>128</v>
-      </c>
-      <c r="K162" t="n">
-        <v>128</v>
-      </c>
-      <c r="L162" t="inlineStr">
+        <v>127</v>
+      </c>
+      <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6288,26 +5928,23 @@
         <v>-527401.7344205845</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="J163" t="n">
         <v>127</v>
       </c>
-      <c r="K163" t="n">
-        <v>128</v>
-      </c>
-      <c r="L163" t="inlineStr">
+      <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6332,26 +5969,23 @@
         <v>-527400.7344205845</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="J164" t="n">
-        <v>126</v>
-      </c>
-      <c r="K164" t="n">
-        <v>128</v>
-      </c>
-      <c r="L164" t="inlineStr">
+        <v>127</v>
+      </c>
+      <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6376,26 +6010,23 @@
         <v>-527400.7344205845</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="J165" t="n">
-        <v>128</v>
-      </c>
-      <c r="K165" t="n">
-        <v>128</v>
-      </c>
-      <c r="L165" t="inlineStr">
+        <v>127</v>
+      </c>
+      <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6420,26 +6051,23 @@
         <v>-530161.6545205845</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="J166" t="n">
-        <v>128</v>
-      </c>
-      <c r="K166" t="n">
-        <v>128</v>
-      </c>
-      <c r="L166" t="inlineStr">
+        <v>127</v>
+      </c>
+      <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6464,26 +6092,23 @@
         <v>-530174.5027205845</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="J167" t="n">
         <v>127</v>
       </c>
-      <c r="K167" t="n">
-        <v>128</v>
-      </c>
-      <c r="L167" t="inlineStr">
+      <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6508,26 +6133,23 @@
         <v>-530173.5027205845</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="J168" t="n">
-        <v>125</v>
-      </c>
-      <c r="K168" t="n">
-        <v>128</v>
-      </c>
-      <c r="L168" t="inlineStr">
+        <v>127</v>
+      </c>
+      <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6552,26 +6174,23 @@
         <v>-530173.5027205845</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="J169" t="n">
-        <v>126</v>
-      </c>
-      <c r="K169" t="n">
-        <v>128</v>
-      </c>
-      <c r="L169" t="inlineStr">
+        <v>127</v>
+      </c>
+      <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6596,26 +6215,23 @@
         <v>-530172.5027205845</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="J170" t="n">
-        <v>126</v>
-      </c>
-      <c r="K170" t="n">
-        <v>128</v>
-      </c>
-      <c r="L170" t="inlineStr">
+        <v>127</v>
+      </c>
+      <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6640,24 +6256,23 @@
         <v>-530172.5027205845</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>128</v>
-      </c>
-      <c r="L171" t="inlineStr">
+        <v>127</v>
+      </c>
+      <c r="J171" t="n">
+        <v>127</v>
+      </c>
+      <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6682,24 +6297,23 @@
         <v>-530304.5339205845</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>128</v>
-      </c>
-      <c r="L172" t="inlineStr">
+        <v>127</v>
+      </c>
+      <c r="J172" t="n">
+        <v>127</v>
+      </c>
+      <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6724,26 +6338,23 @@
         <v>-561563.5580205845</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="J173" t="n">
-        <v>126</v>
-      </c>
-      <c r="K173" t="n">
-        <v>128</v>
-      </c>
-      <c r="L173" t="inlineStr">
+        <v>127</v>
+      </c>
+      <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6768,24 +6379,23 @@
         <v>-561563.5580205845</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>128</v>
-      </c>
-      <c r="L174" t="inlineStr">
+        <v>125</v>
+      </c>
+      <c r="J174" t="n">
+        <v>127</v>
+      </c>
+      <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6810,26 +6420,23 @@
         <v>-561563.5580205845</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="J175" t="n">
-        <v>125</v>
-      </c>
-      <c r="K175" t="n">
-        <v>128</v>
-      </c>
-      <c r="L175" t="inlineStr">
+        <v>127</v>
+      </c>
+      <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6854,26 +6461,23 @@
         <v>-561563.5580205845</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="J176" t="n">
-        <v>125</v>
-      </c>
-      <c r="K176" t="n">
-        <v>128</v>
-      </c>
-      <c r="L176" t="inlineStr">
+        <v>127</v>
+      </c>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6898,28 +6502,25 @@
         <v>-561020.2830205845</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="J177" t="n">
-        <v>125</v>
-      </c>
-      <c r="K177" t="n">
-        <v>128</v>
-      </c>
-      <c r="L177" t="inlineStr">
+        <v>127</v>
+      </c>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest FX.xlsx
+++ b/BackTest/2019-10-16 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1276,14 +1276,10 @@
         <v>-137640.1921055539</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>127</v>
-      </c>
-      <c r="J27" t="n">
-        <v>127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1313,19 +1309,11 @@
         <v>-137640.1921055539</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>129</v>
-      </c>
-      <c r="J28" t="n">
-        <v>127</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1354,19 +1342,11 @@
         <v>-137640.1921055539</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>129</v>
-      </c>
-      <c r="J29" t="n">
-        <v>127</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1395,14 +1375,10 @@
         <v>-137640.1921055539</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>129</v>
-      </c>
-      <c r="J30" t="n">
-        <v>129</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
@@ -1432,19 +1408,11 @@
         <v>-137640.1921055539</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>129</v>
-      </c>
-      <c r="J31" t="n">
-        <v>129</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1473,19 +1441,11 @@
         <v>-137640.1921055539</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>129</v>
-      </c>
-      <c r="J32" t="n">
-        <v>129</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1514,14 +1474,10 @@
         <v>-137640.1921055539</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>129</v>
-      </c>
-      <c r="J33" t="n">
-        <v>129</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
@@ -1551,19 +1507,11 @@
         <v>-137640.1921055539</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>129</v>
-      </c>
-      <c r="J34" t="n">
-        <v>129</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1592,19 +1540,11 @@
         <v>-137639.1921055539</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>129</v>
-      </c>
-      <c r="J35" t="n">
-        <v>129</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1633,14 +1573,10 @@
         <v>-137639.1921055539</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>130</v>
-      </c>
-      <c r="J36" t="n">
-        <v>130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1670,19 +1606,11 @@
         <v>-137639.1921055539</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>130</v>
-      </c>
-      <c r="J37" t="n">
-        <v>130</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1711,19 +1639,11 @@
         <v>-145183.0039055539</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>130</v>
-      </c>
-      <c r="J38" t="n">
-        <v>130</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1752,14 +1672,10 @@
         <v>-145183.0039055539</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>128</v>
-      </c>
-      <c r="J39" t="n">
-        <v>128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
@@ -1789,19 +1705,11 @@
         <v>-151450.6164055539</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>128</v>
-      </c>
-      <c r="J40" t="n">
-        <v>128</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1830,19 +1738,11 @@
         <v>-151450.6164055539</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>127</v>
-      </c>
-      <c r="J41" t="n">
-        <v>128</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1871,14 +1771,10 @@
         <v>-151449.6164055539</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>127</v>
-      </c>
-      <c r="J42" t="n">
-        <v>127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
@@ -1911,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>127</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1950,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>127</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2481,7 +2365,7 @@
         <v>-96301.82470555387</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2514,7 +2398,7 @@
         <v>-84673.00490555387</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2547,7 +2431,7 @@
         <v>-114605.5968055539</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2580,7 +2464,7 @@
         <v>-114604.5968055539</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2613,7 +2497,7 @@
         <v>-114604.5968055539</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2646,7 +2530,7 @@
         <v>-133033.2538055539</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2679,7 +2563,7 @@
         <v>-129275.4453262681</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2712,7 +2596,7 @@
         <v>-129275.4453262681</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2745,7 +2629,7 @@
         <v>-129275.4453262681</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2778,7 +2662,7 @@
         <v>-99000.24681775751</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2811,7 +2695,7 @@
         <v>-150832.5529684718</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2844,7 +2728,7 @@
         <v>-150832.5529684718</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2877,7 +2761,7 @@
         <v>-147301.0778684718</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2910,7 +2794,7 @@
         <v>-152901.0778684718</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2943,7 +2827,7 @@
         <v>-152901.0778684718</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2976,7 +2860,7 @@
         <v>-152901.0778684718</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3009,7 +2893,7 @@
         <v>-152901.0778684718</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3042,7 +2926,7 @@
         <v>-148041.3209684718</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3075,7 +2959,7 @@
         <v>-138654.0849205844</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3108,7 +2992,7 @@
         <v>-138654.0849205844</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3141,7 +3025,7 @@
         <v>-138654.0849205844</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3207,7 +3091,7 @@
         <v>-141289.7284205844</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3240,7 +3124,7 @@
         <v>-141289.7284205844</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3273,7 +3157,7 @@
         <v>-165077.0110205844</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3306,7 +3190,7 @@
         <v>-165077.0110205844</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3339,7 +3223,7 @@
         <v>-164777.0222205844</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3372,7 +3256,7 @@
         <v>-164777.0222205844</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3405,7 +3289,7 @@
         <v>-185182.3895205845</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3438,7 +3322,7 @@
         <v>-185182.3895205845</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3471,7 +3355,7 @@
         <v>-185182.3895205845</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3504,7 +3388,7 @@
         <v>-195452.7799205845</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3537,7 +3421,7 @@
         <v>-195452.7799205845</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3570,7 +3454,7 @@
         <v>-199786.7779205845</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3603,7 +3487,7 @@
         <v>-198015.6265205845</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3636,7 +3520,7 @@
         <v>-212503.0384205845</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3669,7 +3553,7 @@
         <v>-213902.5956205845</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3702,7 +3586,7 @@
         <v>-212501.9050205845</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3735,7 +3619,7 @@
         <v>-216744.7181205845</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3768,7 +3652,7 @@
         <v>-216743.7181205845</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3801,7 +3685,7 @@
         <v>-216743.7181205845</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3834,7 +3718,7 @@
         <v>-216765.7312205845</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3867,7 +3751,7 @@
         <v>-216765.7312205845</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3933,7 +3817,7 @@
         <v>-219600.9733205845</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3966,7 +3850,7 @@
         <v>-220110.9739205845</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3999,7 +3883,7 @@
         <v>-220110.9739205845</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4032,7 +3916,7 @@
         <v>-220110.9739205845</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4065,7 +3949,7 @@
         <v>-220110.9739205845</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4131,7 +4015,7 @@
         <v>-236565.3708205845</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4164,7 +4048,7 @@
         <v>-247677.9425205845</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4197,7 +4081,7 @@
         <v>-247677.9425205845</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4230,7 +4114,7 @@
         <v>-246795.8801205845</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4263,7 +4147,7 @@
         <v>-246795.8801205845</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4329,7 +4213,7 @@
         <v>-258043.8320205845</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4395,7 +4279,7 @@
         <v>-276269.5694205845</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4428,7 +4312,7 @@
         <v>-330930.2352205845</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4461,7 +4345,7 @@
         <v>-365920.0896205845</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -5649,7 +5533,7 @@
         <v>-517624.8621205845</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>127</v>
@@ -5686,11 +5570,9 @@
         <v>-517624.8621205845</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
-      </c>
-      <c r="I157" t="n">
-        <v>128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
         <v>127</v>
       </c>
@@ -5727,7 +5609,7 @@
         <v>-522624.8621205845</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>128</v>
@@ -5768,7 +5650,7 @@
         <v>-522623.8621205845</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>127</v>
@@ -5805,7 +5687,7 @@
         <v>-522623.8621205845</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>128</v>
@@ -5846,11 +5728,9 @@
         <v>-522623.8621205845</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
-      </c>
-      <c r="I161" t="n">
-        <v>128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
         <v>127</v>
       </c>
@@ -5887,7 +5767,7 @@
         <v>-522804.6003205845</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>128</v>
@@ -5928,7 +5808,7 @@
         <v>-527401.7344205845</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>127</v>
@@ -5969,7 +5849,7 @@
         <v>-527400.7344205845</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>126</v>
@@ -6010,7 +5890,7 @@
         <v>-527400.7344205845</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>128</v>
@@ -6051,7 +5931,7 @@
         <v>-530161.6545205845</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>128</v>
@@ -6092,7 +5972,7 @@
         <v>-530174.5027205845</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>127</v>
@@ -6133,7 +6013,7 @@
         <v>-530173.5027205845</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>125</v>
@@ -6174,7 +6054,7 @@
         <v>-530173.5027205845</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>126</v>
@@ -6215,7 +6095,7 @@
         <v>-530172.5027205845</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>126</v>
@@ -6256,7 +6136,7 @@
         <v>-530172.5027205845</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>127</v>
@@ -6297,7 +6177,7 @@
         <v>-530304.5339205845</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>127</v>
@@ -6338,7 +6218,7 @@
         <v>-561563.5580205845</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>126</v>
@@ -6379,11 +6259,9 @@
         <v>-561563.5580205845</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="n">
-        <v>125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
         <v>127</v>
       </c>
@@ -6420,7 +6298,7 @@
         <v>-561563.5580205845</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>125</v>
@@ -6461,7 +6339,7 @@
         <v>-561563.5580205845</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>125</v>
@@ -6502,7 +6380,7 @@
         <v>-561020.2830205845</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>125</v>
@@ -6521,6 +6399,6 @@
       <c r="M177" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest FX.xlsx
+++ b/BackTest/2019-10-16 BackTest FX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2332,7 +2332,7 @@
         <v>-96302.82470555387</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-114605.5968055539</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-114604.5968055539</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-133033.2538055539</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-129275.4453262681</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-129275.4453262681</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-129275.4453262681</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-99000.24681775751</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-150832.5529684718</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-150832.5529684718</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-147301.0778684718</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-138654.0849205844</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-138654.0849205844</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-141289.7284205844</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-141289.7284205844</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-165077.0110205844</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-165077.0110205844</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-164777.0222205844</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-164777.0222205844</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-212503.0384205845</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-216744.7181205845</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-216743.7181205845</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-216743.7181205845</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-216765.7312205845</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-216765.7312205845</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-219600.9733205845</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-220110.9739205845</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-220110.9739205845</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-220110.9739205845</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -5533,14 +5533,10 @@
         <v>-517624.8621205845</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>127</v>
-      </c>
-      <c r="J156" t="n">
-        <v>127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
@@ -5573,832 +5569,694 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>127</v>
-      </c>
-      <c r="K157" t="inlineStr">
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>127</v>
+      </c>
+      <c r="C158" t="n">
+        <v>127</v>
+      </c>
+      <c r="D158" t="n">
+        <v>127</v>
+      </c>
+      <c r="E158" t="n">
+        <v>127</v>
+      </c>
+      <c r="F158" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-522624.8621205845</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>128</v>
+      </c>
+      <c r="C159" t="n">
+        <v>128</v>
+      </c>
+      <c r="D159" t="n">
+        <v>128</v>
+      </c>
+      <c r="E159" t="n">
+        <v>128</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>-522623.8621205845</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>128</v>
+      </c>
+      <c r="C160" t="n">
+        <v>128</v>
+      </c>
+      <c r="D160" t="n">
+        <v>128</v>
+      </c>
+      <c r="E160" t="n">
+        <v>128</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-522623.8621205845</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>127</v>
+      </c>
+      <c r="C161" t="n">
+        <v>128</v>
+      </c>
+      <c r="D161" t="n">
+        <v>128</v>
+      </c>
+      <c r="E161" t="n">
+        <v>127</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3.9091</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-522623.8621205845</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>127</v>
+      </c>
+      <c r="C162" t="n">
+        <v>127</v>
+      </c>
+      <c r="D162" t="n">
+        <v>127</v>
+      </c>
+      <c r="E162" t="n">
+        <v>127</v>
+      </c>
+      <c r="F162" t="n">
+        <v>180.7382</v>
+      </c>
+      <c r="G162" t="n">
+        <v>-522804.6003205845</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>126</v>
+      </c>
+      <c r="C163" t="n">
+        <v>126</v>
+      </c>
+      <c r="D163" t="n">
+        <v>126</v>
+      </c>
+      <c r="E163" t="n">
+        <v>126</v>
+      </c>
+      <c r="F163" t="n">
+        <v>4597.1341</v>
+      </c>
+      <c r="G163" t="n">
+        <v>-527401.7344205845</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>128</v>
+      </c>
+      <c r="C164" t="n">
+        <v>128</v>
+      </c>
+      <c r="D164" t="n">
+        <v>128</v>
+      </c>
+      <c r="E164" t="n">
+        <v>128</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-527400.7344205845</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>127</v>
+      </c>
+      <c r="C165" t="n">
+        <v>128</v>
+      </c>
+      <c r="D165" t="n">
+        <v>128</v>
+      </c>
+      <c r="E165" t="n">
+        <v>127</v>
+      </c>
+      <c r="F165" t="n">
+        <v>5378.3183</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-527400.7344205845</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>126</v>
+      </c>
+      <c r="C166" t="n">
+        <v>127</v>
+      </c>
+      <c r="D166" t="n">
+        <v>127</v>
+      </c>
+      <c r="E166" t="n">
+        <v>126</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2760.9201</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-530161.6545205845</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>125</v>
+      </c>
+      <c r="C167" t="n">
+        <v>125</v>
+      </c>
+      <c r="D167" t="n">
+        <v>125</v>
+      </c>
+      <c r="E167" t="n">
+        <v>125</v>
+      </c>
+      <c r="F167" t="n">
+        <v>12.8482</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-530174.5027205845</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>126</v>
+      </c>
+      <c r="C168" t="n">
+        <v>126</v>
+      </c>
+      <c r="D168" t="n">
+        <v>126</v>
+      </c>
+      <c r="E168" t="n">
+        <v>126</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-530173.5027205845</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>126</v>
+      </c>
+      <c r="C169" t="n">
+        <v>126</v>
+      </c>
+      <c r="D169" t="n">
+        <v>126</v>
+      </c>
+      <c r="E169" t="n">
+        <v>126</v>
+      </c>
+      <c r="F169" t="n">
+        <v>9811.306699999999</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-530173.5027205845</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>127</v>
+      </c>
+      <c r="C170" t="n">
+        <v>127</v>
+      </c>
+      <c r="D170" t="n">
+        <v>127</v>
+      </c>
+      <c r="E170" t="n">
+        <v>127</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>-530172.5027205845</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>127</v>
+      </c>
+      <c r="C171" t="n">
+        <v>127</v>
+      </c>
+      <c r="D171" t="n">
+        <v>127</v>
+      </c>
+      <c r="E171" t="n">
+        <v>127</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1274</v>
+      </c>
+      <c r="G171" t="n">
+        <v>-530172.5027205845</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>126</v>
+      </c>
+      <c r="C172" t="n">
+        <v>126</v>
+      </c>
+      <c r="D172" t="n">
+        <v>126</v>
+      </c>
+      <c r="E172" t="n">
+        <v>126</v>
+      </c>
+      <c r="F172" t="n">
+        <v>132.0312</v>
+      </c>
+      <c r="G172" t="n">
+        <v>-530304.5339205845</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>126</v>
+      </c>
+      <c r="C173" t="n">
+        <v>125</v>
+      </c>
+      <c r="D173" t="n">
+        <v>126</v>
+      </c>
+      <c r="E173" t="n">
+        <v>125</v>
+      </c>
+      <c r="F173" t="n">
+        <v>31259.0241</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-561563.5580205845</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>125</v>
+      </c>
+      <c r="C174" t="n">
+        <v>125</v>
+      </c>
+      <c r="D174" t="n">
+        <v>125</v>
+      </c>
+      <c r="E174" t="n">
+        <v>125</v>
+      </c>
+      <c r="F174" t="n">
+        <v>4979.7536</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-561563.5580205845</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>125</v>
+      </c>
+      <c r="C175" t="n">
+        <v>125</v>
+      </c>
+      <c r="D175" t="n">
+        <v>125</v>
+      </c>
+      <c r="E175" t="n">
+        <v>125</v>
+      </c>
+      <c r="F175" t="n">
+        <v>20216.3552</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-561563.5580205845</v>
+      </c>
+      <c r="H175" t="n">
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>125</v>
+      </c>
+      <c r="J175" t="n">
+        <v>125</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>125</v>
+      </c>
+      <c r="C176" t="n">
+        <v>125</v>
+      </c>
+      <c r="D176" t="n">
+        <v>125</v>
+      </c>
+      <c r="E176" t="n">
+        <v>125</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2325.92</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-561563.5580205845</v>
+      </c>
+      <c r="H176" t="n">
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>125</v>
+      </c>
+      <c r="J176" t="n">
+        <v>125</v>
+      </c>
+      <c r="K176" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>127</v>
-      </c>
-      <c r="C158" t="n">
-        <v>127</v>
-      </c>
-      <c r="D158" t="n">
-        <v>127</v>
-      </c>
-      <c r="E158" t="n">
-        <v>127</v>
-      </c>
-      <c r="F158" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-522624.8621205845</v>
-      </c>
-      <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>128</v>
-      </c>
-      <c r="J158" t="n">
-        <v>127</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>128</v>
-      </c>
-      <c r="C159" t="n">
-        <v>128</v>
-      </c>
-      <c r="D159" t="n">
-        <v>128</v>
-      </c>
-      <c r="E159" t="n">
-        <v>128</v>
-      </c>
-      <c r="F159" t="n">
-        <v>1</v>
-      </c>
-      <c r="G159" t="n">
-        <v>-522623.8621205845</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>127</v>
-      </c>
-      <c r="J159" t="n">
-        <v>127</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>128</v>
-      </c>
-      <c r="C160" t="n">
-        <v>128</v>
-      </c>
-      <c r="D160" t="n">
-        <v>128</v>
-      </c>
-      <c r="E160" t="n">
-        <v>128</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1</v>
-      </c>
-      <c r="G160" t="n">
-        <v>-522623.8621205845</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>128</v>
-      </c>
-      <c r="J160" t="n">
-        <v>127</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>127</v>
-      </c>
-      <c r="C161" t="n">
-        <v>128</v>
-      </c>
-      <c r="D161" t="n">
-        <v>128</v>
-      </c>
-      <c r="E161" t="n">
-        <v>127</v>
-      </c>
-      <c r="F161" t="n">
-        <v>3.9091</v>
-      </c>
-      <c r="G161" t="n">
-        <v>-522623.8621205845</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>127</v>
-      </c>
-      <c r="K161" t="inlineStr">
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>125</v>
+      </c>
+      <c r="C177" t="n">
+        <v>126</v>
+      </c>
+      <c r="D177" t="n">
+        <v>126</v>
+      </c>
+      <c r="E177" t="n">
+        <v>125</v>
+      </c>
+      <c r="F177" t="n">
+        <v>543.275</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-561020.2830205845</v>
+      </c>
+      <c r="H177" t="n">
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>125</v>
+      </c>
+      <c r="J177" t="n">
+        <v>125</v>
+      </c>
+      <c r="K177" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>127</v>
-      </c>
-      <c r="C162" t="n">
-        <v>127</v>
-      </c>
-      <c r="D162" t="n">
-        <v>127</v>
-      </c>
-      <c r="E162" t="n">
-        <v>127</v>
-      </c>
-      <c r="F162" t="n">
-        <v>180.7382</v>
-      </c>
-      <c r="G162" t="n">
-        <v>-522804.6003205845</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>128</v>
-      </c>
-      <c r="J162" t="n">
-        <v>127</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>126</v>
-      </c>
-      <c r="C163" t="n">
-        <v>126</v>
-      </c>
-      <c r="D163" t="n">
-        <v>126</v>
-      </c>
-      <c r="E163" t="n">
-        <v>126</v>
-      </c>
-      <c r="F163" t="n">
-        <v>4597.1341</v>
-      </c>
-      <c r="G163" t="n">
-        <v>-527401.7344205845</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>127</v>
-      </c>
-      <c r="J163" t="n">
-        <v>127</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>128</v>
-      </c>
-      <c r="C164" t="n">
-        <v>128</v>
-      </c>
-      <c r="D164" t="n">
-        <v>128</v>
-      </c>
-      <c r="E164" t="n">
-        <v>128</v>
-      </c>
-      <c r="F164" t="n">
-        <v>1</v>
-      </c>
-      <c r="G164" t="n">
-        <v>-527400.7344205845</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>126</v>
-      </c>
-      <c r="J164" t="n">
-        <v>127</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>127</v>
-      </c>
-      <c r="C165" t="n">
-        <v>128</v>
-      </c>
-      <c r="D165" t="n">
-        <v>128</v>
-      </c>
-      <c r="E165" t="n">
-        <v>127</v>
-      </c>
-      <c r="F165" t="n">
-        <v>5378.3183</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-527400.7344205845</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>128</v>
-      </c>
-      <c r="J165" t="n">
-        <v>127</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>126</v>
-      </c>
-      <c r="C166" t="n">
-        <v>127</v>
-      </c>
-      <c r="D166" t="n">
-        <v>127</v>
-      </c>
-      <c r="E166" t="n">
-        <v>126</v>
-      </c>
-      <c r="F166" t="n">
-        <v>2760.9201</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-530161.6545205845</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>128</v>
-      </c>
-      <c r="J166" t="n">
-        <v>127</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>125</v>
-      </c>
-      <c r="C167" t="n">
-        <v>125</v>
-      </c>
-      <c r="D167" t="n">
-        <v>125</v>
-      </c>
-      <c r="E167" t="n">
-        <v>125</v>
-      </c>
-      <c r="F167" t="n">
-        <v>12.8482</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-530174.5027205845</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>127</v>
-      </c>
-      <c r="J167" t="n">
-        <v>127</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>126</v>
-      </c>
-      <c r="C168" t="n">
-        <v>126</v>
-      </c>
-      <c r="D168" t="n">
-        <v>126</v>
-      </c>
-      <c r="E168" t="n">
-        <v>126</v>
-      </c>
-      <c r="F168" t="n">
-        <v>1</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-530173.5027205845</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>125</v>
-      </c>
-      <c r="J168" t="n">
-        <v>127</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>126</v>
-      </c>
-      <c r="C169" t="n">
-        <v>126</v>
-      </c>
-      <c r="D169" t="n">
-        <v>126</v>
-      </c>
-      <c r="E169" t="n">
-        <v>126</v>
-      </c>
-      <c r="F169" t="n">
-        <v>9811.306699999999</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-530173.5027205845</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>126</v>
-      </c>
-      <c r="J169" t="n">
-        <v>127</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>127</v>
-      </c>
-      <c r="C170" t="n">
-        <v>127</v>
-      </c>
-      <c r="D170" t="n">
-        <v>127</v>
-      </c>
-      <c r="E170" t="n">
-        <v>127</v>
-      </c>
-      <c r="F170" t="n">
-        <v>1</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-530172.5027205845</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>126</v>
-      </c>
-      <c r="J170" t="n">
-        <v>127</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>127</v>
-      </c>
-      <c r="C171" t="n">
-        <v>127</v>
-      </c>
-      <c r="D171" t="n">
-        <v>127</v>
-      </c>
-      <c r="E171" t="n">
-        <v>127</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1274</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-530172.5027205845</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>127</v>
-      </c>
-      <c r="J171" t="n">
-        <v>127</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>126</v>
-      </c>
-      <c r="C172" t="n">
-        <v>126</v>
-      </c>
-      <c r="D172" t="n">
-        <v>126</v>
-      </c>
-      <c r="E172" t="n">
-        <v>126</v>
-      </c>
-      <c r="F172" t="n">
-        <v>132.0312</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-530304.5339205845</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>127</v>
-      </c>
-      <c r="J172" t="n">
-        <v>127</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>126</v>
-      </c>
-      <c r="C173" t="n">
-        <v>125</v>
-      </c>
-      <c r="D173" t="n">
-        <v>126</v>
-      </c>
-      <c r="E173" t="n">
-        <v>125</v>
-      </c>
-      <c r="F173" t="n">
-        <v>31259.0241</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-561563.5580205845</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>126</v>
-      </c>
-      <c r="J173" t="n">
-        <v>127</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>125</v>
-      </c>
-      <c r="C174" t="n">
-        <v>125</v>
-      </c>
-      <c r="D174" t="n">
-        <v>125</v>
-      </c>
-      <c r="E174" t="n">
-        <v>125</v>
-      </c>
-      <c r="F174" t="n">
-        <v>4979.7536</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-561563.5580205845</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>127</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>125</v>
-      </c>
-      <c r="C175" t="n">
-        <v>125</v>
-      </c>
-      <c r="D175" t="n">
-        <v>125</v>
-      </c>
-      <c r="E175" t="n">
-        <v>125</v>
-      </c>
-      <c r="F175" t="n">
-        <v>20216.3552</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-561563.5580205845</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>125</v>
-      </c>
-      <c r="J175" t="n">
-        <v>127</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>125</v>
-      </c>
-      <c r="C176" t="n">
-        <v>125</v>
-      </c>
-      <c r="D176" t="n">
-        <v>125</v>
-      </c>
-      <c r="E176" t="n">
-        <v>125</v>
-      </c>
-      <c r="F176" t="n">
-        <v>2325.92</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-561563.5580205845</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>125</v>
-      </c>
-      <c r="J176" t="n">
-        <v>127</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>125</v>
-      </c>
-      <c r="C177" t="n">
-        <v>126</v>
-      </c>
-      <c r="D177" t="n">
-        <v>126</v>
-      </c>
-      <c r="E177" t="n">
-        <v>125</v>
-      </c>
-      <c r="F177" t="n">
-        <v>543.275</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-561020.2830205845</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>125</v>
-      </c>
-      <c r="J177" t="n">
-        <v>127</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
       <c r="M177" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest FX.xlsx
+++ b/BackTest/2019-10-16 BackTest FX.xlsx
@@ -2332,7 +2332,7 @@
         <v>-96302.82470555387</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-114605.5968055539</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-114604.5968055539</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-133033.2538055539</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-129275.4453262681</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-129275.4453262681</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-129275.4453262681</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-99000.24681775751</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-150832.5529684718</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-150832.5529684718</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-147301.0778684718</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-152901.0778684718</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-152901.0778684718</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-138654.0849205844</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-138654.0849205844</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-138654.0849205844</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-141289.7284205844</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-141289.7284205844</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-141289.7284205844</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-165077.0110205844</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-165077.0110205844</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-185182.3895205845</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-185182.3895205845</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-185182.3895205845</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-195452.7799205845</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-195452.7799205845</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-199786.7779205845</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-198015.6265205845</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-213902.5956205845</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-212501.9050205845</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -5896,10 +5896,14 @@
         <v>-530174.5027205845</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>127</v>
+      </c>
+      <c r="J167" t="n">
+        <v>127</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
@@ -5929,11 +5933,19 @@
         <v>-530173.5027205845</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>125</v>
+      </c>
+      <c r="J168" t="n">
+        <v>127</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5962,11 +5974,19 @@
         <v>-530173.5027205845</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>126</v>
+      </c>
+      <c r="J169" t="n">
+        <v>127</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5995,10 +6015,14 @@
         <v>-530172.5027205845</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>126</v>
+      </c>
+      <c r="J170" t="n">
+        <v>126</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
@@ -6028,11 +6052,19 @@
         <v>-530172.5027205845</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>127</v>
+      </c>
+      <c r="J171" t="n">
+        <v>126</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6061,11 +6093,19 @@
         <v>-530304.5339205845</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>127</v>
+      </c>
+      <c r="J172" t="n">
+        <v>126</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6094,11 +6134,19 @@
         <v>-561563.5580205845</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>126</v>
+      </c>
+      <c r="J173" t="n">
+        <v>126</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +6178,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>126</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6166,9 +6220,13 @@
         <v>125</v>
       </c>
       <c r="J175" t="n">
-        <v>125</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
+        <v>126</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6203,11 +6261,11 @@
         <v>125</v>
       </c>
       <c r="J176" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L176" t="n">
@@ -6244,11 +6302,11 @@
         <v>125</v>
       </c>
       <c r="J177" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L177" t="n">

--- a/BackTest/2019-10-16 BackTest FX.xlsx
+++ b/BackTest/2019-10-16 BackTest FX.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M177"/>
+  <dimension ref="A1:L177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>7552.006</v>
       </c>
       <c r="G2" t="n">
-        <v>-96649.06908188974</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>-96648.06908188974</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1220.308523664122</v>
       </c>
       <c r="G4" t="n">
-        <v>-97868.37760555386</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>1168</v>
       </c>
       <c r="G5" t="n">
-        <v>-97868.37760555386</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>2903.6718</v>
       </c>
       <c r="G6" t="n">
-        <v>-100772.0494055539</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>46.5745</v>
       </c>
       <c r="G7" t="n">
-        <v>-100725.4749055539</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>30.8472</v>
       </c>
       <c r="G8" t="n">
-        <v>-100756.3221055539</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>7.4656</v>
       </c>
       <c r="G9" t="n">
-        <v>-100756.3221055539</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>11980.5189</v>
       </c>
       <c r="G10" t="n">
-        <v>-100756.3221055539</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>4474.878</v>
       </c>
       <c r="G11" t="n">
-        <v>-100756.3221055539</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>584</v>
       </c>
       <c r="G12" t="n">
-        <v>-100756.3221055539</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>2500</v>
       </c>
       <c r="G13" t="n">
-        <v>-103256.3221055539</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>5725.8631</v>
       </c>
       <c r="G14" t="n">
-        <v>-103256.3221055539</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>3277.1369</v>
       </c>
       <c r="G15" t="n">
-        <v>-103256.3221055539</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>-103356.3221055539</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>403.6207</v>
       </c>
       <c r="G17" t="n">
-        <v>-103356.3221055539</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>37469.8958</v>
       </c>
       <c r="G18" t="n">
-        <v>-140826.2179055539</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>121.4982</v>
       </c>
       <c r="G19" t="n">
-        <v>-140826.2179055539</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>2655.6164</v>
       </c>
       <c r="G20" t="n">
-        <v>-143481.8343055539</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>265.2089</v>
       </c>
       <c r="G21" t="n">
-        <v>-143216.6254055539</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>265.2089</v>
       </c>
       <c r="G22" t="n">
-        <v>-143481.8343055539</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>5773.2032</v>
       </c>
       <c r="G23" t="n">
-        <v>-137708.6311055539</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>70.2325</v>
       </c>
       <c r="G24" t="n">
-        <v>-137638.3986055539</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>9.015499999999999</v>
       </c>
       <c r="G25" t="n">
-        <v>-137638.3986055539</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>2.7935</v>
       </c>
       <c r="G26" t="n">
-        <v>-137641.1921055539</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>-137640.1921055539</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>4093</v>
       </c>
       <c r="G28" t="n">
-        <v>-137640.1921055539</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>54.9573</v>
       </c>
       <c r="G29" t="n">
-        <v>-137640.1921055539</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>757</v>
       </c>
       <c r="G30" t="n">
-        <v>-137640.1921055539</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>3255.7701</v>
       </c>
       <c r="G31" t="n">
-        <v>-137640.1921055539</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>20.3307</v>
       </c>
       <c r="G32" t="n">
-        <v>-137640.1921055539</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>20.3333</v>
       </c>
       <c r="G33" t="n">
-        <v>-137640.1921055539</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>812</v>
       </c>
       <c r="G34" t="n">
-        <v>-137640.1921055539</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>-137639.1921055539</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>2493.0538</v>
       </c>
       <c r="G36" t="n">
-        <v>-137639.1921055539</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>-137639.1921055539</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>7543.8118</v>
       </c>
       <c r="G38" t="n">
-        <v>-145183.0039055539</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>6249.9999</v>
       </c>
       <c r="G39" t="n">
-        <v>-145183.0039055539</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>6267.6125</v>
       </c>
       <c r="G40" t="n">
-        <v>-151450.6164055539</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>280.2662</v>
       </c>
       <c r="G41" t="n">
-        <v>-151450.6164055539</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>-151449.6164055539</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>1822</v>
       </c>
       <c r="G43" t="n">
-        <v>-151449.6164055539</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>99925.79489999999</v>
       </c>
       <c r="G44" t="n">
-        <v>-151449.6164055539</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>-151448.6164055539</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>1</v>
       </c>
       <c r="G46" t="n">
-        <v>-151448.6164055539</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1539.9178</v>
       </c>
       <c r="G47" t="n">
-        <v>-149908.6986055539</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>810.5253</v>
       </c>
       <c r="G48" t="n">
-        <v>-149908.6986055539</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>2222</v>
       </c>
       <c r="G49" t="n">
-        <v>-152130.6986055539</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>-152129.6986055539</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>2223</v>
       </c>
       <c r="G51" t="n">
-        <v>-154352.6986055539</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>1</v>
       </c>
       <c r="G52" t="n">
-        <v>-154351.6986055539</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>5445</v>
       </c>
       <c r="G53" t="n">
-        <v>-154351.6986055539</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>43193.3155</v>
       </c>
       <c r="G54" t="n">
-        <v>-111158.3831055539</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>134.8813</v>
       </c>
       <c r="G55" t="n">
-        <v>-111158.3831055539</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>40.4644</v>
       </c>
       <c r="G56" t="n">
-        <v>-111158.3831055539</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>14854.5584</v>
       </c>
       <c r="G57" t="n">
-        <v>-96303.82470555387</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>-96302.82470555387</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>13925.3508</v>
       </c>
       <c r="G59" t="n">
-        <v>-96302.82470555387</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>-96301.82470555387</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>11628.8198</v>
       </c>
       <c r="G61" t="n">
-        <v>-84673.00490555387</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>29932.5919</v>
       </c>
       <c r="G62" t="n">
-        <v>-114605.5968055539</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>-114604.5968055539</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>17093.0724</v>
       </c>
       <c r="G64" t="n">
-        <v>-114604.5968055539</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>18428.657</v>
       </c>
       <c r="G65" t="n">
-        <v>-133033.2538055539</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>3757.808479285714</v>
       </c>
       <c r="G66" t="n">
-        <v>-129275.4453262681</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>37606.00612071429</v>
       </c>
       <c r="G67" t="n">
-        <v>-129275.4453262681</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>88619.06419999999</v>
       </c>
       <c r="G68" t="n">
-        <v>-129275.4453262681</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>30275.19850851064</v>
       </c>
       <c r="G69" t="n">
-        <v>-99000.24681775751</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>51832.30615071428</v>
       </c>
       <c r="G70" t="n">
-        <v>-150832.5529684718</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>2776.825</v>
       </c>
       <c r="G71" t="n">
-        <v>-150832.5529684718</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>3531.4751</v>
       </c>
       <c r="G72" t="n">
-        <v>-147301.0778684718</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>5600</v>
       </c>
       <c r="G73" t="n">
-        <v>-152901.0778684718</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>493.2565</v>
       </c>
       <c r="G74" t="n">
-        <v>-152901.0778684718</v>
-      </c>
-      <c r="H74" t="n">
         <v>2</v>
       </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>11613.9934</v>
       </c>
       <c r="G75" t="n">
-        <v>-152901.0778684718</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>3302.3944</v>
       </c>
       <c r="G76" t="n">
-        <v>-152901.0778684718</v>
-      </c>
-      <c r="H76" t="n">
         <v>2</v>
       </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>4859.7569</v>
       </c>
       <c r="G77" t="n">
-        <v>-148041.3209684718</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>9387.236047887323</v>
       </c>
       <c r="G78" t="n">
-        <v>-138654.0849205844</v>
-      </c>
-      <c r="H78" t="n">
         <v>2</v>
       </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>1049.2887</v>
       </c>
       <c r="G79" t="n">
-        <v>-138654.0849205844</v>
-      </c>
-      <c r="H79" t="n">
         <v>2</v>
       </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>574.4435999999999</v>
       </c>
       <c r="G80" t="n">
-        <v>-138654.0849205844</v>
-      </c>
-      <c r="H80" t="n">
         <v>2</v>
       </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>2635.6435</v>
       </c>
       <c r="G81" t="n">
-        <v>-141289.7284205844</v>
-      </c>
-      <c r="H81" t="n">
         <v>2</v>
       </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>8435.8951</v>
       </c>
       <c r="G82" t="n">
-        <v>-141289.7284205844</v>
-      </c>
-      <c r="H82" t="n">
         <v>2</v>
       </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>2116.068</v>
       </c>
       <c r="G83" t="n">
-        <v>-141289.7284205844</v>
-      </c>
-      <c r="H83" t="n">
         <v>2</v>
       </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>23787.2826</v>
       </c>
       <c r="G84" t="n">
-        <v>-165077.0110205844</v>
-      </c>
-      <c r="H84" t="n">
         <v>2</v>
       </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>105.0449</v>
       </c>
       <c r="G85" t="n">
-        <v>-165077.0110205844</v>
-      </c>
-      <c r="H85" t="n">
         <v>2</v>
       </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>299.9888</v>
       </c>
       <c r="G86" t="n">
-        <v>-164777.0222205844</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>16004.9263</v>
       </c>
       <c r="G87" t="n">
-        <v>-164777.0222205844</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>20405.3673</v>
       </c>
       <c r="G88" t="n">
-        <v>-185182.3895205845</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>5810.7727</v>
       </c>
       <c r="G89" t="n">
-        <v>-185182.3895205845</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>13420.5848</v>
       </c>
       <c r="G90" t="n">
-        <v>-185182.3895205845</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>10270.3904</v>
       </c>
       <c r="G91" t="n">
-        <v>-195452.7799205845</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>4632.8888</v>
       </c>
       <c r="G92" t="n">
-        <v>-195452.7799205845</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>4333.998</v>
       </c>
       <c r="G93" t="n">
-        <v>-199786.7779205845</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>1771.1514</v>
       </c>
       <c r="G94" t="n">
-        <v>-198015.6265205845</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>14487.4119</v>
       </c>
       <c r="G95" t="n">
-        <v>-212503.0384205845</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>1399.5572</v>
       </c>
       <c r="G96" t="n">
-        <v>-213902.5956205845</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>1400.6906</v>
       </c>
       <c r="G97" t="n">
-        <v>-212501.9050205845</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>4242.8131</v>
       </c>
       <c r="G98" t="n">
-        <v>-216744.7181205845</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>1</v>
       </c>
       <c r="G99" t="n">
-        <v>-216743.7181205845</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>333.6893</v>
       </c>
       <c r="G100" t="n">
-        <v>-216743.7181205845</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>22.0131</v>
       </c>
       <c r="G101" t="n">
-        <v>-216765.7312205845</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>54.9573</v>
       </c>
       <c r="G102" t="n">
-        <v>-216765.7312205845</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>391</v>
       </c>
       <c r="G103" t="n">
-        <v>-216374.7312205845</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>3226.2421</v>
       </c>
       <c r="G104" t="n">
-        <v>-219600.9733205845</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>510.0006</v>
       </c>
       <c r="G105" t="n">
-        <v>-220110.9739205845</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>9.015499999999999</v>
       </c>
       <c r="G106" t="n">
-        <v>-220110.9739205845</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>3997.2596</v>
       </c>
       <c r="G107" t="n">
-        <v>-220110.9739205845</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>296.0742</v>
       </c>
       <c r="G108" t="n">
-        <v>-220110.9739205845</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>16455.3969</v>
       </c>
       <c r="G109" t="n">
-        <v>-236566.3708205845</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>1</v>
       </c>
       <c r="G110" t="n">
-        <v>-236565.3708205845</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>11112.5717</v>
       </c>
       <c r="G111" t="n">
-        <v>-247677.9425205845</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>3958.7108</v>
       </c>
       <c r="G112" t="n">
-        <v>-247677.9425205845</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>882.0624</v>
       </c>
       <c r="G113" t="n">
-        <v>-246795.8801205845</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>260.6951</v>
       </c>
       <c r="G114" t="n">
-        <v>-246795.8801205845</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>11247.9519</v>
       </c>
       <c r="G115" t="n">
-        <v>-258043.8320205845</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>12206.1401</v>
       </c>
       <c r="G116" t="n">
-        <v>-258043.8320205845</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>147.8282</v>
       </c>
       <c r="G117" t="n">
-        <v>-257896.0038205845</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>18373.5656</v>
       </c>
       <c r="G118" t="n">
-        <v>-276269.5694205845</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>54660.6658</v>
       </c>
       <c r="G119" t="n">
-        <v>-330930.2352205845</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>34989.8544</v>
       </c>
       <c r="G120" t="n">
-        <v>-365920.0896205845</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>95555.4189</v>
       </c>
       <c r="G121" t="n">
-        <v>-461475.5085205845</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>1</v>
       </c>
       <c r="G122" t="n">
-        <v>-461474.5085205845</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>51344.354</v>
       </c>
       <c r="G123" t="n">
-        <v>-512818.8625205845</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,21 @@
         <v>27667.9559</v>
       </c>
       <c r="G124" t="n">
-        <v>-512818.8625205845</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4139,21 @@
         <v>52607.8292</v>
       </c>
       <c r="G125" t="n">
-        <v>-512818.8625205845</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4175,21 @@
         <v>306.0202</v>
       </c>
       <c r="G126" t="n">
-        <v>-512512.8423205845</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4211,21 @@
         <v>3789.069</v>
       </c>
       <c r="G127" t="n">
-        <v>-508723.7733205844</v>
+        <v>1</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4247,21 @@
         <v>2510.7283</v>
       </c>
       <c r="G128" t="n">
-        <v>-506213.0450205844</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4283,21 @@
         <v>1444.9251</v>
       </c>
       <c r="G129" t="n">
-        <v>-506213.0450205844</v>
+        <v>1</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4319,19 @@
         <v>491.5162</v>
       </c>
       <c r="G130" t="n">
-        <v>-506704.5612205844</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4353,21 @@
         <v>1</v>
       </c>
       <c r="G131" t="n">
-        <v>-506703.5612205844</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4389,21 @@
         <v>112</v>
       </c>
       <c r="G132" t="n">
-        <v>-506591.5612205844</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4425,19 @@
         <v>21</v>
       </c>
       <c r="G133" t="n">
-        <v>-506612.5612205844</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4459,19 @@
         <v>5</v>
       </c>
       <c r="G134" t="n">
-        <v>-506612.5612205844</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4493,19 @@
         <v>6890</v>
       </c>
       <c r="G135" t="n">
-        <v>-499722.5612205844</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4527,19 @@
         <v>5</v>
       </c>
       <c r="G136" t="n">
-        <v>-499717.5612205844</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4561,19 @@
         <v>3</v>
       </c>
       <c r="G137" t="n">
-        <v>-499717.5612205844</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4595,19 @@
         <v>1</v>
       </c>
       <c r="G138" t="n">
-        <v>-499718.5612205844</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4629,19 @@
         <v>3</v>
       </c>
       <c r="G139" t="n">
-        <v>-499715.5612205844</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4663,19 @@
         <v>2</v>
       </c>
       <c r="G140" t="n">
-        <v>-499715.5612205844</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4697,19 @@
         <v>5</v>
       </c>
       <c r="G141" t="n">
-        <v>-499720.5612205844</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4731,19 @@
         <v>11</v>
       </c>
       <c r="G142" t="n">
-        <v>-499709.5612205844</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4765,19 @@
         <v>602</v>
       </c>
       <c r="G143" t="n">
-        <v>-499709.5612205844</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4799,19 @@
         <v>1301</v>
       </c>
       <c r="G144" t="n">
-        <v>-499709.5612205844</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4833,19 @@
         <v>300</v>
       </c>
       <c r="G145" t="n">
-        <v>-499709.5612205844</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4867,19 @@
         <v>1</v>
       </c>
       <c r="G146" t="n">
-        <v>-499710.5612205844</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4901,19 @@
         <v>401</v>
       </c>
       <c r="G147" t="n">
-        <v>-499309.5612205844</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4935,19 @@
         <v>17436.0701</v>
       </c>
       <c r="G148" t="n">
-        <v>-516745.6313205844</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4969,19 @@
         <v>1</v>
       </c>
       <c r="G149" t="n">
-        <v>-516744.6313205844</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +5003,19 @@
         <v>10</v>
       </c>
       <c r="G150" t="n">
-        <v>-516754.6313205844</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +5037,19 @@
         <v>151.7632</v>
       </c>
       <c r="G151" t="n">
-        <v>-516754.6313205844</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +5071,19 @@
         <v>51</v>
       </c>
       <c r="G152" t="n">
-        <v>-516805.6313205844</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5105,19 @@
         <v>8.925000000000001</v>
       </c>
       <c r="G153" t="n">
-        <v>-516805.6313205844</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5139,19 @@
         <v>1</v>
       </c>
       <c r="G154" t="n">
-        <v>-516804.6313205844</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5173,19 @@
         <v>821.2308</v>
       </c>
       <c r="G155" t="n">
-        <v>-517625.8621205845</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5207,19 @@
         <v>1</v>
       </c>
       <c r="G156" t="n">
-        <v>-517624.8621205845</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5241,19 @@
         <v>10156.25</v>
       </c>
       <c r="G157" t="n">
-        <v>-517624.8621205845</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5275,19 @@
         <v>5000</v>
       </c>
       <c r="G158" t="n">
-        <v>-522624.8621205845</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5309,19 @@
         <v>1</v>
       </c>
       <c r="G159" t="n">
-        <v>-522623.8621205845</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5343,19 @@
         <v>1</v>
       </c>
       <c r="G160" t="n">
-        <v>-522623.8621205845</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5377,19 @@
         <v>3.9091</v>
       </c>
       <c r="G161" t="n">
-        <v>-522623.8621205845</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5411,19 @@
         <v>180.7382</v>
       </c>
       <c r="G162" t="n">
-        <v>-522804.6003205845</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5445,19 @@
         <v>4597.1341</v>
       </c>
       <c r="G163" t="n">
-        <v>-527401.7344205845</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5479,19 @@
         <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>-527400.7344205845</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5513,19 @@
         <v>5378.3183</v>
       </c>
       <c r="G165" t="n">
-        <v>-527400.7344205845</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5547,19 @@
         <v>2760.9201</v>
       </c>
       <c r="G166" t="n">
-        <v>-530161.6545205845</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,22 +5581,19 @@
         <v>12.8482</v>
       </c>
       <c r="G167" t="n">
-        <v>-530174.5027205845</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>127</v>
-      </c>
-      <c r="J167" t="n">
-        <v>127</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5930,26 +5615,19 @@
         <v>1</v>
       </c>
       <c r="G168" t="n">
-        <v>-530173.5027205845</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>125</v>
-      </c>
-      <c r="J168" t="n">
-        <v>127</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5971,26 +5649,19 @@
         <v>9811.306699999999</v>
       </c>
       <c r="G169" t="n">
-        <v>-530173.5027205845</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>126</v>
-      </c>
-      <c r="J169" t="n">
-        <v>127</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6012,22 +5683,19 @@
         <v>1</v>
       </c>
       <c r="G170" t="n">
-        <v>-530172.5027205845</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>126</v>
-      </c>
-      <c r="J170" t="n">
-        <v>126</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6049,26 +5717,19 @@
         <v>1274</v>
       </c>
       <c r="G171" t="n">
-        <v>-530172.5027205845</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>127</v>
-      </c>
-      <c r="J171" t="n">
-        <v>126</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6090,26 +5751,19 @@
         <v>132.0312</v>
       </c>
       <c r="G172" t="n">
-        <v>-530304.5339205845</v>
-      </c>
-      <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>127</v>
-      </c>
-      <c r="J172" t="n">
-        <v>126</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6131,26 +5785,19 @@
         <v>31259.0241</v>
       </c>
       <c r="G173" t="n">
-        <v>-561563.5580205845</v>
-      </c>
-      <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>126</v>
-      </c>
-      <c r="J173" t="n">
-        <v>126</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6172,24 +5819,19 @@
         <v>4979.7536</v>
       </c>
       <c r="G174" t="n">
-        <v>-561563.5580205845</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>126</v>
-      </c>
-      <c r="K174" t="inlineStr">
+      <c r="J174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6211,26 +5853,19 @@
         <v>20216.3552</v>
       </c>
       <c r="G175" t="n">
-        <v>-561563.5580205845</v>
-      </c>
-      <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>125</v>
-      </c>
-      <c r="J175" t="n">
-        <v>126</v>
-      </c>
-      <c r="K175" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6252,26 +5887,19 @@
         <v>2325.92</v>
       </c>
       <c r="G176" t="n">
-        <v>-561563.5580205845</v>
-      </c>
-      <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>125</v>
-      </c>
-      <c r="J176" t="n">
-        <v>126</v>
-      </c>
-      <c r="K176" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6293,26 +5921,19 @@
         <v>543.275</v>
       </c>
       <c r="G177" t="n">
-        <v>-561020.2830205845</v>
-      </c>
-      <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>125</v>
-      </c>
-      <c r="J177" t="n">
-        <v>126</v>
-      </c>
-      <c r="K177" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
